--- a/database/industries/palayesh/shetran/product/monthly_seprated.xlsx
+++ b/database/industries/palayesh/shetran/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\palayesh\shetran\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38559AB-342E-48AA-A14C-768CE705567D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A59EDA-5ADB-4963-B28C-642BC87D9D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="95">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1522,95 +1522,95 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>79489</v>
       </c>
       <c r="Z11" s="11">
-        <v>79489</v>
+        <v>112614</v>
       </c>
       <c r="AA11" s="11">
-        <v>112614</v>
+        <v>86096</v>
       </c>
       <c r="AB11" s="11">
-        <v>86096</v>
+        <v>72893</v>
       </c>
       <c r="AC11" s="11">
-        <v>72893</v>
+        <v>89017</v>
       </c>
       <c r="AD11" s="11">
-        <v>89017</v>
+        <v>75917</v>
       </c>
       <c r="AE11" s="11">
-        <v>75917</v>
+        <v>82161</v>
       </c>
       <c r="AF11" s="11">
-        <v>82161</v>
+        <v>76159</v>
       </c>
       <c r="AG11" s="11">
-        <v>76159</v>
+        <v>84929</v>
       </c>
       <c r="AH11" s="11">
-        <v>84929</v>
+        <v>67339</v>
       </c>
       <c r="AI11" s="11">
-        <v>67339</v>
+        <v>113454</v>
       </c>
       <c r="AJ11" s="11">
-        <v>113454</v>
+        <v>53386</v>
       </c>
       <c r="AK11" s="11">
-        <v>53386</v>
+        <v>43852</v>
       </c>
       <c r="AL11" s="11">
-        <v>43852</v>
+        <v>72868</v>
       </c>
       <c r="AM11" s="11">
-        <v>72868</v>
+        <v>85520</v>
       </c>
       <c r="AN11" s="11">
-        <v>85520</v>
+        <v>64673</v>
       </c>
       <c r="AO11" s="11">
-        <v>64673</v>
+        <v>82415</v>
       </c>
       <c r="AP11" s="11">
-        <v>82415</v>
+        <v>67316</v>
       </c>
       <c r="AQ11" s="11">
-        <v>67316</v>
+        <v>75393</v>
       </c>
       <c r="AR11" s="11">
-        <v>75393</v>
+        <v>82961</v>
       </c>
       <c r="AS11" s="11">
-        <v>82961</v>
+        <v>82817</v>
       </c>
       <c r="AT11" s="11">
-        <v>82817</v>
+        <v>47783</v>
       </c>
       <c r="AU11" s="11">
-        <v>47783</v>
+        <v>74293</v>
       </c>
       <c r="AV11" s="11">
-        <v>74293</v>
+        <v>89338</v>
       </c>
       <c r="AW11" s="11">
-        <v>89338</v>
+        <v>97187</v>
       </c>
       <c r="AX11" s="11">
-        <v>97187</v>
+        <v>79620</v>
       </c>
       <c r="AY11" s="11">
-        <v>79620</v>
+        <v>90806</v>
       </c>
       <c r="AZ11" s="11">
-        <v>90806</v>
+        <v>87322</v>
       </c>
       <c r="BA11" s="11">
-        <v>87322</v>
+        <v>93994</v>
       </c>
       <c r="BB11" s="11">
-        <v>93994</v>
+        <v>96829</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1681,95 +1681,95 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>23219</v>
       </c>
       <c r="Z12" s="13">
-        <v>23219</v>
+        <v>8496</v>
       </c>
       <c r="AA12" s="13">
-        <v>8496</v>
+        <v>12549</v>
       </c>
       <c r="AB12" s="13">
-        <v>12549</v>
+        <v>10135</v>
       </c>
       <c r="AC12" s="13">
-        <v>10135</v>
+        <v>578</v>
       </c>
       <c r="AD12" s="13">
-        <v>578</v>
+        <v>9964</v>
       </c>
       <c r="AE12" s="13">
-        <v>9964</v>
+        <v>11088</v>
       </c>
       <c r="AF12" s="13">
-        <v>11088</v>
+        <v>8269</v>
       </c>
       <c r="AG12" s="13">
-        <v>8269</v>
+        <v>12316</v>
       </c>
       <c r="AH12" s="13">
-        <v>12316</v>
+        <v>12639</v>
       </c>
       <c r="AI12" s="13">
-        <v>12639</v>
+        <v>1505</v>
       </c>
       <c r="AJ12" s="13">
-        <v>1505</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="13">
-        <v>0</v>
+        <v>1156</v>
       </c>
       <c r="AL12" s="13">
-        <v>1156</v>
+        <v>8106</v>
       </c>
       <c r="AM12" s="13">
-        <v>8106</v>
+        <v>1367</v>
       </c>
       <c r="AN12" s="13">
-        <v>1367</v>
+        <v>4448</v>
       </c>
       <c r="AO12" s="13">
-        <v>4448</v>
+        <v>6561</v>
       </c>
       <c r="AP12" s="13">
-        <v>6561</v>
+        <v>13973</v>
       </c>
       <c r="AQ12" s="13">
-        <v>13973</v>
+        <v>5873</v>
       </c>
       <c r="AR12" s="13">
-        <v>5873</v>
+        <v>13761</v>
       </c>
       <c r="AS12" s="13">
-        <v>13761</v>
+        <v>11555</v>
       </c>
       <c r="AT12" s="13">
-        <v>11555</v>
+        <v>10117</v>
       </c>
       <c r="AU12" s="13">
-        <v>10117</v>
+        <v>7942</v>
       </c>
       <c r="AV12" s="13">
-        <v>7942</v>
+        <v>8108</v>
       </c>
       <c r="AW12" s="13">
-        <v>8108</v>
+        <v>1967</v>
       </c>
       <c r="AX12" s="13">
-        <v>1967</v>
+        <v>7209</v>
       </c>
       <c r="AY12" s="13">
-        <v>7209</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="13">
-        <v>0</v>
+        <v>2073</v>
       </c>
       <c r="BA12" s="13">
-        <v>2073</v>
+        <v>9864</v>
       </c>
       <c r="BB12" s="13">
-        <v>9864</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1840,95 +1840,95 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>2072</v>
       </c>
       <c r="Z13" s="11">
+        <v>2036</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>1944</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>1909</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>1818</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>2131</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>1546</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>1617</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>3060</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>3979</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>2389</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>1867</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>2441</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>3904</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>3720</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>3169</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>1461</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>2675</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>2747</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>3521</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>3246</v>
+      </c>
+      <c r="AT13" s="11">
         <v>2072</v>
       </c>
-      <c r="AA13" s="11">
-        <v>2036</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>1944</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>1909</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>1818</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>2131</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>1546</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>1617</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>3060</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>3979</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>2389</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>1867</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>2441</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>3904</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>3720</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>3169</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>1461</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>2675</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>2747</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>3521</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>3246</v>
-      </c>
       <c r="AU13" s="11">
-        <v>2072</v>
+        <v>3900</v>
       </c>
       <c r="AV13" s="11">
-        <v>3900</v>
+        <v>3535</v>
       </c>
       <c r="AW13" s="11">
-        <v>3535</v>
+        <v>1236</v>
       </c>
       <c r="AX13" s="11">
-        <v>1236</v>
+        <v>2733</v>
       </c>
       <c r="AY13" s="11">
-        <v>2733</v>
+        <v>4185</v>
       </c>
       <c r="AZ13" s="11">
-        <v>4185</v>
+        <v>4295</v>
       </c>
       <c r="BA13" s="11">
-        <v>4295</v>
+        <v>3575</v>
       </c>
       <c r="BB13" s="11">
-        <v>3575</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1999,95 +1999,95 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>45043</v>
       </c>
       <c r="Z14" s="13">
-        <v>45043</v>
+        <v>42923</v>
       </c>
       <c r="AA14" s="13">
-        <v>42923</v>
+        <v>43741</v>
       </c>
       <c r="AB14" s="13">
-        <v>43741</v>
+        <v>50130</v>
       </c>
       <c r="AC14" s="13">
-        <v>50130</v>
+        <v>51183</v>
       </c>
       <c r="AD14" s="13">
-        <v>51183</v>
+        <v>53834</v>
       </c>
       <c r="AE14" s="13">
-        <v>53834</v>
+        <v>57053</v>
       </c>
       <c r="AF14" s="13">
-        <v>57053</v>
+        <v>56590</v>
       </c>
       <c r="AG14" s="13">
-        <v>56590</v>
+        <v>51384</v>
       </c>
       <c r="AH14" s="13">
-        <v>51384</v>
+        <v>48216</v>
       </c>
       <c r="AI14" s="13">
-        <v>48216</v>
+        <v>46072</v>
       </c>
       <c r="AJ14" s="13">
-        <v>46072</v>
+        <v>32110</v>
       </c>
       <c r="AK14" s="13">
-        <v>32110</v>
+        <v>30552</v>
       </c>
       <c r="AL14" s="13">
-        <v>30552</v>
+        <v>47469</v>
       </c>
       <c r="AM14" s="13">
-        <v>47469</v>
+        <v>49864</v>
       </c>
       <c r="AN14" s="13">
-        <v>49864</v>
+        <v>46746</v>
       </c>
       <c r="AO14" s="13">
-        <v>46746</v>
+        <v>41941</v>
       </c>
       <c r="AP14" s="13">
-        <v>41941</v>
+        <v>33319</v>
       </c>
       <c r="AQ14" s="13">
-        <v>33319</v>
+        <v>35613</v>
       </c>
       <c r="AR14" s="13">
-        <v>35613</v>
+        <v>38559</v>
       </c>
       <c r="AS14" s="13">
-        <v>38559</v>
+        <v>36144</v>
       </c>
       <c r="AT14" s="13">
-        <v>36144</v>
+        <v>53996</v>
       </c>
       <c r="AU14" s="13">
-        <v>53996</v>
+        <v>43361</v>
       </c>
       <c r="AV14" s="13">
-        <v>43293</v>
+        <v>41250</v>
       </c>
       <c r="AW14" s="13">
-        <v>41250</v>
+        <v>38065</v>
       </c>
       <c r="AX14" s="13">
-        <v>38065</v>
+        <v>35855</v>
       </c>
       <c r="AY14" s="13">
-        <v>35855</v>
+        <v>39141</v>
       </c>
       <c r="AZ14" s="13">
-        <v>39141</v>
+        <v>43224</v>
       </c>
       <c r="BA14" s="13">
-        <v>43224</v>
+        <v>44866</v>
       </c>
       <c r="BB14" s="13">
-        <v>44866</v>
+        <v>37741</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2209,23 +2209,23 @@
       <c r="AO15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP15" s="11" t="s">
-        <v>58</v>
+      <c r="AP15" s="11">
+        <v>153</v>
       </c>
       <c r="AQ15" s="11">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="AR15" s="11">
         <v>0</v>
       </c>
       <c r="AS15" s="11">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="AT15" s="11">
-        <v>764</v>
+        <v>68</v>
       </c>
       <c r="AU15" s="11">
-        <v>68</v>
+        <v>-68</v>
       </c>
       <c r="AV15" s="11">
         <v>0</v>
@@ -2317,95 +2317,95 @@
       <c r="X16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>58</v>
+      <c r="Y16" s="13">
+        <v>7862</v>
       </c>
       <c r="Z16" s="13">
-        <v>7862</v>
+        <v>5122</v>
       </c>
       <c r="AA16" s="13">
-        <v>5122</v>
+        <v>11134</v>
       </c>
       <c r="AB16" s="13">
-        <v>11134</v>
+        <v>15936</v>
       </c>
       <c r="AC16" s="13">
-        <v>15936</v>
+        <v>15806</v>
       </c>
       <c r="AD16" s="13">
-        <v>15806</v>
+        <v>15568</v>
       </c>
       <c r="AE16" s="13">
-        <v>15568</v>
+        <v>12847</v>
       </c>
       <c r="AF16" s="13">
-        <v>12847</v>
+        <v>22615</v>
       </c>
       <c r="AG16" s="13">
-        <v>22615</v>
+        <v>7324</v>
       </c>
       <c r="AH16" s="13">
-        <v>7324</v>
+        <v>7056</v>
       </c>
       <c r="AI16" s="13">
-        <v>7056</v>
+        <v>5127</v>
       </c>
       <c r="AJ16" s="13">
-        <v>5127</v>
+        <v>14432</v>
       </c>
       <c r="AK16" s="13">
-        <v>14432</v>
+        <v>34669</v>
       </c>
       <c r="AL16" s="13">
-        <v>34669</v>
+        <v>46444</v>
       </c>
       <c r="AM16" s="13">
-        <v>46444</v>
+        <v>43968</v>
       </c>
       <c r="AN16" s="13">
-        <v>43968</v>
+        <v>35084</v>
       </c>
       <c r="AO16" s="13">
-        <v>35084</v>
+        <v>48794</v>
       </c>
       <c r="AP16" s="13">
-        <v>48794</v>
+        <v>39165</v>
       </c>
       <c r="AQ16" s="13">
-        <v>39165</v>
+        <v>17401</v>
       </c>
       <c r="AR16" s="13">
-        <v>17401</v>
+        <v>50215</v>
       </c>
       <c r="AS16" s="13">
-        <v>50215</v>
+        <v>23111</v>
       </c>
       <c r="AT16" s="13">
-        <v>23111</v>
+        <v>21878</v>
       </c>
       <c r="AU16" s="13">
-        <v>21878</v>
+        <v>10568</v>
       </c>
       <c r="AV16" s="13">
-        <v>10568</v>
+        <v>60594</v>
       </c>
       <c r="AW16" s="13">
-        <v>60594</v>
+        <v>42348</v>
       </c>
       <c r="AX16" s="13">
-        <v>42348</v>
+        <v>36767</v>
       </c>
       <c r="AY16" s="13">
-        <v>36767</v>
+        <v>25145</v>
       </c>
       <c r="AZ16" s="13">
-        <v>25145</v>
+        <v>17980</v>
       </c>
       <c r="BA16" s="13">
-        <v>17980</v>
+        <v>22787</v>
       </c>
       <c r="BB16" s="13">
-        <v>22787</v>
+        <v>25796</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2476,95 +2476,95 @@
       <c r="X17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>58</v>
+      <c r="Y17" s="11">
+        <v>1034</v>
       </c>
       <c r="Z17" s="11">
-        <v>1034</v>
+        <v>861</v>
       </c>
       <c r="AA17" s="11">
-        <v>861</v>
+        <v>1581</v>
       </c>
       <c r="AB17" s="11">
-        <v>1581</v>
+        <v>2349</v>
       </c>
       <c r="AC17" s="11">
-        <v>2349</v>
+        <v>1608</v>
       </c>
       <c r="AD17" s="11">
-        <v>1608</v>
+        <v>422</v>
       </c>
       <c r="AE17" s="11">
-        <v>422</v>
+        <v>972</v>
       </c>
       <c r="AF17" s="11">
-        <v>972</v>
+        <v>1182</v>
       </c>
       <c r="AG17" s="11">
-        <v>1182</v>
+        <v>344</v>
       </c>
       <c r="AH17" s="11">
-        <v>344</v>
+        <v>1446</v>
       </c>
       <c r="AI17" s="11">
-        <v>1446</v>
+        <v>181</v>
       </c>
       <c r="AJ17" s="11">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="AK17" s="11">
         <v>0</v>
       </c>
       <c r="AL17" s="11">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="AM17" s="11">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="AN17" s="11">
-        <v>326</v>
+        <v>823</v>
       </c>
       <c r="AO17" s="11">
-        <v>823</v>
+        <v>199</v>
       </c>
       <c r="AP17" s="11">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="11">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="AR17" s="11">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="AS17" s="11">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AT17" s="11">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="11">
         <v>0</v>
       </c>
       <c r="AV17" s="11">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AW17" s="11">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="11">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="AY17" s="11">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="11">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BA17" s="11">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="BB17" s="11">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2635,95 +2635,95 @@
       <c r="X18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="13" t="s">
-        <v>58</v>
+      <c r="Y18" s="13">
+        <v>201385</v>
       </c>
       <c r="Z18" s="13">
-        <v>201385</v>
+        <v>149698</v>
       </c>
       <c r="AA18" s="13">
-        <v>149698</v>
+        <v>200104</v>
       </c>
       <c r="AB18" s="13">
-        <v>200104</v>
+        <v>195552</v>
       </c>
       <c r="AC18" s="13">
-        <v>195552</v>
+        <v>167481</v>
       </c>
       <c r="AD18" s="13">
-        <v>167481</v>
+        <v>174419</v>
       </c>
       <c r="AE18" s="13">
-        <v>174419</v>
+        <v>178024</v>
       </c>
       <c r="AF18" s="13">
-        <v>178024</v>
+        <v>193561</v>
       </c>
       <c r="AG18" s="13">
-        <v>193561</v>
+        <v>153232</v>
       </c>
       <c r="AH18" s="13">
-        <v>153232</v>
+        <v>175199</v>
       </c>
       <c r="AI18" s="13">
-        <v>175199</v>
+        <v>131748</v>
       </c>
       <c r="AJ18" s="13">
-        <v>131748</v>
+        <v>138347</v>
       </c>
       <c r="AK18" s="13">
-        <v>138347</v>
+        <v>170876</v>
       </c>
       <c r="AL18" s="13">
-        <v>170876</v>
+        <v>223563</v>
       </c>
       <c r="AM18" s="13">
-        <v>223563</v>
+        <v>198504</v>
       </c>
       <c r="AN18" s="13">
-        <v>198504</v>
+        <v>205855</v>
       </c>
       <c r="AO18" s="13">
-        <v>205855</v>
+        <v>225835</v>
       </c>
       <c r="AP18" s="13">
-        <v>225835</v>
+        <v>237909</v>
       </c>
       <c r="AQ18" s="13">
-        <v>237909</v>
+        <v>223654</v>
       </c>
       <c r="AR18" s="13">
-        <v>223654</v>
+        <v>223056</v>
       </c>
       <c r="AS18" s="13">
-        <v>223056</v>
+        <v>223186</v>
       </c>
       <c r="AT18" s="13">
-        <v>223186</v>
+        <v>280773</v>
       </c>
       <c r="AU18" s="13">
-        <v>280773</v>
+        <v>223242</v>
       </c>
       <c r="AV18" s="13">
-        <v>223242</v>
+        <v>188479</v>
       </c>
       <c r="AW18" s="13">
-        <v>188479</v>
+        <v>198473</v>
       </c>
       <c r="AX18" s="13">
-        <v>198473</v>
+        <v>190023</v>
       </c>
       <c r="AY18" s="13">
-        <v>190023</v>
+        <v>239348</v>
       </c>
       <c r="AZ18" s="13">
-        <v>239348</v>
+        <v>220058</v>
       </c>
       <c r="BA18" s="13">
-        <v>220058</v>
+        <v>203470</v>
       </c>
       <c r="BB18" s="13">
-        <v>203470</v>
+        <v>191232</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2794,95 +2794,95 @@
       <c r="X19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y19" s="11" t="s">
-        <v>58</v>
+      <c r="Y19" s="11">
+        <v>196883</v>
       </c>
       <c r="Z19" s="11">
-        <v>196883</v>
+        <v>199920</v>
       </c>
       <c r="AA19" s="11">
-        <v>199920</v>
+        <v>207174</v>
       </c>
       <c r="AB19" s="11">
-        <v>207174</v>
+        <v>201134</v>
       </c>
       <c r="AC19" s="11">
-        <v>201134</v>
+        <v>198178</v>
       </c>
       <c r="AD19" s="11">
-        <v>198178</v>
+        <v>195914</v>
       </c>
       <c r="AE19" s="11">
-        <v>195914</v>
+        <v>203332</v>
       </c>
       <c r="AF19" s="11">
-        <v>203332</v>
+        <v>207901</v>
       </c>
       <c r="AG19" s="11">
-        <v>207901</v>
+        <v>211106</v>
       </c>
       <c r="AH19" s="11">
-        <v>211106</v>
+        <v>212955</v>
       </c>
       <c r="AI19" s="11">
-        <v>212955</v>
+        <v>190587</v>
       </c>
       <c r="AJ19" s="11">
-        <v>190587</v>
+        <v>153803</v>
       </c>
       <c r="AK19" s="11">
-        <v>153803</v>
+        <v>126800</v>
       </c>
       <c r="AL19" s="11">
-        <v>126800</v>
+        <v>174195</v>
       </c>
       <c r="AM19" s="11">
-        <v>174195</v>
+        <v>207277</v>
       </c>
       <c r="AN19" s="11">
-        <v>207277</v>
+        <v>175016</v>
       </c>
       <c r="AO19" s="11">
-        <v>175016</v>
+        <v>200941</v>
       </c>
       <c r="AP19" s="11">
-        <v>200941</v>
+        <v>196464</v>
       </c>
       <c r="AQ19" s="11">
-        <v>196464</v>
+        <v>196235</v>
       </c>
       <c r="AR19" s="11">
-        <v>196235</v>
+        <v>197542</v>
       </c>
       <c r="AS19" s="11">
-        <v>197542</v>
+        <v>184808</v>
       </c>
       <c r="AT19" s="11">
-        <v>184808</v>
+        <v>193636</v>
       </c>
       <c r="AU19" s="11">
-        <v>193636</v>
+        <v>195779</v>
       </c>
       <c r="AV19" s="11">
-        <v>195779</v>
+        <v>188785</v>
       </c>
       <c r="AW19" s="11">
-        <v>188785</v>
+        <v>149717</v>
       </c>
       <c r="AX19" s="11">
-        <v>149717</v>
+        <v>152186</v>
       </c>
       <c r="AY19" s="11">
-        <v>152186</v>
+        <v>206557</v>
       </c>
       <c r="AZ19" s="11">
-        <v>206557</v>
+        <v>202901</v>
       </c>
       <c r="BA19" s="11">
-        <v>202901</v>
+        <v>200909</v>
       </c>
       <c r="BB19" s="11">
-        <v>200909</v>
+        <v>182764</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2953,44 +2953,44 @@
       <c r="X20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y20" s="13" t="s">
-        <v>58</v>
+      <c r="Y20" s="13">
+        <v>0</v>
       </c>
       <c r="Z20" s="13">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="AA20" s="13">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="13">
-        <v>0</v>
+        <v>1605</v>
       </c>
       <c r="AC20" s="13">
-        <v>1605</v>
+        <v>3651</v>
       </c>
       <c r="AD20" s="13">
-        <v>3651</v>
+        <v>1773</v>
       </c>
       <c r="AE20" s="13">
-        <v>1773</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="13">
-        <v>0</v>
+        <v>4945</v>
       </c>
       <c r="AG20" s="13">
-        <v>4945</v>
+        <v>4329</v>
       </c>
       <c r="AH20" s="13">
-        <v>4329</v>
+        <v>3288</v>
       </c>
       <c r="AI20" s="13">
-        <v>3288</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="13">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AK20" s="13">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="13">
         <v>0</v>
@@ -3005,25 +3005,25 @@
         <v>0</v>
       </c>
       <c r="AP20" s="13">
-        <v>0</v>
+        <v>4346</v>
       </c>
       <c r="AQ20" s="13">
-        <v>4346</v>
+        <v>58</v>
       </c>
       <c r="AR20" s="13">
-        <v>58</v>
+        <v>2917</v>
       </c>
       <c r="AS20" s="13">
-        <v>2917</v>
+        <v>1655</v>
       </c>
       <c r="AT20" s="13">
-        <v>1655</v>
+        <v>4536</v>
       </c>
       <c r="AU20" s="13">
-        <v>4536</v>
+        <v>4740</v>
       </c>
       <c r="AV20" s="13">
-        <v>4740</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="13">
         <v>0</v>
@@ -3035,13 +3035,13 @@
         <v>0</v>
       </c>
       <c r="AZ20" s="13">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="BA20" s="13">
-        <v>955</v>
+        <v>43</v>
       </c>
       <c r="BB20" s="13">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3112,95 +3112,95 @@
       <c r="X21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y21" s="11" t="s">
-        <v>58</v>
+      <c r="Y21" s="11">
+        <v>24738</v>
       </c>
       <c r="Z21" s="11">
-        <v>24738</v>
+        <v>18792</v>
       </c>
       <c r="AA21" s="11">
-        <v>18792</v>
+        <v>45470</v>
       </c>
       <c r="AB21" s="11">
-        <v>45470</v>
+        <v>60753</v>
       </c>
       <c r="AC21" s="11">
-        <v>60753</v>
+        <v>59216</v>
       </c>
       <c r="AD21" s="11">
-        <v>59216</v>
+        <v>50537</v>
       </c>
       <c r="AE21" s="11">
-        <v>50537</v>
+        <v>34337</v>
       </c>
       <c r="AF21" s="11">
-        <v>34337</v>
+        <v>49127</v>
       </c>
       <c r="AG21" s="11">
-        <v>49127</v>
+        <v>50094</v>
       </c>
       <c r="AH21" s="11">
-        <v>50094</v>
+        <v>61975</v>
       </c>
       <c r="AI21" s="11">
-        <v>61975</v>
+        <v>57665</v>
       </c>
       <c r="AJ21" s="11">
-        <v>57665</v>
+        <v>49196</v>
       </c>
       <c r="AK21" s="11">
-        <v>49196</v>
+        <v>68635</v>
       </c>
       <c r="AL21" s="11">
-        <v>68635</v>
+        <v>68238</v>
       </c>
       <c r="AM21" s="11">
-        <v>68238</v>
+        <v>73977</v>
       </c>
       <c r="AN21" s="11">
-        <v>73977</v>
+        <v>71702</v>
       </c>
       <c r="AO21" s="11">
-        <v>71702</v>
+        <v>60219</v>
       </c>
       <c r="AP21" s="11">
-        <v>60219</v>
+        <v>57746</v>
       </c>
       <c r="AQ21" s="11">
-        <v>57746</v>
+        <v>65288</v>
       </c>
       <c r="AR21" s="11">
-        <v>65288</v>
+        <v>62735</v>
       </c>
       <c r="AS21" s="11">
-        <v>62735</v>
+        <v>61515</v>
       </c>
       <c r="AT21" s="11">
-        <v>61515</v>
+        <v>57277</v>
       </c>
       <c r="AU21" s="11">
-        <v>57277</v>
+        <v>59722</v>
       </c>
       <c r="AV21" s="11">
-        <v>59722</v>
+        <v>64294</v>
       </c>
       <c r="AW21" s="11">
-        <v>64294</v>
+        <v>32830</v>
       </c>
       <c r="AX21" s="11">
-        <v>32830</v>
+        <v>49256</v>
       </c>
       <c r="AY21" s="11">
-        <v>49256</v>
+        <v>53645</v>
       </c>
       <c r="AZ21" s="11">
-        <v>53645</v>
+        <v>51206</v>
       </c>
       <c r="BA21" s="11">
-        <v>51206</v>
+        <v>48476</v>
       </c>
       <c r="BB21" s="11">
-        <v>48476</v>
+        <v>47026</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3271,95 +3271,95 @@
       <c r="X22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y22" s="13" t="s">
-        <v>58</v>
+      <c r="Y22" s="13">
+        <v>73672</v>
       </c>
       <c r="Z22" s="13">
-        <v>73672</v>
+        <v>83341</v>
       </c>
       <c r="AA22" s="13">
-        <v>83341</v>
+        <v>68103</v>
       </c>
       <c r="AB22" s="13">
-        <v>68103</v>
+        <v>65412</v>
       </c>
       <c r="AC22" s="13">
-        <v>65412</v>
+        <v>76436</v>
       </c>
       <c r="AD22" s="13">
-        <v>76436</v>
+        <v>71463</v>
       </c>
       <c r="AE22" s="13">
-        <v>71463</v>
+        <v>72917</v>
       </c>
       <c r="AF22" s="13">
-        <v>72917</v>
+        <v>79516</v>
       </c>
       <c r="AG22" s="13">
-        <v>79516</v>
+        <v>77550</v>
       </c>
       <c r="AH22" s="13">
-        <v>77550</v>
+        <v>65050</v>
       </c>
       <c r="AI22" s="13">
-        <v>65050</v>
+        <v>66347</v>
       </c>
       <c r="AJ22" s="13">
-        <v>66347</v>
+        <v>55436</v>
       </c>
       <c r="AK22" s="13">
-        <v>55436</v>
+        <v>42113</v>
       </c>
       <c r="AL22" s="13">
-        <v>42113</v>
+        <v>74906</v>
       </c>
       <c r="AM22" s="13">
-        <v>74906</v>
+        <v>82494</v>
       </c>
       <c r="AN22" s="13">
-        <v>82494</v>
+        <v>72350</v>
       </c>
       <c r="AO22" s="13">
-        <v>72350</v>
+        <v>74586</v>
       </c>
       <c r="AP22" s="13">
-        <v>74586</v>
+        <v>71941</v>
       </c>
       <c r="AQ22" s="13">
-        <v>71941</v>
+        <v>79801</v>
       </c>
       <c r="AR22" s="13">
-        <v>79801</v>
+        <v>68952</v>
       </c>
       <c r="AS22" s="13">
-        <v>68952</v>
+        <v>69010</v>
       </c>
       <c r="AT22" s="13">
-        <v>69010</v>
+        <v>70356</v>
       </c>
       <c r="AU22" s="13">
-        <v>70356</v>
+        <v>71871</v>
       </c>
       <c r="AV22" s="13">
-        <v>71871</v>
+        <v>61397</v>
       </c>
       <c r="AW22" s="13">
-        <v>61397</v>
+        <v>79285</v>
       </c>
       <c r="AX22" s="13">
-        <v>79285</v>
+        <v>73338</v>
       </c>
       <c r="AY22" s="13">
-        <v>73338</v>
+        <v>83286</v>
       </c>
       <c r="AZ22" s="13">
-        <v>83286</v>
+        <v>82932</v>
       </c>
       <c r="BA22" s="13">
-        <v>82932</v>
+        <v>78657</v>
       </c>
       <c r="BB22" s="13">
-        <v>78657</v>
+        <v>69617</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3430,95 +3430,95 @@
       <c r="X23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y23" s="11" t="s">
-        <v>58</v>
+      <c r="Y23" s="11">
+        <v>383491</v>
       </c>
       <c r="Z23" s="11">
-        <v>383491</v>
+        <v>416944</v>
       </c>
       <c r="AA23" s="11">
-        <v>416944</v>
+        <v>452374</v>
       </c>
       <c r="AB23" s="11">
-        <v>452374</v>
+        <v>441597</v>
       </c>
       <c r="AC23" s="11">
-        <v>441597</v>
+        <v>446322</v>
       </c>
       <c r="AD23" s="11">
-        <v>446322</v>
+        <v>419887</v>
       </c>
       <c r="AE23" s="11">
-        <v>419887</v>
+        <v>417179</v>
       </c>
       <c r="AF23" s="11">
-        <v>417179</v>
+        <v>474053</v>
       </c>
       <c r="AG23" s="11">
-        <v>474053</v>
+        <v>390342</v>
       </c>
       <c r="AH23" s="11">
-        <v>390342</v>
+        <v>419525</v>
       </c>
       <c r="AI23" s="11">
-        <v>419525</v>
+        <v>382843</v>
       </c>
       <c r="AJ23" s="11">
-        <v>382843</v>
+        <v>310681</v>
       </c>
       <c r="AK23" s="11">
-        <v>310681</v>
+        <v>288076</v>
       </c>
       <c r="AL23" s="11">
-        <v>288076</v>
+        <v>431591</v>
       </c>
       <c r="AM23" s="11">
-        <v>431591</v>
+        <v>461922</v>
       </c>
       <c r="AN23" s="11">
-        <v>461922</v>
+        <v>391224</v>
       </c>
       <c r="AO23" s="11">
-        <v>391224</v>
+        <v>408008</v>
       </c>
       <c r="AP23" s="11">
-        <v>408008</v>
+        <v>427295</v>
       </c>
       <c r="AQ23" s="11">
-        <v>427295</v>
+        <v>391403</v>
       </c>
       <c r="AR23" s="11">
-        <v>391403</v>
+        <v>432689</v>
       </c>
       <c r="AS23" s="11">
-        <v>432689</v>
+        <v>410656</v>
       </c>
       <c r="AT23" s="11">
-        <v>410656</v>
+        <v>447877</v>
       </c>
       <c r="AU23" s="11">
-        <v>447877</v>
+        <v>427697</v>
       </c>
       <c r="AV23" s="11">
-        <v>427697</v>
+        <v>434015</v>
       </c>
       <c r="AW23" s="11">
-        <v>434015</v>
+        <v>462373</v>
       </c>
       <c r="AX23" s="11">
-        <v>462373</v>
+        <v>406143</v>
       </c>
       <c r="AY23" s="11">
-        <v>406143</v>
+        <v>462602</v>
       </c>
       <c r="AZ23" s="11">
-        <v>462602</v>
+        <v>455928</v>
       </c>
       <c r="BA23" s="11">
-        <v>455928</v>
+        <v>438950</v>
       </c>
       <c r="BB23" s="11">
-        <v>438950</v>
+        <v>398633</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3588,94 +3588,94 @@
         <v>0</v>
       </c>
       <c r="Y24" s="15">
-        <v>0</v>
+        <v>1038888</v>
       </c>
       <c r="Z24" s="15">
-        <v>1038888</v>
+        <v>1040890</v>
       </c>
       <c r="AA24" s="15">
-        <v>1040890</v>
+        <v>1130270</v>
       </c>
       <c r="AB24" s="15">
-        <v>1130270</v>
+        <v>1119405</v>
       </c>
       <c r="AC24" s="15">
-        <v>1119405</v>
+        <v>1111294</v>
       </c>
       <c r="AD24" s="15">
-        <v>1111294</v>
+        <v>1071829</v>
       </c>
       <c r="AE24" s="15">
-        <v>1071829</v>
+        <v>1071456</v>
       </c>
       <c r="AF24" s="15">
-        <v>1071456</v>
+        <v>1175535</v>
       </c>
       <c r="AG24" s="15">
-        <v>1175535</v>
+        <v>1046010</v>
       </c>
       <c r="AH24" s="15">
-        <v>1046010</v>
+        <v>1078667</v>
       </c>
       <c r="AI24" s="15">
-        <v>1078667</v>
+        <v>997918</v>
       </c>
       <c r="AJ24" s="15">
-        <v>997918</v>
+        <v>809295</v>
       </c>
       <c r="AK24" s="15">
-        <v>809295</v>
+        <v>809170</v>
       </c>
       <c r="AL24" s="15">
-        <v>809170</v>
+        <v>1151410</v>
       </c>
       <c r="AM24" s="15">
-        <v>1151410</v>
+        <v>1208939</v>
       </c>
       <c r="AN24" s="15">
-        <v>1208939</v>
+        <v>1071090</v>
       </c>
       <c r="AO24" s="15">
-        <v>1071090</v>
+        <v>1150960</v>
       </c>
       <c r="AP24" s="15">
-        <v>1150960</v>
+        <v>1152302</v>
       </c>
       <c r="AQ24" s="15">
-        <v>1152302</v>
+        <v>1093660</v>
       </c>
       <c r="AR24" s="15">
-        <v>1093660</v>
+        <v>1176965</v>
       </c>
       <c r="AS24" s="15">
-        <v>1176965</v>
+        <v>1108516</v>
       </c>
       <c r="AT24" s="15">
-        <v>1108516</v>
+        <v>1190369</v>
       </c>
       <c r="AU24" s="15">
-        <v>1190369</v>
+        <v>1123047</v>
       </c>
       <c r="AV24" s="15">
-        <v>1123047</v>
+        <v>1139925</v>
       </c>
       <c r="AW24" s="15">
-        <v>1139925</v>
+        <v>1103481</v>
       </c>
       <c r="AX24" s="15">
-        <v>1103481</v>
+        <v>1033422</v>
       </c>
       <c r="AY24" s="15">
-        <v>1033422</v>
+        <v>1204715</v>
       </c>
       <c r="AZ24" s="15">
-        <v>1204715</v>
+        <v>1168917</v>
       </c>
       <c r="BA24" s="15">
-        <v>1168917</v>
+        <v>1145681</v>
       </c>
       <c r="BB24" s="15">
-        <v>1145681</v>
+        <v>1053997</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -4015,8 +4015,8 @@
       <c r="X28" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y28" s="19" t="s">
-        <v>58</v>
+      <c r="Y28" s="19">
+        <v>0</v>
       </c>
       <c r="Z28" s="19">
         <v>0</v>
@@ -4173,94 +4173,94 @@
         <v>0</v>
       </c>
       <c r="Y29" s="15">
-        <v>0</v>
+        <v>1038888</v>
       </c>
       <c r="Z29" s="15">
-        <v>1038888</v>
+        <v>1040890</v>
       </c>
       <c r="AA29" s="15">
-        <v>1040890</v>
+        <v>1130270</v>
       </c>
       <c r="AB29" s="15">
-        <v>1130270</v>
+        <v>1119405</v>
       </c>
       <c r="AC29" s="15">
-        <v>1119405</v>
+        <v>1111294</v>
       </c>
       <c r="AD29" s="15">
-        <v>1111294</v>
+        <v>1071829</v>
       </c>
       <c r="AE29" s="15">
-        <v>1071829</v>
+        <v>1071456</v>
       </c>
       <c r="AF29" s="15">
-        <v>1071456</v>
+        <v>1175535</v>
       </c>
       <c r="AG29" s="15">
-        <v>1175535</v>
+        <v>1046010</v>
       </c>
       <c r="AH29" s="15">
-        <v>1046010</v>
+        <v>1078667</v>
       </c>
       <c r="AI29" s="15">
-        <v>1078667</v>
+        <v>997918</v>
       </c>
       <c r="AJ29" s="15">
-        <v>997918</v>
+        <v>809295</v>
       </c>
       <c r="AK29" s="15">
-        <v>809295</v>
+        <v>809170</v>
       </c>
       <c r="AL29" s="15">
-        <v>809170</v>
+        <v>1151410</v>
       </c>
       <c r="AM29" s="15">
-        <v>1151410</v>
+        <v>1208939</v>
       </c>
       <c r="AN29" s="15">
-        <v>1208939</v>
+        <v>1071090</v>
       </c>
       <c r="AO29" s="15">
-        <v>1071090</v>
+        <v>1150960</v>
       </c>
       <c r="AP29" s="15">
-        <v>1150960</v>
+        <v>1152302</v>
       </c>
       <c r="AQ29" s="15">
-        <v>1152302</v>
+        <v>1093660</v>
       </c>
       <c r="AR29" s="15">
-        <v>1093660</v>
+        <v>1176965</v>
       </c>
       <c r="AS29" s="15">
-        <v>1176965</v>
+        <v>1108516</v>
       </c>
       <c r="AT29" s="15">
-        <v>1108516</v>
+        <v>1190369</v>
       </c>
       <c r="AU29" s="15">
-        <v>1190369</v>
+        <v>1123047</v>
       </c>
       <c r="AV29" s="15">
-        <v>1123047</v>
+        <v>1139925</v>
       </c>
       <c r="AW29" s="15">
-        <v>1139925</v>
+        <v>1103481</v>
       </c>
       <c r="AX29" s="15">
-        <v>1103481</v>
+        <v>1033422</v>
       </c>
       <c r="AY29" s="15">
-        <v>1033422</v>
+        <v>1204715</v>
       </c>
       <c r="AZ29" s="15">
-        <v>1204715</v>
+        <v>1168917</v>
       </c>
       <c r="BA29" s="15">
-        <v>1168917</v>
+        <v>1145681</v>
       </c>
       <c r="BB29" s="15">
-        <v>1145681</v>
+        <v>1053997</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -4765,95 +4765,95 @@
       <c r="X36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y36" s="11" t="s">
-        <v>58</v>
+      <c r="Y36" s="11">
+        <v>84811</v>
       </c>
       <c r="Z36" s="11">
-        <v>84811</v>
+        <v>108592</v>
       </c>
       <c r="AA36" s="11">
-        <v>108592</v>
+        <v>91509</v>
       </c>
       <c r="AB36" s="11">
-        <v>91509</v>
+        <v>71280</v>
       </c>
       <c r="AC36" s="11">
-        <v>71280</v>
+        <v>86175</v>
       </c>
       <c r="AD36" s="11">
-        <v>86175</v>
+        <v>79144</v>
       </c>
       <c r="AE36" s="11">
-        <v>79144</v>
+        <v>82857</v>
       </c>
       <c r="AF36" s="11">
-        <v>82857</v>
+        <v>72914</v>
       </c>
       <c r="AG36" s="11">
-        <v>72914</v>
+        <v>85671</v>
       </c>
       <c r="AH36" s="11">
-        <v>85671</v>
+        <v>71769</v>
       </c>
       <c r="AI36" s="11">
-        <v>71769</v>
+        <v>105283</v>
       </c>
       <c r="AJ36" s="11">
-        <v>105283</v>
+        <v>59070</v>
       </c>
       <c r="AK36" s="11">
-        <v>59070</v>
+        <v>39991</v>
       </c>
       <c r="AL36" s="11">
-        <v>39991</v>
+        <v>71845</v>
       </c>
       <c r="AM36" s="11">
-        <v>71845</v>
+        <v>84624</v>
       </c>
       <c r="AN36" s="11">
-        <v>84624</v>
+        <v>63951</v>
       </c>
       <c r="AO36" s="11">
-        <v>63951</v>
+        <v>83016</v>
       </c>
       <c r="AP36" s="11">
-        <v>83016</v>
+        <v>69348</v>
       </c>
       <c r="AQ36" s="11">
-        <v>69348</v>
+        <v>75336</v>
       </c>
       <c r="AR36" s="11">
-        <v>75336</v>
+        <v>86544</v>
       </c>
       <c r="AS36" s="11">
-        <v>86563</v>
+        <v>81757</v>
       </c>
       <c r="AT36" s="11">
-        <v>81757</v>
+        <v>45577</v>
       </c>
       <c r="AU36" s="11">
-        <v>45577</v>
+        <v>78703</v>
       </c>
       <c r="AV36" s="11">
-        <v>78622</v>
+        <v>87140</v>
       </c>
       <c r="AW36" s="11">
-        <v>87140</v>
+        <v>98435</v>
       </c>
       <c r="AX36" s="11">
-        <v>98435</v>
+        <v>75019</v>
       </c>
       <c r="AY36" s="11">
-        <v>75019</v>
+        <v>96850</v>
       </c>
       <c r="AZ36" s="11">
-        <v>96850</v>
+        <v>84583</v>
       </c>
       <c r="BA36" s="11">
-        <v>84583</v>
+        <v>92713</v>
       </c>
       <c r="BB36" s="11">
-        <v>92713</v>
+        <v>94952</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4924,95 +4924,95 @@
       <c r="X37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y37" s="13" t="s">
-        <v>58</v>
+      <c r="Y37" s="13">
+        <v>19633</v>
       </c>
       <c r="Z37" s="13">
-        <v>19633</v>
+        <v>9966</v>
       </c>
       <c r="AA37" s="13">
-        <v>9966</v>
+        <v>9988</v>
       </c>
       <c r="AB37" s="13">
-        <v>9988</v>
+        <v>9807</v>
       </c>
       <c r="AC37" s="13">
-        <v>9807</v>
+        <v>5224</v>
       </c>
       <c r="AD37" s="13">
-        <v>5224</v>
+        <v>9937</v>
       </c>
       <c r="AE37" s="13">
+        <v>9720</v>
+      </c>
+      <c r="AF37" s="13">
         <v>9937</v>
       </c>
-      <c r="AF37" s="13">
-        <v>9720</v>
-      </c>
       <c r="AG37" s="13">
-        <v>9937</v>
+        <v>10080</v>
       </c>
       <c r="AH37" s="13">
-        <v>10080</v>
+        <v>9922</v>
       </c>
       <c r="AI37" s="13">
-        <v>9922</v>
+        <v>5154</v>
       </c>
       <c r="AJ37" s="13">
-        <v>5154</v>
+        <v>49</v>
       </c>
       <c r="AK37" s="13">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="13">
-        <v>0</v>
+        <v>9738</v>
       </c>
       <c r="AM37" s="13">
-        <v>9738</v>
+        <v>38</v>
       </c>
       <c r="AN37" s="13">
-        <v>38</v>
+        <v>5008</v>
       </c>
       <c r="AO37" s="13">
-        <v>5008</v>
+        <v>4968</v>
       </c>
       <c r="AP37" s="13">
-        <v>4968</v>
+        <v>14046</v>
       </c>
       <c r="AQ37" s="13">
-        <v>14046</v>
+        <v>5047</v>
       </c>
       <c r="AR37" s="13">
-        <v>5047</v>
+        <v>11687</v>
       </c>
       <c r="AS37" s="13">
-        <v>17782</v>
+        <v>9328</v>
       </c>
       <c r="AT37" s="13">
-        <v>9328</v>
+        <v>9529</v>
       </c>
       <c r="AU37" s="13">
-        <v>9529</v>
+        <v>-1722</v>
       </c>
       <c r="AV37" s="13">
-        <v>9492</v>
+        <v>3250</v>
       </c>
       <c r="AW37" s="13">
-        <v>3250</v>
+        <v>4997</v>
       </c>
       <c r="AX37" s="13">
-        <v>4997</v>
+        <v>1523</v>
       </c>
       <c r="AY37" s="13">
-        <v>1523</v>
+        <v>4511</v>
       </c>
       <c r="AZ37" s="13">
-        <v>4511</v>
+        <v>4876</v>
       </c>
       <c r="BA37" s="13">
-        <v>4876</v>
+        <v>9476</v>
       </c>
       <c r="BB37" s="13">
-        <v>9476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5083,95 +5083,95 @@
       <c r="X38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y38" s="11" t="s">
-        <v>58</v>
+      <c r="Y38" s="11">
+        <v>2373</v>
       </c>
       <c r="Z38" s="11">
-        <v>2373</v>
+        <v>1385</v>
       </c>
       <c r="AA38" s="11">
-        <v>1385</v>
+        <v>2502</v>
       </c>
       <c r="AB38" s="11">
-        <v>2502</v>
+        <v>2555</v>
       </c>
       <c r="AC38" s="11">
-        <v>2555</v>
+        <v>1882</v>
       </c>
       <c r="AD38" s="11">
-        <v>1882</v>
+        <v>1593</v>
       </c>
       <c r="AE38" s="11">
-        <v>1593</v>
+        <v>1660</v>
       </c>
       <c r="AF38" s="11">
-        <v>1660</v>
+        <v>2951</v>
       </c>
       <c r="AG38" s="11">
-        <v>2951</v>
+        <v>2456</v>
       </c>
       <c r="AH38" s="11">
-        <v>2456</v>
+        <v>1324</v>
       </c>
       <c r="AI38" s="11">
-        <v>1324</v>
+        <v>2058</v>
       </c>
       <c r="AJ38" s="11">
-        <v>2058</v>
+        <v>1886</v>
       </c>
       <c r="AK38" s="11">
-        <v>1886</v>
+        <v>1936</v>
       </c>
       <c r="AL38" s="11">
-        <v>1936</v>
+        <v>1872</v>
       </c>
       <c r="AM38" s="11">
-        <v>1872</v>
+        <v>8928</v>
       </c>
       <c r="AN38" s="11">
-        <v>8928</v>
+        <v>2444</v>
       </c>
       <c r="AO38" s="11">
-        <v>2444</v>
+        <v>2185</v>
       </c>
       <c r="AP38" s="11">
-        <v>2185</v>
+        <v>2746</v>
       </c>
       <c r="AQ38" s="11">
-        <v>2746</v>
+        <v>2715</v>
       </c>
       <c r="AR38" s="11">
-        <v>2715</v>
+        <v>1517</v>
       </c>
       <c r="AS38" s="11">
-        <v>1518</v>
+        <v>3116</v>
       </c>
       <c r="AT38" s="11">
-        <v>3116</v>
+        <v>1615</v>
       </c>
       <c r="AU38" s="11">
-        <v>1615</v>
+        <v>4057</v>
       </c>
       <c r="AV38" s="11">
-        <v>4057</v>
+        <v>3630</v>
       </c>
       <c r="AW38" s="11">
-        <v>3630</v>
+        <v>2345</v>
       </c>
       <c r="AX38" s="11">
-        <v>2345</v>
+        <v>1985</v>
       </c>
       <c r="AY38" s="11">
-        <v>1985</v>
+        <v>3922</v>
       </c>
       <c r="AZ38" s="11">
-        <v>3922</v>
+        <v>5114</v>
       </c>
       <c r="BA38" s="11">
-        <v>5114</v>
+        <v>3634</v>
       </c>
       <c r="BB38" s="11">
-        <v>3634</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5242,95 +5242,95 @@
       <c r="X39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y39" s="13" t="s">
-        <v>58</v>
+      <c r="Y39" s="13">
+        <v>45325</v>
       </c>
       <c r="Z39" s="13">
-        <v>45325</v>
+        <v>45177</v>
       </c>
       <c r="AA39" s="13">
-        <v>45177</v>
+        <v>43737</v>
       </c>
       <c r="AB39" s="13">
-        <v>43737</v>
+        <v>49702</v>
       </c>
       <c r="AC39" s="13">
-        <v>49702</v>
+        <v>47247</v>
       </c>
       <c r="AD39" s="13">
-        <v>47247</v>
+        <v>58199</v>
       </c>
       <c r="AE39" s="13">
-        <v>58199</v>
+        <v>56791</v>
       </c>
       <c r="AF39" s="13">
-        <v>56791</v>
+        <v>53401</v>
       </c>
       <c r="AG39" s="13">
-        <v>53401</v>
+        <v>49983</v>
       </c>
       <c r="AH39" s="13">
-        <v>49983</v>
+        <v>47625</v>
       </c>
       <c r="AI39" s="13">
-        <v>47625</v>
+        <v>49775</v>
       </c>
       <c r="AJ39" s="13">
-        <v>49775</v>
+        <v>35255</v>
       </c>
       <c r="AK39" s="13">
-        <v>35255</v>
+        <v>30120</v>
       </c>
       <c r="AL39" s="13">
-        <v>30120</v>
+        <v>47791</v>
       </c>
       <c r="AM39" s="13">
-        <v>47791</v>
+        <v>47499</v>
       </c>
       <c r="AN39" s="13">
-        <v>47499</v>
+        <v>46860</v>
       </c>
       <c r="AO39" s="13">
-        <v>46860</v>
+        <v>38611</v>
       </c>
       <c r="AP39" s="13">
-        <v>38611</v>
+        <v>34366</v>
       </c>
       <c r="AQ39" s="13">
-        <v>34366</v>
+        <v>39897</v>
       </c>
       <c r="AR39" s="13">
-        <v>39897</v>
+        <v>25705</v>
       </c>
       <c r="AS39" s="13">
-        <v>34635</v>
+        <v>41000</v>
       </c>
       <c r="AT39" s="13">
-        <v>41000</v>
+        <v>51223</v>
       </c>
       <c r="AU39" s="13">
-        <v>51223</v>
+        <v>41948</v>
       </c>
       <c r="AV39" s="13">
-        <v>44460</v>
+        <v>43342</v>
       </c>
       <c r="AW39" s="13">
-        <v>43342</v>
+        <v>40588</v>
       </c>
       <c r="AX39" s="13">
-        <v>40588</v>
+        <v>43212</v>
       </c>
       <c r="AY39" s="13">
-        <v>43212</v>
+        <v>41670</v>
       </c>
       <c r="AZ39" s="13">
-        <v>41670</v>
+        <v>43631</v>
       </c>
       <c r="BA39" s="13">
-        <v>43631</v>
+        <v>45961</v>
       </c>
       <c r="BB39" s="13">
-        <v>45961</v>
+        <v>37461</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5452,23 +5452,23 @@
       <c r="AO40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP40" s="11" t="s">
-        <v>58</v>
+      <c r="AP40" s="11">
+        <v>153</v>
       </c>
       <c r="AQ40" s="11">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="AR40" s="11">
         <v>0</v>
       </c>
       <c r="AS40" s="11">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="AT40" s="11">
-        <v>764</v>
+        <v>68</v>
       </c>
       <c r="AU40" s="11">
-        <v>68</v>
+        <v>-68</v>
       </c>
       <c r="AV40" s="11">
         <v>0</v>
@@ -5560,95 +5560,95 @@
       <c r="X41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y41" s="13" t="s">
-        <v>58</v>
+      <c r="Y41" s="13">
+        <v>7862</v>
       </c>
       <c r="Z41" s="13">
-        <v>7862</v>
+        <v>5122</v>
       </c>
       <c r="AA41" s="13">
-        <v>5122</v>
+        <v>11134</v>
       </c>
       <c r="AB41" s="13">
-        <v>11134</v>
+        <v>15936</v>
       </c>
       <c r="AC41" s="13">
-        <v>15936</v>
+        <v>15806</v>
       </c>
       <c r="AD41" s="13">
-        <v>15806</v>
+        <v>15568</v>
       </c>
       <c r="AE41" s="13">
-        <v>15568</v>
+        <v>12847</v>
       </c>
       <c r="AF41" s="13">
-        <v>12847</v>
+        <v>22615</v>
       </c>
       <c r="AG41" s="13">
-        <v>22615</v>
+        <v>7324</v>
       </c>
       <c r="AH41" s="13">
-        <v>7324</v>
+        <v>7056</v>
       </c>
       <c r="AI41" s="13">
-        <v>7056</v>
+        <v>5127</v>
       </c>
       <c r="AJ41" s="13">
-        <v>5127</v>
+        <v>14432</v>
       </c>
       <c r="AK41" s="13">
-        <v>14432</v>
+        <v>34669</v>
       </c>
       <c r="AL41" s="13">
-        <v>34669</v>
+        <v>46444</v>
       </c>
       <c r="AM41" s="13">
-        <v>46444</v>
+        <v>43968</v>
       </c>
       <c r="AN41" s="13">
-        <v>43968</v>
+        <v>35084</v>
       </c>
       <c r="AO41" s="13">
-        <v>35084</v>
+        <v>48794</v>
       </c>
       <c r="AP41" s="13">
-        <v>48794</v>
+        <v>39165</v>
       </c>
       <c r="AQ41" s="13">
-        <v>39165</v>
+        <v>17401</v>
       </c>
       <c r="AR41" s="13">
-        <v>17401</v>
+        <v>50215</v>
       </c>
       <c r="AS41" s="13">
-        <v>50215</v>
+        <v>23111</v>
       </c>
       <c r="AT41" s="13">
-        <v>23111</v>
+        <v>21878</v>
       </c>
       <c r="AU41" s="13">
-        <v>21878</v>
+        <v>10568</v>
       </c>
       <c r="AV41" s="13">
-        <v>10568</v>
+        <v>60594</v>
       </c>
       <c r="AW41" s="13">
-        <v>60594</v>
+        <v>42348</v>
       </c>
       <c r="AX41" s="13">
-        <v>42348</v>
+        <v>36767</v>
       </c>
       <c r="AY41" s="13">
-        <v>36767</v>
+        <v>25145</v>
       </c>
       <c r="AZ41" s="13">
-        <v>25145</v>
+        <v>17980</v>
       </c>
       <c r="BA41" s="13">
-        <v>17980</v>
+        <v>22787</v>
       </c>
       <c r="BB41" s="13">
-        <v>22787</v>
+        <v>25796</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5719,95 +5719,95 @@
       <c r="X42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y42" s="11" t="s">
-        <v>58</v>
+      <c r="Y42" s="11">
+        <v>1034</v>
       </c>
       <c r="Z42" s="11">
-        <v>1034</v>
+        <v>861</v>
       </c>
       <c r="AA42" s="11">
-        <v>861</v>
+        <v>1581</v>
       </c>
       <c r="AB42" s="11">
-        <v>1581</v>
+        <v>2349</v>
       </c>
       <c r="AC42" s="11">
-        <v>2349</v>
+        <v>1608</v>
       </c>
       <c r="AD42" s="11">
-        <v>1608</v>
+        <v>422</v>
       </c>
       <c r="AE42" s="11">
-        <v>422</v>
+        <v>972</v>
       </c>
       <c r="AF42" s="11">
-        <v>972</v>
+        <v>1182</v>
       </c>
       <c r="AG42" s="11">
-        <v>1182</v>
+        <v>344</v>
       </c>
       <c r="AH42" s="11">
-        <v>344</v>
+        <v>1446</v>
       </c>
       <c r="AI42" s="11">
-        <v>1446</v>
+        <v>181</v>
       </c>
       <c r="AJ42" s="11">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="11">
         <v>0</v>
       </c>
       <c r="AL42" s="11">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="AM42" s="11">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="AN42" s="11">
-        <v>326</v>
+        <v>823</v>
       </c>
       <c r="AO42" s="11">
-        <v>823</v>
+        <v>199</v>
       </c>
       <c r="AP42" s="11">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="AQ42" s="11">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="AR42" s="11">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="AS42" s="11">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AT42" s="11">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AU42" s="11">
         <v>0</v>
       </c>
       <c r="AV42" s="11">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AW42" s="11">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AX42" s="11">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="AY42" s="11">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="AZ42" s="11">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BA42" s="11">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="BB42" s="11">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5878,95 +5878,95 @@
       <c r="X43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y43" s="13" t="s">
-        <v>58</v>
+      <c r="Y43" s="13">
+        <v>211040</v>
       </c>
       <c r="Z43" s="13">
-        <v>211040</v>
+        <v>138402</v>
       </c>
       <c r="AA43" s="13">
-        <v>138402</v>
+        <v>184487</v>
       </c>
       <c r="AB43" s="13">
-        <v>184487</v>
+        <v>213567</v>
       </c>
       <c r="AC43" s="13">
-        <v>213567</v>
+        <v>163676</v>
       </c>
       <c r="AD43" s="13">
-        <v>163676</v>
+        <v>161451</v>
       </c>
       <c r="AE43" s="13">
-        <v>161451</v>
+        <v>196931</v>
       </c>
       <c r="AF43" s="13">
-        <v>196931</v>
+        <v>182662</v>
       </c>
       <c r="AG43" s="13">
-        <v>182662</v>
+        <v>169087</v>
       </c>
       <c r="AH43" s="13">
-        <v>169087</v>
+        <v>170300</v>
       </c>
       <c r="AI43" s="13">
-        <v>170300</v>
+        <v>122720</v>
       </c>
       <c r="AJ43" s="13">
-        <v>122720</v>
+        <v>145215</v>
       </c>
       <c r="AK43" s="13">
-        <v>145215</v>
+        <v>164449</v>
       </c>
       <c r="AL43" s="13">
-        <v>164449</v>
+        <v>226034</v>
       </c>
       <c r="AM43" s="13">
-        <v>226034</v>
+        <v>190888</v>
       </c>
       <c r="AN43" s="13">
-        <v>190888</v>
+        <v>216864</v>
       </c>
       <c r="AO43" s="13">
-        <v>216864</v>
+        <v>215016</v>
       </c>
       <c r="AP43" s="13">
-        <v>215016</v>
+        <v>239992</v>
       </c>
       <c r="AQ43" s="13">
-        <v>239992</v>
+        <v>228548</v>
       </c>
       <c r="AR43" s="13">
-        <v>228548</v>
+        <v>289947</v>
       </c>
       <c r="AS43" s="13">
-        <v>244926</v>
+        <v>209273</v>
       </c>
       <c r="AT43" s="13">
-        <v>209273</v>
+        <v>271284</v>
       </c>
       <c r="AU43" s="13">
-        <v>271284</v>
+        <v>-17646</v>
       </c>
       <c r="AV43" s="13">
-        <v>232236</v>
+        <v>85862</v>
       </c>
       <c r="AW43" s="13">
-        <v>85862</v>
+        <v>188550</v>
       </c>
       <c r="AX43" s="13">
-        <v>188550</v>
+        <v>420951</v>
       </c>
       <c r="AY43" s="13">
-        <v>420951</v>
+        <v>296910</v>
       </c>
       <c r="AZ43" s="13">
-        <v>296910</v>
+        <v>216490</v>
       </c>
       <c r="BA43" s="13">
-        <v>216490</v>
+        <v>208322</v>
       </c>
       <c r="BB43" s="13">
-        <v>208322</v>
+        <v>199670</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -6037,95 +6037,95 @@
       <c r="X44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y44" s="11" t="s">
-        <v>58</v>
+      <c r="Y44" s="11">
+        <v>199166</v>
       </c>
       <c r="Z44" s="11">
-        <v>199166</v>
+        <v>200208</v>
       </c>
       <c r="AA44" s="11">
-        <v>200208</v>
+        <v>206747</v>
       </c>
       <c r="AB44" s="11">
-        <v>206747</v>
+        <v>197504</v>
       </c>
       <c r="AC44" s="11">
-        <v>197504</v>
+        <v>194636</v>
       </c>
       <c r="AD44" s="11">
-        <v>194636</v>
+        <v>203605</v>
       </c>
       <c r="AE44" s="11">
-        <v>203605</v>
+        <v>202235</v>
       </c>
       <c r="AF44" s="11">
-        <v>202235</v>
+        <v>207290</v>
       </c>
       <c r="AG44" s="11">
-        <v>207290</v>
+        <v>204811</v>
       </c>
       <c r="AH44" s="11">
-        <v>204811</v>
+        <v>213598</v>
       </c>
       <c r="AI44" s="11">
-        <v>213598</v>
+        <v>193936</v>
       </c>
       <c r="AJ44" s="11">
-        <v>193936</v>
+        <v>157089</v>
       </c>
       <c r="AK44" s="11">
-        <v>157089</v>
+        <v>129700</v>
       </c>
       <c r="AL44" s="11">
-        <v>129700</v>
+        <v>169683</v>
       </c>
       <c r="AM44" s="11">
-        <v>169683</v>
+        <v>206199</v>
       </c>
       <c r="AN44" s="11">
-        <v>206199</v>
+        <v>181718</v>
       </c>
       <c r="AO44" s="11">
-        <v>181718</v>
+        <v>197777</v>
       </c>
       <c r="AP44" s="11">
-        <v>197777</v>
+        <v>197679</v>
       </c>
       <c r="AQ44" s="11">
-        <v>197679</v>
+        <v>196712</v>
       </c>
       <c r="AR44" s="11">
-        <v>196712</v>
+        <v>167924</v>
       </c>
       <c r="AS44" s="11">
-        <v>200215</v>
+        <v>185069</v>
       </c>
       <c r="AT44" s="11">
-        <v>185069</v>
+        <v>194424</v>
       </c>
       <c r="AU44" s="11">
-        <v>194424</v>
+        <v>211570</v>
       </c>
       <c r="AV44" s="11">
-        <v>197207</v>
+        <v>213998</v>
       </c>
       <c r="AW44" s="11">
-        <v>213998</v>
+        <v>151646</v>
       </c>
       <c r="AX44" s="11">
-        <v>151646</v>
+        <v>156207</v>
       </c>
       <c r="AY44" s="11">
-        <v>156207</v>
+        <v>173768</v>
       </c>
       <c r="AZ44" s="11">
-        <v>173768</v>
+        <v>205442</v>
       </c>
       <c r="BA44" s="11">
-        <v>205442</v>
+        <v>205212</v>
       </c>
       <c r="BB44" s="11">
-        <v>205212</v>
+        <v>176995</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6196,14 +6196,14 @@
       <c r="X45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="13" t="s">
-        <v>58</v>
+      <c r="Y45" s="13">
+        <v>0</v>
       </c>
       <c r="Z45" s="13">
-        <v>0</v>
+        <v>4816</v>
       </c>
       <c r="AA45" s="13">
-        <v>4816</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="13">
         <v>0</v>
@@ -6212,19 +6212,19 @@
         <v>0</v>
       </c>
       <c r="AD45" s="13">
-        <v>0</v>
+        <v>5288</v>
       </c>
       <c r="AE45" s="13">
-        <v>5288</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="13">
-        <v>0</v>
+        <v>4823</v>
       </c>
       <c r="AG45" s="13">
-        <v>4823</v>
+        <v>4830</v>
       </c>
       <c r="AH45" s="13">
-        <v>4830</v>
+        <v>0</v>
       </c>
       <c r="AI45" s="13">
         <v>0</v>
@@ -6245,46 +6245,46 @@
         <v>0</v>
       </c>
       <c r="AO45" s="13">
-        <v>0</v>
+        <v>4513</v>
       </c>
       <c r="AP45" s="13">
-        <v>4513</v>
+        <v>0</v>
       </c>
       <c r="AQ45" s="13">
-        <v>0</v>
+        <v>4533</v>
       </c>
       <c r="AR45" s="13">
-        <v>4533</v>
+        <v>2703</v>
       </c>
       <c r="AS45" s="13">
-        <v>0</v>
+        <v>1429</v>
       </c>
       <c r="AT45" s="13">
-        <v>1429</v>
+        <v>4672</v>
       </c>
       <c r="AU45" s="13">
-        <v>4672</v>
+        <v>-2922</v>
       </c>
       <c r="AV45" s="13">
-        <v>4770</v>
+        <v>1454</v>
       </c>
       <c r="AW45" s="13">
-        <v>1454</v>
+        <v>0</v>
       </c>
       <c r="AX45" s="13">
-        <v>0</v>
+        <v>701</v>
       </c>
       <c r="AY45" s="13">
-        <v>701</v>
+        <v>-435</v>
       </c>
       <c r="AZ45" s="13">
-        <v>-435</v>
+        <v>0</v>
       </c>
       <c r="BA45" s="13">
-        <v>0</v>
+        <v>5447</v>
       </c>
       <c r="BB45" s="13">
-        <v>5447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6355,95 +6355,95 @@
       <c r="X46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y46" s="11" t="s">
-        <v>58</v>
+      <c r="Y46" s="11">
+        <v>34662</v>
       </c>
       <c r="Z46" s="11">
-        <v>34662</v>
+        <v>9312</v>
       </c>
       <c r="AA46" s="11">
-        <v>9312</v>
+        <v>44181</v>
       </c>
       <c r="AB46" s="11">
-        <v>44181</v>
+        <v>68872</v>
       </c>
       <c r="AC46" s="11">
-        <v>68872</v>
+        <v>53276</v>
       </c>
       <c r="AD46" s="11">
-        <v>53276</v>
+        <v>53475</v>
       </c>
       <c r="AE46" s="11">
-        <v>53475</v>
+        <v>33817</v>
       </c>
       <c r="AF46" s="11">
-        <v>33817</v>
+        <v>49203</v>
       </c>
       <c r="AG46" s="11">
-        <v>49203</v>
+        <v>48879</v>
       </c>
       <c r="AH46" s="11">
-        <v>48879</v>
+        <v>63497</v>
       </c>
       <c r="AI46" s="11">
-        <v>63497</v>
+        <v>59047</v>
       </c>
       <c r="AJ46" s="11">
-        <v>59047</v>
+        <v>47759</v>
       </c>
       <c r="AK46" s="11">
-        <v>47759</v>
+        <v>68437</v>
       </c>
       <c r="AL46" s="11">
-        <v>68437</v>
+        <v>68519</v>
       </c>
       <c r="AM46" s="11">
-        <v>68519</v>
+        <v>73268</v>
       </c>
       <c r="AN46" s="11">
-        <v>73268</v>
+        <v>68445</v>
       </c>
       <c r="AO46" s="11">
-        <v>68445</v>
+        <v>63881</v>
       </c>
       <c r="AP46" s="11">
-        <v>63881</v>
+        <v>58056</v>
       </c>
       <c r="AQ46" s="11">
-        <v>58056</v>
+        <v>64326</v>
       </c>
       <c r="AR46" s="11">
-        <v>64326</v>
+        <v>47006</v>
       </c>
       <c r="AS46" s="11">
-        <v>64106</v>
+        <v>59462</v>
       </c>
       <c r="AT46" s="11">
-        <v>59462</v>
+        <v>57123</v>
       </c>
       <c r="AU46" s="11">
-        <v>57123</v>
+        <v>62213</v>
       </c>
       <c r="AV46" s="11">
-        <v>57772</v>
+        <v>60298</v>
       </c>
       <c r="AW46" s="11">
-        <v>60298</v>
+        <v>33531</v>
       </c>
       <c r="AX46" s="11">
-        <v>33531</v>
+        <v>72915</v>
       </c>
       <c r="AY46" s="11">
-        <v>72915</v>
+        <v>56329</v>
       </c>
       <c r="AZ46" s="11">
-        <v>56329</v>
+        <v>48776</v>
       </c>
       <c r="BA46" s="11">
-        <v>48776</v>
+        <v>49113</v>
       </c>
       <c r="BB46" s="11">
-        <v>49113</v>
+        <v>48648</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6514,95 +6514,95 @@
       <c r="X47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y47" s="13" t="s">
-        <v>58</v>
+      <c r="Y47" s="13">
+        <v>73470</v>
       </c>
       <c r="Z47" s="13">
-        <v>73470</v>
+        <v>83915</v>
       </c>
       <c r="AA47" s="13">
-        <v>83915</v>
+        <v>67884</v>
       </c>
       <c r="AB47" s="13">
-        <v>67884</v>
+        <v>65298</v>
       </c>
       <c r="AC47" s="13">
-        <v>65298</v>
+        <v>76662</v>
       </c>
       <c r="AD47" s="13">
-        <v>76662</v>
+        <v>71385</v>
       </c>
       <c r="AE47" s="13">
-        <v>71385</v>
+        <v>72879</v>
       </c>
       <c r="AF47" s="13">
-        <v>72879</v>
+        <v>79631</v>
       </c>
       <c r="AG47" s="13">
-        <v>79631</v>
+        <v>77297</v>
       </c>
       <c r="AH47" s="13">
-        <v>77297</v>
+        <v>65531</v>
       </c>
       <c r="AI47" s="13">
-        <v>65531</v>
+        <v>66082</v>
       </c>
       <c r="AJ47" s="13">
-        <v>66082</v>
+        <v>55702</v>
       </c>
       <c r="AK47" s="13">
-        <v>55702</v>
+        <v>41694</v>
       </c>
       <c r="AL47" s="13">
-        <v>41694</v>
+        <v>74969</v>
       </c>
       <c r="AM47" s="13">
-        <v>74969</v>
+        <v>83023</v>
       </c>
       <c r="AN47" s="13">
-        <v>83023</v>
+        <v>72123</v>
       </c>
       <c r="AO47" s="13">
-        <v>72123</v>
+        <v>74811</v>
       </c>
       <c r="AP47" s="13">
-        <v>74811</v>
+        <v>71739</v>
       </c>
       <c r="AQ47" s="13">
-        <v>71739</v>
+        <v>79523</v>
       </c>
       <c r="AR47" s="13">
-        <v>79523</v>
+        <v>69079</v>
       </c>
       <c r="AS47" s="13">
-        <v>69063</v>
+        <v>69105</v>
       </c>
       <c r="AT47" s="13">
-        <v>69105</v>
+        <v>70340</v>
       </c>
       <c r="AU47" s="13">
-        <v>70340</v>
+        <v>72574</v>
       </c>
       <c r="AV47" s="13">
-        <v>71916</v>
+        <v>61184</v>
       </c>
       <c r="AW47" s="13">
-        <v>61184</v>
+        <v>79164</v>
       </c>
       <c r="AX47" s="13">
-        <v>79164</v>
+        <v>73208</v>
       </c>
       <c r="AY47" s="13">
-        <v>73208</v>
+        <v>82739</v>
       </c>
       <c r="AZ47" s="13">
-        <v>82739</v>
+        <v>83419</v>
       </c>
       <c r="BA47" s="13">
-        <v>83419</v>
+        <v>78002</v>
       </c>
       <c r="BB47" s="13">
-        <v>78002</v>
+        <v>70239</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6673,95 +6673,95 @@
       <c r="X48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y48" s="11" t="s">
-        <v>58</v>
+      <c r="Y48" s="11">
+        <v>386900</v>
       </c>
       <c r="Z48" s="11">
-        <v>386900</v>
+        <v>414177</v>
       </c>
       <c r="AA48" s="11">
-        <v>414177</v>
+        <v>457687</v>
       </c>
       <c r="AB48" s="11">
-        <v>457687</v>
+        <v>428900</v>
       </c>
       <c r="AC48" s="11">
-        <v>428900</v>
+        <v>456574</v>
       </c>
       <c r="AD48" s="11">
-        <v>456574</v>
+        <v>420706</v>
       </c>
       <c r="AE48" s="11">
-        <v>420706</v>
+        <v>419830</v>
       </c>
       <c r="AF48" s="11">
-        <v>419830</v>
+        <v>469868</v>
       </c>
       <c r="AG48" s="11">
-        <v>469868</v>
+        <v>389504</v>
       </c>
       <c r="AH48" s="11">
-        <v>389504</v>
+        <v>416892</v>
       </c>
       <c r="AI48" s="11">
-        <v>416892</v>
+        <v>385525</v>
       </c>
       <c r="AJ48" s="11">
-        <v>385525</v>
+        <v>319038</v>
       </c>
       <c r="AK48" s="11">
-        <v>319038</v>
+        <v>271548</v>
       </c>
       <c r="AL48" s="11">
-        <v>271548</v>
+        <v>433873</v>
       </c>
       <c r="AM48" s="11">
-        <v>433873</v>
+        <v>471762</v>
       </c>
       <c r="AN48" s="11">
-        <v>471762</v>
+        <v>394365</v>
       </c>
       <c r="AO48" s="11">
-        <v>394365</v>
+        <v>405902</v>
       </c>
       <c r="AP48" s="11">
-        <v>405902</v>
+        <v>429147</v>
       </c>
       <c r="AQ48" s="11">
-        <v>429147</v>
+        <v>387969</v>
       </c>
       <c r="AR48" s="11">
-        <v>387969</v>
+        <v>396962</v>
       </c>
       <c r="AS48" s="11">
-        <v>433915</v>
+        <v>389540</v>
       </c>
       <c r="AT48" s="11">
-        <v>389540</v>
+        <v>452184</v>
       </c>
       <c r="AU48" s="11">
-        <v>452184</v>
+        <v>366031</v>
       </c>
       <c r="AV48" s="11">
-        <v>429883</v>
+        <v>427607</v>
       </c>
       <c r="AW48" s="11">
-        <v>427607</v>
+        <v>466203</v>
       </c>
       <c r="AX48" s="11">
-        <v>466203</v>
+        <v>427663</v>
       </c>
       <c r="AY48" s="11">
-        <v>427663</v>
+        <v>469891</v>
       </c>
       <c r="AZ48" s="11">
-        <v>469891</v>
+        <v>452133</v>
       </c>
       <c r="BA48" s="11">
-        <v>452133</v>
+        <v>446721</v>
       </c>
       <c r="BB48" s="11">
-        <v>446721</v>
+        <v>397455</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6831,94 +6831,94 @@
         <v>0</v>
       </c>
       <c r="Y49" s="15">
-        <v>0</v>
+        <v>1066276</v>
       </c>
       <c r="Z49" s="15">
-        <v>1066276</v>
+        <v>1021933</v>
       </c>
       <c r="AA49" s="15">
-        <v>1021933</v>
+        <v>1121437</v>
       </c>
       <c r="AB49" s="15">
-        <v>1121437</v>
+        <v>1125770</v>
       </c>
       <c r="AC49" s="15">
-        <v>1125770</v>
+        <v>1102766</v>
       </c>
       <c r="AD49" s="15">
-        <v>1102766</v>
+        <v>1080773</v>
       </c>
       <c r="AE49" s="15">
-        <v>1080773</v>
+        <v>1090539</v>
       </c>
       <c r="AF49" s="15">
-        <v>1090539</v>
+        <v>1156477</v>
       </c>
       <c r="AG49" s="15">
-        <v>1156477</v>
+        <v>1050266</v>
       </c>
       <c r="AH49" s="15">
-        <v>1050266</v>
+        <v>1068960</v>
       </c>
       <c r="AI49" s="15">
-        <v>1068960</v>
+        <v>994888</v>
       </c>
       <c r="AJ49" s="15">
-        <v>994888</v>
+        <v>835495</v>
       </c>
       <c r="AK49" s="15">
-        <v>835495</v>
+        <v>782544</v>
       </c>
       <c r="AL49" s="15">
-        <v>782544</v>
+        <v>1150894</v>
       </c>
       <c r="AM49" s="15">
-        <v>1150894</v>
+        <v>1210523</v>
       </c>
       <c r="AN49" s="15">
-        <v>1210523</v>
+        <v>1087685</v>
       </c>
       <c r="AO49" s="15">
-        <v>1087685</v>
+        <v>1139673</v>
       </c>
       <c r="AP49" s="15">
-        <v>1139673</v>
+        <v>1156437</v>
       </c>
       <c r="AQ49" s="15">
-        <v>1156437</v>
+        <v>1102201</v>
       </c>
       <c r="AR49" s="15">
-        <v>1102201</v>
+        <v>1149346</v>
       </c>
       <c r="AS49" s="15">
-        <v>1202995</v>
+        <v>1073003</v>
       </c>
       <c r="AT49" s="15">
-        <v>1073003</v>
+        <v>1179917</v>
       </c>
       <c r="AU49" s="15">
-        <v>1179917</v>
+        <v>825306</v>
       </c>
       <c r="AV49" s="15">
-        <v>1140983</v>
+        <v>1048489</v>
       </c>
       <c r="AW49" s="15">
-        <v>1048489</v>
+        <v>1107807</v>
       </c>
       <c r="AX49" s="15">
-        <v>1107807</v>
+        <v>1310443</v>
       </c>
       <c r="AY49" s="15">
-        <v>1310443</v>
+        <v>1251300</v>
       </c>
       <c r="AZ49" s="15">
-        <v>1251300</v>
+        <v>1162487</v>
       </c>
       <c r="BA49" s="15">
-        <v>1162487</v>
+        <v>1167478</v>
       </c>
       <c r="BB49" s="15">
-        <v>1167478</v>
+        <v>1055086</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -7258,8 +7258,8 @@
       <c r="X53" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y53" s="19" t="s">
-        <v>58</v>
+      <c r="Y53" s="19">
+        <v>0</v>
       </c>
       <c r="Z53" s="19">
         <v>0</v>
@@ -7472,8 +7472,8 @@
       <c r="X55" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y55" s="19" t="s">
-        <v>58</v>
+      <c r="Y55" s="19">
+        <v>0</v>
       </c>
       <c r="Z55" s="19">
         <v>0</v>
@@ -7630,94 +7630,94 @@
         <v>0</v>
       </c>
       <c r="Y56" s="15">
-        <v>0</v>
+        <v>1066276</v>
       </c>
       <c r="Z56" s="15">
-        <v>1066276</v>
+        <v>1021933</v>
       </c>
       <c r="AA56" s="15">
-        <v>1021933</v>
+        <v>1121437</v>
       </c>
       <c r="AB56" s="15">
-        <v>1121437</v>
+        <v>1125770</v>
       </c>
       <c r="AC56" s="15">
-        <v>1125770</v>
+        <v>1102766</v>
       </c>
       <c r="AD56" s="15">
-        <v>1102766</v>
+        <v>1080773</v>
       </c>
       <c r="AE56" s="15">
-        <v>1080773</v>
+        <v>1090539</v>
       </c>
       <c r="AF56" s="15">
-        <v>1090539</v>
+        <v>1156477</v>
       </c>
       <c r="AG56" s="15">
-        <v>1156477</v>
+        <v>1050266</v>
       </c>
       <c r="AH56" s="15">
-        <v>1050266</v>
+        <v>1068960</v>
       </c>
       <c r="AI56" s="15">
-        <v>1068960</v>
+        <v>994888</v>
       </c>
       <c r="AJ56" s="15">
-        <v>994888</v>
+        <v>835495</v>
       </c>
       <c r="AK56" s="15">
-        <v>835495</v>
+        <v>782544</v>
       </c>
       <c r="AL56" s="15">
-        <v>782544</v>
+        <v>1150894</v>
       </c>
       <c r="AM56" s="15">
-        <v>1150894</v>
+        <v>1210523</v>
       </c>
       <c r="AN56" s="15">
-        <v>1210523</v>
+        <v>1087685</v>
       </c>
       <c r="AO56" s="15">
-        <v>1087685</v>
+        <v>1139673</v>
       </c>
       <c r="AP56" s="15">
-        <v>1139673</v>
+        <v>1156437</v>
       </c>
       <c r="AQ56" s="15">
-        <v>1156437</v>
+        <v>1102201</v>
       </c>
       <c r="AR56" s="15">
-        <v>1102201</v>
+        <v>1149346</v>
       </c>
       <c r="AS56" s="15">
-        <v>1202995</v>
+        <v>1073003</v>
       </c>
       <c r="AT56" s="15">
-        <v>1073003</v>
+        <v>1179917</v>
       </c>
       <c r="AU56" s="15">
-        <v>1179917</v>
+        <v>825306</v>
       </c>
       <c r="AV56" s="15">
-        <v>1140983</v>
+        <v>1048489</v>
       </c>
       <c r="AW56" s="15">
-        <v>1048489</v>
+        <v>1107807</v>
       </c>
       <c r="AX56" s="15">
-        <v>1107807</v>
+        <v>1310443</v>
       </c>
       <c r="AY56" s="15">
-        <v>1310443</v>
+        <v>1251300</v>
       </c>
       <c r="AZ56" s="15">
-        <v>1251300</v>
+        <v>1162487</v>
       </c>
       <c r="BA56" s="15">
-        <v>1162487</v>
+        <v>1167478</v>
       </c>
       <c r="BB56" s="15">
-        <v>1167478</v>
+        <v>1055086</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -8222,8 +8222,8 @@
       <c r="X63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y63" s="11" t="s">
-        <v>58</v>
+      <c r="Y63" s="11">
+        <v>0</v>
       </c>
       <c r="Z63" s="11">
         <v>0</v>
@@ -8280,34 +8280,34 @@
         <v>0</v>
       </c>
       <c r="AR63" s="11">
-        <v>0</v>
+        <v>58011737</v>
       </c>
       <c r="AS63" s="11">
-        <v>0</v>
+        <v>6935392</v>
       </c>
       <c r="AT63" s="11">
-        <v>6935392</v>
+        <v>0</v>
       </c>
       <c r="AU63" s="11">
-        <v>0</v>
+        <v>12397154</v>
       </c>
       <c r="AV63" s="11">
-        <v>0</v>
+        <v>7540192</v>
       </c>
       <c r="AW63" s="11">
-        <v>7540192</v>
+        <v>0</v>
       </c>
       <c r="AX63" s="11">
-        <v>0</v>
+        <v>14592002</v>
       </c>
       <c r="AY63" s="11">
-        <v>14592002</v>
+        <v>7783013</v>
       </c>
       <c r="AZ63" s="11">
-        <v>7783013</v>
+        <v>0</v>
       </c>
       <c r="BA63" s="11">
-        <v>0</v>
+        <v>-42312361</v>
       </c>
       <c r="BB63" s="11">
         <v>0</v>
@@ -8381,8 +8381,8 @@
       <c r="X64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y64" s="13" t="s">
-        <v>58</v>
+      <c r="Y64" s="13">
+        <v>0</v>
       </c>
       <c r="Z64" s="13">
         <v>0</v>
@@ -8439,34 +8439,34 @@
         <v>0</v>
       </c>
       <c r="AR64" s="13">
-        <v>0</v>
+        <v>8234928</v>
       </c>
       <c r="AS64" s="13">
-        <v>0</v>
+        <v>1694246</v>
       </c>
       <c r="AT64" s="13">
-        <v>1694246</v>
+        <v>0</v>
       </c>
       <c r="AU64" s="13">
-        <v>0</v>
+        <v>1617843</v>
       </c>
       <c r="AV64" s="13">
-        <v>0</v>
+        <v>780771</v>
       </c>
       <c r="AW64" s="13">
-        <v>780771</v>
+        <v>0</v>
       </c>
       <c r="AX64" s="13">
-        <v>0</v>
+        <v>1372625</v>
       </c>
       <c r="AY64" s="13">
-        <v>1372625</v>
+        <v>941099</v>
       </c>
       <c r="AZ64" s="13">
-        <v>941099</v>
+        <v>0</v>
       </c>
       <c r="BA64" s="13">
-        <v>0</v>
+        <v>-4712338</v>
       </c>
       <c r="BB64" s="13">
         <v>0</v>
@@ -8540,8 +8540,8 @@
       <c r="X65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y65" s="11" t="s">
-        <v>58</v>
+      <c r="Y65" s="11">
+        <v>0</v>
       </c>
       <c r="Z65" s="11">
         <v>0</v>
@@ -8598,34 +8598,34 @@
         <v>0</v>
       </c>
       <c r="AR65" s="11">
-        <v>0</v>
+        <v>1309708</v>
       </c>
       <c r="AS65" s="11">
-        <v>0</v>
+        <v>241313</v>
       </c>
       <c r="AT65" s="11">
-        <v>241313</v>
+        <v>0</v>
       </c>
       <c r="AU65" s="11">
-        <v>0</v>
+        <v>522859</v>
       </c>
       <c r="AV65" s="11">
-        <v>0</v>
+        <v>396920</v>
       </c>
       <c r="AW65" s="11">
-        <v>396920</v>
+        <v>0</v>
       </c>
       <c r="AX65" s="11">
-        <v>0</v>
+        <v>402032</v>
       </c>
       <c r="AY65" s="11">
-        <v>402032</v>
+        <v>131260</v>
       </c>
       <c r="AZ65" s="11">
-        <v>131260</v>
+        <v>0</v>
       </c>
       <c r="BA65" s="11">
-        <v>0</v>
+        <v>-1453071</v>
       </c>
       <c r="BB65" s="11">
         <v>0</v>
@@ -8699,8 +8699,8 @@
       <c r="X66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y66" s="13" t="s">
-        <v>58</v>
+      <c r="Y66" s="13">
+        <v>0</v>
       </c>
       <c r="Z66" s="13">
         <v>0</v>
@@ -8757,34 +8757,34 @@
         <v>0</v>
       </c>
       <c r="AR66" s="13">
-        <v>0</v>
+        <v>36029073</v>
       </c>
       <c r="AS66" s="13">
-        <v>0</v>
+        <v>4759684</v>
       </c>
       <c r="AT66" s="13">
-        <v>4759684</v>
+        <v>0</v>
       </c>
       <c r="AU66" s="13">
-        <v>0</v>
+        <v>10348747</v>
       </c>
       <c r="AV66" s="13">
-        <v>0</v>
+        <v>4311170</v>
       </c>
       <c r="AW66" s="13">
-        <v>4311170</v>
+        <v>0</v>
       </c>
       <c r="AX66" s="13">
-        <v>0</v>
+        <v>7218713</v>
       </c>
       <c r="AY66" s="13">
-        <v>7218713</v>
+        <v>4030069</v>
       </c>
       <c r="AZ66" s="13">
-        <v>4030069</v>
+        <v>0</v>
       </c>
       <c r="BA66" s="13">
-        <v>0</v>
+        <v>-25908699</v>
       </c>
       <c r="BB66" s="13">
         <v>0</v>
@@ -8909,20 +8909,20 @@
       <c r="AO67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP67" s="11" t="s">
-        <v>58</v>
+      <c r="AP67" s="11">
+        <v>0</v>
       </c>
       <c r="AQ67" s="11">
         <v>0</v>
       </c>
       <c r="AR67" s="11">
-        <v>0</v>
+        <v>16699</v>
       </c>
       <c r="AS67" s="11">
-        <v>0</v>
+        <v>87981</v>
       </c>
       <c r="AT67" s="11">
-        <v>87981</v>
+        <v>0</v>
       </c>
       <c r="AU67" s="11">
         <v>0</v>
@@ -9017,8 +9017,8 @@
       <c r="X68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y68" s="13" t="s">
-        <v>58</v>
+      <c r="Y68" s="13">
+        <v>0</v>
       </c>
       <c r="Z68" s="13">
         <v>0</v>
@@ -9075,34 +9075,34 @@
         <v>0</v>
       </c>
       <c r="AR68" s="13">
-        <v>0</v>
+        <v>30646745</v>
       </c>
       <c r="AS68" s="13">
-        <v>0</v>
+        <v>2767856</v>
       </c>
       <c r="AT68" s="13">
-        <v>2767856</v>
+        <v>0</v>
       </c>
       <c r="AU68" s="13">
-        <v>0</v>
+        <v>4390374</v>
       </c>
       <c r="AV68" s="13">
-        <v>0</v>
+        <v>7354974</v>
       </c>
       <c r="AW68" s="13">
-        <v>7354974</v>
+        <v>0</v>
       </c>
       <c r="AX68" s="13">
-        <v>0</v>
+        <v>9657581</v>
       </c>
       <c r="AY68" s="13">
-        <v>9657581</v>
+        <v>2787304</v>
       </c>
       <c r="AZ68" s="13">
-        <v>2787304</v>
+        <v>0</v>
       </c>
       <c r="BA68" s="13">
-        <v>0</v>
+        <v>-24190233</v>
       </c>
       <c r="BB68" s="13">
         <v>0</v>
@@ -9176,8 +9176,8 @@
       <c r="X69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>58</v>
+      <c r="Y69" s="11">
+        <v>0</v>
       </c>
       <c r="Z69" s="11">
         <v>0</v>
@@ -9234,34 +9234,34 @@
         <v>0</v>
       </c>
       <c r="AR69" s="11">
-        <v>0</v>
+        <v>319406</v>
       </c>
       <c r="AS69" s="11">
-        <v>0</v>
+        <v>6108</v>
       </c>
       <c r="AT69" s="11">
-        <v>6108</v>
+        <v>0</v>
       </c>
       <c r="AU69" s="11">
         <v>0</v>
       </c>
       <c r="AV69" s="11">
-        <v>0</v>
+        <v>22554</v>
       </c>
       <c r="AW69" s="11">
-        <v>22554</v>
+        <v>0</v>
       </c>
       <c r="AX69" s="11">
-        <v>0</v>
+        <v>55160</v>
       </c>
       <c r="AY69" s="11">
-        <v>55160</v>
+        <v>0</v>
       </c>
       <c r="AZ69" s="11">
         <v>0</v>
       </c>
       <c r="BA69" s="11">
-        <v>0</v>
+        <v>-77714</v>
       </c>
       <c r="BB69" s="11">
         <v>0</v>
@@ -9335,8 +9335,8 @@
       <c r="X70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y70" s="13" t="s">
-        <v>58</v>
+      <c r="Y70" s="13">
+        <v>0</v>
       </c>
       <c r="Z70" s="13">
         <v>0</v>
@@ -9393,34 +9393,34 @@
         <v>0</v>
       </c>
       <c r="AR70" s="13">
-        <v>0</v>
+        <v>207084792</v>
       </c>
       <c r="AS70" s="13">
-        <v>0</v>
+        <v>28352761</v>
       </c>
       <c r="AT70" s="13">
-        <v>28352761</v>
+        <v>0</v>
       </c>
       <c r="AU70" s="13">
-        <v>0</v>
+        <v>37723022</v>
       </c>
       <c r="AV70" s="13">
-        <v>0</v>
+        <v>11905438</v>
       </c>
       <c r="AW70" s="13">
-        <v>11905438</v>
+        <v>0</v>
       </c>
       <c r="AX70" s="13">
-        <v>0</v>
+        <v>78092671</v>
       </c>
       <c r="AY70" s="13">
-        <v>78092671</v>
+        <v>30540651</v>
       </c>
       <c r="AZ70" s="13">
-        <v>30540651</v>
+        <v>0</v>
       </c>
       <c r="BA70" s="13">
-        <v>0</v>
+        <v>-158261782</v>
       </c>
       <c r="BB70" s="13">
         <v>0</v>
@@ -9494,8 +9494,8 @@
       <c r="X71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y71" s="11" t="s">
-        <v>58</v>
+      <c r="Y71" s="11">
+        <v>0</v>
       </c>
       <c r="Z71" s="11">
         <v>0</v>
@@ -9552,34 +9552,34 @@
         <v>0</v>
       </c>
       <c r="AR71" s="11">
-        <v>0</v>
+        <v>236307284</v>
       </c>
       <c r="AS71" s="11">
-        <v>0</v>
+        <v>32734815</v>
       </c>
       <c r="AT71" s="11">
-        <v>32734815</v>
+        <v>0</v>
       </c>
       <c r="AU71" s="11">
-        <v>0</v>
+        <v>76754102</v>
       </c>
       <c r="AV71" s="11">
-        <v>0</v>
+        <v>45653635</v>
       </c>
       <c r="AW71" s="11">
-        <v>45653635</v>
+        <v>0</v>
       </c>
       <c r="AX71" s="11">
-        <v>0</v>
+        <v>54648859</v>
       </c>
       <c r="AY71" s="11">
-        <v>54648859</v>
+        <v>26599135</v>
       </c>
       <c r="AZ71" s="11">
-        <v>26599135</v>
+        <v>0</v>
       </c>
       <c r="BA71" s="11">
-        <v>0</v>
+        <v>-203655731</v>
       </c>
       <c r="BB71" s="11">
         <v>0</v>
@@ -9653,8 +9653,8 @@
       <c r="X72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y72" s="13" t="s">
-        <v>58</v>
+      <c r="Y72" s="13">
+        <v>0</v>
       </c>
       <c r="Z72" s="13">
         <v>0</v>
@@ -9711,34 +9711,34 @@
         <v>0</v>
       </c>
       <c r="AR72" s="13">
-        <v>0</v>
+        <v>1528545</v>
       </c>
       <c r="AS72" s="13">
-        <v>0</v>
+        <v>260612</v>
       </c>
       <c r="AT72" s="13">
-        <v>260612</v>
+        <v>0</v>
       </c>
       <c r="AU72" s="13">
-        <v>0</v>
+        <v>369603</v>
       </c>
       <c r="AV72" s="13">
-        <v>0</v>
+        <v>350440</v>
       </c>
       <c r="AW72" s="13">
-        <v>350440</v>
+        <v>0</v>
       </c>
       <c r="AX72" s="13">
-        <v>0</v>
+        <v>133009</v>
       </c>
       <c r="AY72" s="13">
-        <v>133009</v>
+        <v>-88162</v>
       </c>
       <c r="AZ72" s="13">
-        <v>-88162</v>
+        <v>0</v>
       </c>
       <c r="BA72" s="13">
-        <v>0</v>
+        <v>-764890</v>
       </c>
       <c r="BB72" s="13">
         <v>0</v>
@@ -9812,8 +9812,8 @@
       <c r="X73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y73" s="11" t="s">
-        <v>58</v>
+      <c r="Y73" s="11">
+        <v>0</v>
       </c>
       <c r="Z73" s="11">
         <v>0</v>
@@ -9870,34 +9870,34 @@
         <v>0</v>
       </c>
       <c r="AR73" s="11">
-        <v>0</v>
+        <v>76650966</v>
       </c>
       <c r="AS73" s="11">
-        <v>0</v>
+        <v>8219023</v>
       </c>
       <c r="AT73" s="11">
-        <v>8219023</v>
+        <v>0</v>
       </c>
       <c r="AU73" s="11">
-        <v>0</v>
+        <v>24841563</v>
       </c>
       <c r="AV73" s="11">
-        <v>0</v>
+        <v>14302856</v>
       </c>
       <c r="AW73" s="11">
-        <v>14302856</v>
+        <v>0</v>
       </c>
       <c r="AX73" s="11">
-        <v>0</v>
+        <v>25773135</v>
       </c>
       <c r="AY73" s="11">
-        <v>25773135</v>
+        <v>12058628</v>
       </c>
       <c r="AZ73" s="11">
-        <v>12058628</v>
+        <v>0</v>
       </c>
       <c r="BA73" s="11">
-        <v>0</v>
+        <v>-76976182</v>
       </c>
       <c r="BB73" s="11">
         <v>0</v>
@@ -9971,8 +9971,8 @@
       <c r="X74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y74" s="13" t="s">
-        <v>58</v>
+      <c r="Y74" s="13">
+        <v>0</v>
       </c>
       <c r="Z74" s="13">
         <v>0</v>
@@ -10029,34 +10029,34 @@
         <v>0</v>
       </c>
       <c r="AR74" s="13">
-        <v>0</v>
+        <v>74864145</v>
       </c>
       <c r="AS74" s="13">
-        <v>0</v>
+        <v>8482376</v>
       </c>
       <c r="AT74" s="13">
-        <v>8482376</v>
+        <v>0</v>
       </c>
       <c r="AU74" s="13">
-        <v>0</v>
+        <v>21706627</v>
       </c>
       <c r="AV74" s="13">
-        <v>0</v>
+        <v>9898373</v>
       </c>
       <c r="AW74" s="13">
-        <v>9898373</v>
+        <v>0</v>
       </c>
       <c r="AX74" s="13">
-        <v>0</v>
+        <v>22554584</v>
       </c>
       <c r="AY74" s="13">
-        <v>22554584</v>
+        <v>10764748</v>
       </c>
       <c r="AZ74" s="13">
-        <v>10764748</v>
+        <v>0</v>
       </c>
       <c r="BA74" s="13">
-        <v>0</v>
+        <v>-64924332</v>
       </c>
       <c r="BB74" s="13">
         <v>0</v>
@@ -10130,8 +10130,8 @@
       <c r="X75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y75" s="11" t="s">
-        <v>58</v>
+      <c r="Y75" s="11">
+        <v>0</v>
       </c>
       <c r="Z75" s="11">
         <v>0</v>
@@ -10188,34 +10188,34 @@
         <v>0</v>
       </c>
       <c r="AR75" s="11">
-        <v>0</v>
+        <v>512802055</v>
       </c>
       <c r="AS75" s="11">
-        <v>0</v>
+        <v>74058659</v>
       </c>
       <c r="AT75" s="11">
-        <v>74058659</v>
+        <v>0</v>
       </c>
       <c r="AU75" s="11">
-        <v>0</v>
+        <v>180228565</v>
       </c>
       <c r="AV75" s="11">
-        <v>0</v>
+        <v>107250270</v>
       </c>
       <c r="AW75" s="11">
-        <v>107250270</v>
+        <v>0</v>
       </c>
       <c r="AX75" s="11">
-        <v>0</v>
+        <v>192191970</v>
       </c>
       <c r="AY75" s="11">
-        <v>192191970</v>
+        <v>102416203</v>
       </c>
       <c r="AZ75" s="11">
-        <v>102416203</v>
+        <v>0</v>
       </c>
       <c r="BA75" s="11">
-        <v>0</v>
+        <v>-582087008</v>
       </c>
       <c r="BB75" s="11">
         <v>0</v>
@@ -10345,34 +10345,34 @@
         <v>0</v>
       </c>
       <c r="AR76" s="15">
-        <v>0</v>
+        <v>1243806083</v>
       </c>
       <c r="AS76" s="15">
-        <v>0</v>
+        <v>168600826</v>
       </c>
       <c r="AT76" s="15">
-        <v>168600826</v>
+        <v>0</v>
       </c>
       <c r="AU76" s="15">
-        <v>0</v>
+        <v>370900459</v>
       </c>
       <c r="AV76" s="15">
-        <v>0</v>
+        <v>209767593</v>
       </c>
       <c r="AW76" s="15">
-        <v>209767593</v>
+        <v>0</v>
       </c>
       <c r="AX76" s="15">
-        <v>0</v>
+        <v>406692341</v>
       </c>
       <c r="AY76" s="15">
-        <v>406692341</v>
+        <v>197963948</v>
       </c>
       <c r="AZ76" s="15">
-        <v>197963948</v>
+        <v>0</v>
       </c>
       <c r="BA76" s="15">
-        <v>0</v>
+        <v>-1185324341</v>
       </c>
       <c r="BB76" s="15">
         <v>0</v>
@@ -10717,8 +10717,8 @@
       <c r="X80" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y80" s="19" t="s">
-        <v>58</v>
+      <c r="Y80" s="19">
+        <v>0</v>
       </c>
       <c r="Z80" s="19">
         <v>0</v>
@@ -10933,8 +10933,8 @@
       <c r="X82" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y82" s="19" t="s">
-        <v>58</v>
+      <c r="Y82" s="19">
+        <v>0</v>
       </c>
       <c r="Z82" s="19">
         <v>0</v>
@@ -11149,8 +11149,8 @@
       <c r="X84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y84" s="11" t="s">
-        <v>58</v>
+      <c r="Y84" s="11">
+        <v>0</v>
       </c>
       <c r="Z84" s="11">
         <v>0</v>
@@ -11364,34 +11364,34 @@
         <v>0</v>
       </c>
       <c r="AR85" s="15">
-        <v>0</v>
+        <v>1243806083</v>
       </c>
       <c r="AS85" s="15">
-        <v>0</v>
+        <v>168600826</v>
       </c>
       <c r="AT85" s="15">
-        <v>168600826</v>
+        <v>0</v>
       </c>
       <c r="AU85" s="15">
-        <v>0</v>
+        <v>370900459</v>
       </c>
       <c r="AV85" s="15">
-        <v>0</v>
+        <v>209767593</v>
       </c>
       <c r="AW85" s="15">
-        <v>209767593</v>
+        <v>0</v>
       </c>
       <c r="AX85" s="15">
-        <v>0</v>
+        <v>406692341</v>
       </c>
       <c r="AY85" s="15">
-        <v>406692341</v>
+        <v>197963948</v>
       </c>
       <c r="AZ85" s="15">
-        <v>197963948</v>
+        <v>0</v>
       </c>
       <c r="BA85" s="15">
-        <v>0</v>
+        <v>-1185324341</v>
       </c>
       <c r="BB85" s="15">
         <v>0</v>
@@ -11899,8 +11899,8 @@
       <c r="X92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y92" s="11" t="s">
-        <v>58</v>
+      <c r="Y92" s="11">
+        <v>0</v>
       </c>
       <c r="Z92" s="11">
         <v>0</v>
@@ -11957,34 +11957,34 @@
         <v>0</v>
       </c>
       <c r="AR92" s="11">
-        <v>0</v>
+        <v>71550793</v>
       </c>
       <c r="AS92" s="11">
-        <v>0</v>
+        <v>84829336</v>
       </c>
       <c r="AT92" s="11">
-        <v>84829336</v>
+        <v>0</v>
       </c>
       <c r="AU92" s="11">
-        <v>0</v>
+        <v>99751802</v>
       </c>
       <c r="AV92" s="11">
-        <v>0</v>
+        <v>86529630</v>
       </c>
       <c r="AW92" s="11">
-        <v>86529630</v>
+        <v>0</v>
       </c>
       <c r="AX92" s="11">
-        <v>0</v>
+        <v>37913577</v>
       </c>
       <c r="AY92" s="11">
-        <v>37913577</v>
+        <v>80361518</v>
       </c>
       <c r="AZ92" s="11">
-        <v>80361518</v>
+        <v>0</v>
       </c>
       <c r="BA92" s="11">
-        <v>0</v>
+        <v>456380022</v>
       </c>
       <c r="BB92" s="11">
         <v>0</v>
@@ -12058,8 +12058,8 @@
       <c r="X93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y93" s="13" t="s">
-        <v>58</v>
+      <c r="Y93" s="13">
+        <v>0</v>
       </c>
       <c r="Z93" s="13">
         <v>0</v>
@@ -12094,11 +12094,11 @@
       <c r="AJ93" s="13">
         <v>0</v>
       </c>
-      <c r="AK93" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL93" s="13" t="s">
-        <v>58</v>
+      <c r="AK93" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL93" s="13">
+        <v>0</v>
       </c>
       <c r="AM93" s="13">
         <v>0</v>
@@ -12116,37 +12116,37 @@
         <v>0</v>
       </c>
       <c r="AR93" s="13">
-        <v>0</v>
+        <v>125423458</v>
       </c>
       <c r="AS93" s="13">
-        <v>0</v>
+        <v>181630146</v>
       </c>
       <c r="AT93" s="13">
-        <v>181630146</v>
+        <v>0</v>
       </c>
       <c r="AU93" s="13">
-        <v>0</v>
+        <v>207229794</v>
       </c>
       <c r="AV93" s="13">
-        <v>0</v>
+        <v>240237231</v>
       </c>
       <c r="AW93" s="13">
-        <v>240237231</v>
+        <v>0</v>
       </c>
       <c r="AX93" s="13">
-        <v>0</v>
+        <v>101161767</v>
       </c>
       <c r="AY93" s="13">
-        <v>101161767</v>
+        <v>209225074</v>
       </c>
       <c r="AZ93" s="13">
-        <v>209225074</v>
+        <v>0</v>
       </c>
       <c r="BA93" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB93" s="13">
-        <v>0</v>
+        <v>497291895</v>
+      </c>
+      <c r="BB93" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.3">
@@ -12217,8 +12217,8 @@
       <c r="X94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y94" s="11" t="s">
-        <v>58</v>
+      <c r="Y94" s="11">
+        <v>0</v>
       </c>
       <c r="Z94" s="11">
         <v>0</v>
@@ -12275,34 +12275,34 @@
         <v>0</v>
       </c>
       <c r="AR94" s="11">
-        <v>0</v>
+        <v>44230455</v>
       </c>
       <c r="AS94" s="11">
-        <v>0</v>
+        <v>77443196</v>
       </c>
       <c r="AT94" s="11">
-        <v>77443196</v>
+        <v>0</v>
       </c>
       <c r="AU94" s="11">
-        <v>0</v>
+        <v>92182475</v>
       </c>
       <c r="AV94" s="11">
-        <v>0</v>
+        <v>109344353</v>
       </c>
       <c r="AW94" s="11">
-        <v>109344353</v>
+        <v>0</v>
       </c>
       <c r="AX94" s="11">
-        <v>0</v>
+        <v>29491784</v>
       </c>
       <c r="AY94" s="11">
-        <v>29491784</v>
+        <v>33467619</v>
       </c>
       <c r="AZ94" s="11">
-        <v>33467619</v>
+        <v>0</v>
       </c>
       <c r="BA94" s="11">
-        <v>0</v>
+        <v>399854430</v>
       </c>
       <c r="BB94" s="11">
         <v>0</v>
@@ -12376,8 +12376,8 @@
       <c r="X95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y95" s="13" t="s">
-        <v>58</v>
+      <c r="Y95" s="13">
+        <v>0</v>
       </c>
       <c r="Z95" s="13">
         <v>0</v>
@@ -12434,34 +12434,34 @@
         <v>0</v>
       </c>
       <c r="AR95" s="13">
-        <v>0</v>
+        <v>81237312</v>
       </c>
       <c r="AS95" s="13">
-        <v>0</v>
+        <v>116089854</v>
       </c>
       <c r="AT95" s="13">
-        <v>116089854</v>
+        <v>0</v>
       </c>
       <c r="AU95" s="13">
-        <v>0</v>
+        <v>111072619</v>
       </c>
       <c r="AV95" s="13">
-        <v>0</v>
+        <v>99468645</v>
       </c>
       <c r="AW95" s="13">
-        <v>99468645</v>
+        <v>0</v>
       </c>
       <c r="AX95" s="13">
-        <v>0</v>
+        <v>30338011</v>
       </c>
       <c r="AY95" s="13">
-        <v>30338011</v>
+        <v>89349717</v>
       </c>
       <c r="AZ95" s="13">
-        <v>89349717</v>
+        <v>0</v>
       </c>
       <c r="BA95" s="13">
-        <v>0</v>
+        <v>563710515</v>
       </c>
       <c r="BB95" s="13">
         <v>0</v>
@@ -12586,20 +12586,20 @@
       <c r="AO96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP96" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ96" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR96" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS96" s="11" t="s">
-        <v>58</v>
+      <c r="AP96" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ96" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR96" s="11">
+        <v>109143791</v>
+      </c>
+      <c r="AS96" s="11">
+        <v>115158377</v>
       </c>
       <c r="AT96" s="11">
-        <v>115158377</v>
+        <v>0</v>
       </c>
       <c r="AU96" s="11">
         <v>0</v>
@@ -12694,8 +12694,8 @@
       <c r="X97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y97" s="13" t="s">
-        <v>58</v>
+      <c r="Y97" s="13">
+        <v>0</v>
       </c>
       <c r="Z97" s="13">
         <v>0</v>
@@ -12752,34 +12752,34 @@
         <v>0</v>
       </c>
       <c r="AR97" s="13">
-        <v>0</v>
+        <v>89517445</v>
       </c>
       <c r="AS97" s="13">
-        <v>0</v>
+        <v>119763576</v>
       </c>
       <c r="AT97" s="13">
-        <v>119763576</v>
+        <v>0</v>
       </c>
       <c r="AU97" s="13">
-        <v>0</v>
+        <v>135313259</v>
       </c>
       <c r="AV97" s="13">
-        <v>0</v>
+        <v>121381226</v>
       </c>
       <c r="AW97" s="13">
-        <v>121381226</v>
+        <v>0</v>
       </c>
       <c r="AX97" s="13">
-        <v>0</v>
+        <v>56098173</v>
       </c>
       <c r="AY97" s="13">
-        <v>56098173</v>
+        <v>110849234</v>
       </c>
       <c r="AZ97" s="13">
-        <v>110849234</v>
+        <v>0</v>
       </c>
       <c r="BA97" s="13">
-        <v>0</v>
+        <v>1061580419</v>
       </c>
       <c r="BB97" s="13">
         <v>0</v>
@@ -12853,8 +12853,8 @@
       <c r="X98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y98" s="11" t="s">
-        <v>58</v>
+      <c r="Y98" s="11">
+        <v>0</v>
       </c>
       <c r="Z98" s="11">
         <v>0</v>
@@ -12886,14 +12886,14 @@
       <c r="AI98" s="11">
         <v>0</v>
       </c>
-      <c r="AJ98" s="11">
-        <v>0</v>
+      <c r="AJ98" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL98" s="11" t="s">
-        <v>58</v>
+      <c r="AL98" s="11">
+        <v>0</v>
       </c>
       <c r="AM98" s="11">
         <v>0</v>
@@ -12904,44 +12904,44 @@
       <c r="AO98" s="11">
         <v>0</v>
       </c>
-      <c r="AP98" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ98" s="11" t="s">
-        <v>58</v>
+      <c r="AP98" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ98" s="11">
+        <v>0</v>
       </c>
       <c r="AR98" s="11">
-        <v>0</v>
+        <v>95288186</v>
       </c>
       <c r="AS98" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT98" s="11">
         <v>124653061</v>
       </c>
+      <c r="AT98" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV98" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW98" s="11">
+      <c r="AV98" s="11">
         <v>173492308</v>
       </c>
-      <c r="AX98" s="11" t="s">
-        <v>58</v>
+      <c r="AW98" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX98" s="11">
+        <v>130710900</v>
       </c>
       <c r="AY98" s="11">
-        <v>130710900</v>
+        <v>0</v>
       </c>
       <c r="AZ98" s="11">
         <v>0</v>
       </c>
       <c r="BA98" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB98" s="11">
-        <v>0</v>
+        <v>863488889</v>
+      </c>
+      <c r="BB98" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.3">
@@ -13012,8 +13012,8 @@
       <c r="X99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y99" s="13" t="s">
-        <v>58</v>
+      <c r="Y99" s="13">
+        <v>0</v>
       </c>
       <c r="Z99" s="13">
         <v>0</v>
@@ -13070,34 +13070,34 @@
         <v>0</v>
       </c>
       <c r="AR99" s="13">
-        <v>0</v>
+        <v>93704671</v>
       </c>
       <c r="AS99" s="13">
-        <v>0</v>
+        <v>135482174</v>
       </c>
       <c r="AT99" s="13">
-        <v>135482174</v>
+        <v>0</v>
       </c>
       <c r="AU99" s="13">
-        <v>0</v>
+        <v>148727801</v>
       </c>
       <c r="AV99" s="13">
-        <v>0</v>
+        <v>138657823</v>
       </c>
       <c r="AW99" s="13">
-        <v>138657823</v>
+        <v>0</v>
       </c>
       <c r="AX99" s="13">
-        <v>0</v>
+        <v>65846581</v>
       </c>
       <c r="AY99" s="13">
-        <v>65846581</v>
+        <v>97914589</v>
       </c>
       <c r="AZ99" s="13">
-        <v>97914589</v>
+        <v>0</v>
       </c>
       <c r="BA99" s="13">
-        <v>0</v>
+        <v>759697881</v>
       </c>
       <c r="BB99" s="13">
         <v>0</v>
@@ -13171,8 +13171,8 @@
       <c r="X100" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y100" s="11" t="s">
-        <v>58</v>
+      <c r="Y100" s="11">
+        <v>0</v>
       </c>
       <c r="Z100" s="11">
         <v>0</v>
@@ -13229,34 +13229,34 @@
         <v>0</v>
       </c>
       <c r="AR100" s="11">
-        <v>0</v>
+        <v>117448073</v>
       </c>
       <c r="AS100" s="11">
-        <v>0</v>
+        <v>176878975</v>
       </c>
       <c r="AT100" s="11">
-        <v>176878975</v>
+        <v>0</v>
       </c>
       <c r="AU100" s="11">
-        <v>0</v>
+        <v>189052306</v>
       </c>
       <c r="AV100" s="11">
-        <v>0</v>
+        <v>213336737</v>
       </c>
       <c r="AW100" s="11">
-        <v>213336737</v>
+        <v>0</v>
       </c>
       <c r="AX100" s="11">
-        <v>0</v>
+        <v>57954839</v>
       </c>
       <c r="AY100" s="11">
-        <v>57954839</v>
+        <v>151921889</v>
       </c>
       <c r="AZ100" s="11">
-        <v>151921889</v>
+        <v>0</v>
       </c>
       <c r="BA100" s="11">
-        <v>0</v>
+        <v>992416287</v>
       </c>
       <c r="BB100" s="11">
         <v>0</v>
@@ -13333,11 +13333,11 @@
       <c r="Y101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA101" s="13">
-        <v>0</v>
+      <c r="Z101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AB101" s="13" t="s">
         <v>58</v>
@@ -13345,20 +13345,20 @@
       <c r="AC101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE101" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF101" s="13" t="s">
-        <v>58</v>
+      <c r="AD101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF101" s="13">
+        <v>0</v>
       </c>
       <c r="AG101" s="13">
         <v>0</v>
       </c>
-      <c r="AH101" s="13">
-        <v>0</v>
+      <c r="AH101" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI101" s="13" t="s">
         <v>58</v>
@@ -13378,47 +13378,47 @@
       <c r="AN101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP101" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ101" s="13" t="s">
-        <v>58</v>
+      <c r="AO101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ101" s="13">
+        <v>0</v>
       </c>
       <c r="AR101" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS101" s="13" t="s">
-        <v>58</v>
+        <v>130100009</v>
+      </c>
+      <c r="AS101" s="13">
+        <v>182373688</v>
       </c>
       <c r="AT101" s="13">
-        <v>182373688</v>
+        <v>0</v>
       </c>
       <c r="AU101" s="13">
-        <v>0</v>
+        <v>211201714</v>
       </c>
       <c r="AV101" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW101" s="13">
         <v>241017882</v>
       </c>
-      <c r="AX101" s="13" t="s">
-        <v>58</v>
+      <c r="AW101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX101" s="13">
+        <v>-6281305</v>
       </c>
       <c r="AY101" s="13">
-        <v>-6281305</v>
-      </c>
-      <c r="AZ101" s="13">
         <v>213489669</v>
       </c>
-      <c r="BA101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB101" s="13">
-        <v>0</v>
+      <c r="AZ101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA101" s="13">
+        <v>140424087</v>
+      </c>
+      <c r="BB101" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="2:54" x14ac:dyDescent="0.3">
@@ -13489,8 +13489,8 @@
       <c r="X102" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y102" s="11" t="s">
-        <v>58</v>
+      <c r="Y102" s="11">
+        <v>0</v>
       </c>
       <c r="Z102" s="11">
         <v>0</v>
@@ -13547,34 +13547,34 @@
         <v>0</v>
       </c>
       <c r="AR102" s="11">
-        <v>0</v>
+        <v>112351744</v>
       </c>
       <c r="AS102" s="11">
-        <v>0</v>
+        <v>138223117</v>
       </c>
       <c r="AT102" s="11">
-        <v>138223117</v>
+        <v>0</v>
       </c>
       <c r="AU102" s="11">
-        <v>0</v>
+        <v>208164871</v>
       </c>
       <c r="AV102" s="11">
-        <v>0</v>
+        <v>237202826</v>
       </c>
       <c r="AW102" s="11">
-        <v>237202826</v>
+        <v>0</v>
       </c>
       <c r="AX102" s="11">
-        <v>0</v>
+        <v>77309799</v>
       </c>
       <c r="AY102" s="11">
-        <v>77309799</v>
+        <v>213594845</v>
       </c>
       <c r="AZ102" s="11">
-        <v>213594845</v>
+        <v>0</v>
       </c>
       <c r="BA102" s="11">
-        <v>0</v>
+        <v>1567328039</v>
       </c>
       <c r="BB102" s="11">
         <v>0</v>
@@ -13648,8 +13648,8 @@
       <c r="X103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y103" s="13" t="s">
-        <v>58</v>
+      <c r="Y103" s="13">
+        <v>0</v>
       </c>
       <c r="Z103" s="13">
         <v>0</v>
@@ -13706,34 +13706,34 @@
         <v>0</v>
       </c>
       <c r="AR103" s="13">
-        <v>0</v>
+        <v>99252986</v>
       </c>
       <c r="AS103" s="13">
-        <v>0</v>
+        <v>122746198</v>
       </c>
       <c r="AT103" s="13">
-        <v>122746198</v>
+        <v>0</v>
       </c>
       <c r="AU103" s="13">
-        <v>0</v>
+        <v>151885938</v>
       </c>
       <c r="AV103" s="13">
-        <v>0</v>
+        <v>161780416</v>
       </c>
       <c r="AW103" s="13">
-        <v>161780416</v>
+        <v>0</v>
       </c>
       <c r="AX103" s="13">
-        <v>0</v>
+        <v>63306101</v>
       </c>
       <c r="AY103" s="13">
-        <v>63306101</v>
+        <v>130109828</v>
       </c>
       <c r="AZ103" s="13">
-        <v>130109828</v>
+        <v>0</v>
       </c>
       <c r="BA103" s="13">
-        <v>0</v>
+        <v>832341889</v>
       </c>
       <c r="BB103" s="13">
         <v>0</v>
@@ -13807,8 +13807,8 @@
       <c r="X104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y104" s="11" t="s">
-        <v>58</v>
+      <c r="Y104" s="11">
+        <v>0</v>
       </c>
       <c r="Z104" s="11">
         <v>0</v>
@@ -13865,34 +13865,34 @@
         <v>0</v>
       </c>
       <c r="AR104" s="11">
-        <v>0</v>
+        <v>118897305</v>
       </c>
       <c r="AS104" s="11">
-        <v>0</v>
+        <v>190118239</v>
       </c>
       <c r="AT104" s="11">
-        <v>190118239</v>
+        <v>0</v>
       </c>
       <c r="AU104" s="11">
-        <v>0</v>
+        <v>220270424</v>
       </c>
       <c r="AV104" s="11">
-        <v>0</v>
+        <v>250815047</v>
       </c>
       <c r="AW104" s="11">
-        <v>250815047</v>
+        <v>0</v>
       </c>
       <c r="AX104" s="11">
-        <v>0</v>
+        <v>88530482</v>
       </c>
       <c r="AY104" s="11">
-        <v>88530482</v>
+        <v>218907212</v>
       </c>
       <c r="AZ104" s="11">
-        <v>218907212</v>
+        <v>0</v>
       </c>
       <c r="BA104" s="11">
-        <v>0</v>
+        <v>1303021367</v>
       </c>
       <c r="BB104" s="11">
         <v>0</v>

--- a/database/industries/palayesh/shetran/product/monthly_seprated.xlsx
+++ b/database/industries/palayesh/shetran/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\palayesh\shetran\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shetran\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A59EDA-5ADB-4963-B28C-642BC87D9D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9571118C-01A4-416E-91C2-5F27998AC792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="95">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شتران-پالایش نفت تهران</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
   </si>
   <si>
     <t>ماه 9 منتهی به 1397/09</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -787,12 +787,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -847,7 +847,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -904,7 +904,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1016,7 +1016,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1185,7 +1185,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1397,7 +1397,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1454,7 +1454,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1519,101 +1519,101 @@
       <c r="W11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="X11" s="11">
+        <v>79489</v>
       </c>
       <c r="Y11" s="11">
-        <v>79489</v>
+        <v>112614</v>
       </c>
       <c r="Z11" s="11">
-        <v>112614</v>
+        <v>86096</v>
       </c>
       <c r="AA11" s="11">
-        <v>86096</v>
+        <v>72893</v>
       </c>
       <c r="AB11" s="11">
-        <v>72893</v>
+        <v>89017</v>
       </c>
       <c r="AC11" s="11">
-        <v>89017</v>
+        <v>75917</v>
       </c>
       <c r="AD11" s="11">
-        <v>75917</v>
+        <v>82161</v>
       </c>
       <c r="AE11" s="11">
-        <v>82161</v>
+        <v>76159</v>
       </c>
       <c r="AF11" s="11">
-        <v>76159</v>
+        <v>84929</v>
       </c>
       <c r="AG11" s="11">
-        <v>84929</v>
+        <v>67339</v>
       </c>
       <c r="AH11" s="11">
-        <v>67339</v>
+        <v>113454</v>
       </c>
       <c r="AI11" s="11">
-        <v>113454</v>
+        <v>53386</v>
       </c>
       <c r="AJ11" s="11">
-        <v>53386</v>
+        <v>43852</v>
       </c>
       <c r="AK11" s="11">
-        <v>43852</v>
+        <v>72868</v>
       </c>
       <c r="AL11" s="11">
-        <v>72868</v>
+        <v>85520</v>
       </c>
       <c r="AM11" s="11">
-        <v>85520</v>
+        <v>64673</v>
       </c>
       <c r="AN11" s="11">
-        <v>64673</v>
+        <v>82415</v>
       </c>
       <c r="AO11" s="11">
-        <v>82415</v>
+        <v>67316</v>
       </c>
       <c r="AP11" s="11">
-        <v>67316</v>
+        <v>75393</v>
       </c>
       <c r="AQ11" s="11">
-        <v>75393</v>
+        <v>82961</v>
       </c>
       <c r="AR11" s="11">
-        <v>82961</v>
+        <v>82817</v>
       </c>
       <c r="AS11" s="11">
-        <v>82817</v>
+        <v>47783</v>
       </c>
       <c r="AT11" s="11">
-        <v>47783</v>
+        <v>74293</v>
       </c>
       <c r="AU11" s="11">
-        <v>74293</v>
+        <v>89338</v>
       </c>
       <c r="AV11" s="11">
-        <v>89338</v>
+        <v>97187</v>
       </c>
       <c r="AW11" s="11">
-        <v>97187</v>
+        <v>79620</v>
       </c>
       <c r="AX11" s="11">
-        <v>79620</v>
+        <v>90806</v>
       </c>
       <c r="AY11" s="11">
-        <v>90806</v>
+        <v>87322</v>
       </c>
       <c r="AZ11" s="11">
-        <v>87322</v>
+        <v>93994</v>
       </c>
       <c r="BA11" s="11">
-        <v>93994</v>
+        <v>96829</v>
       </c>
       <c r="BB11" s="11">
-        <v>96829</v>
+        <v>85513</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1678,101 +1678,101 @@
       <c r="W12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="X12" s="13">
+        <v>23219</v>
       </c>
       <c r="Y12" s="13">
-        <v>23219</v>
+        <v>8496</v>
       </c>
       <c r="Z12" s="13">
-        <v>8496</v>
+        <v>12549</v>
       </c>
       <c r="AA12" s="13">
-        <v>12549</v>
+        <v>10135</v>
       </c>
       <c r="AB12" s="13">
-        <v>10135</v>
+        <v>578</v>
       </c>
       <c r="AC12" s="13">
-        <v>578</v>
+        <v>9964</v>
       </c>
       <c r="AD12" s="13">
-        <v>9964</v>
+        <v>11088</v>
       </c>
       <c r="AE12" s="13">
-        <v>11088</v>
+        <v>8269</v>
       </c>
       <c r="AF12" s="13">
-        <v>8269</v>
+        <v>12316</v>
       </c>
       <c r="AG12" s="13">
-        <v>12316</v>
+        <v>12639</v>
       </c>
       <c r="AH12" s="13">
-        <v>12639</v>
+        <v>1505</v>
       </c>
       <c r="AI12" s="13">
-        <v>1505</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="13">
-        <v>0</v>
+        <v>1156</v>
       </c>
       <c r="AK12" s="13">
-        <v>1156</v>
+        <v>8106</v>
       </c>
       <c r="AL12" s="13">
-        <v>8106</v>
+        <v>1367</v>
       </c>
       <c r="AM12" s="13">
-        <v>1367</v>
+        <v>4448</v>
       </c>
       <c r="AN12" s="13">
-        <v>4448</v>
+        <v>6561</v>
       </c>
       <c r="AO12" s="13">
-        <v>6561</v>
+        <v>13973</v>
       </c>
       <c r="AP12" s="13">
-        <v>13973</v>
+        <v>5873</v>
       </c>
       <c r="AQ12" s="13">
-        <v>5873</v>
+        <v>13761</v>
       </c>
       <c r="AR12" s="13">
-        <v>13761</v>
+        <v>11555</v>
       </c>
       <c r="AS12" s="13">
-        <v>11555</v>
+        <v>10117</v>
       </c>
       <c r="AT12" s="13">
-        <v>10117</v>
+        <v>7942</v>
       </c>
       <c r="AU12" s="13">
-        <v>7942</v>
+        <v>8108</v>
       </c>
       <c r="AV12" s="13">
-        <v>8108</v>
+        <v>1967</v>
       </c>
       <c r="AW12" s="13">
-        <v>1967</v>
+        <v>7209</v>
       </c>
       <c r="AX12" s="13">
-        <v>7209</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="13">
-        <v>0</v>
+        <v>2073</v>
       </c>
       <c r="AZ12" s="13">
-        <v>2073</v>
+        <v>9864</v>
       </c>
       <c r="BA12" s="13">
-        <v>9864</v>
+        <v>2080</v>
       </c>
       <c r="BB12" s="13">
-        <v>2080</v>
+        <v>1619</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1837,101 +1837,101 @@
       <c r="W13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="X13" s="11">
+        <v>2072</v>
       </c>
       <c r="Y13" s="11">
+        <v>2036</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>1944</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>1909</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>1818</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>2131</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>1546</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>1617</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>3060</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>3979</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>2389</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>1867</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>2441</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>3904</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>3720</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>3169</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>1461</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>2675</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>2747</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>3521</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>3246</v>
+      </c>
+      <c r="AS13" s="11">
         <v>2072</v>
       </c>
-      <c r="Z13" s="11">
-        <v>2036</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>1944</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>1909</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>1818</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>2131</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>1546</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>1617</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>3060</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>3979</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>2389</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>1867</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>2441</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>3904</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>3720</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>3169</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>1461</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>2675</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>2747</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>3521</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>3246</v>
-      </c>
       <c r="AT13" s="11">
-        <v>2072</v>
+        <v>3900</v>
       </c>
       <c r="AU13" s="11">
-        <v>3900</v>
+        <v>3535</v>
       </c>
       <c r="AV13" s="11">
-        <v>3535</v>
+        <v>1236</v>
       </c>
       <c r="AW13" s="11">
-        <v>1236</v>
+        <v>2732</v>
       </c>
       <c r="AX13" s="11">
-        <v>2733</v>
+        <v>4186</v>
       </c>
       <c r="AY13" s="11">
-        <v>4185</v>
+        <v>4295</v>
       </c>
       <c r="AZ13" s="11">
-        <v>4295</v>
+        <v>3575</v>
       </c>
       <c r="BA13" s="11">
-        <v>3575</v>
+        <v>2279</v>
       </c>
       <c r="BB13" s="11">
-        <v>2279</v>
+        <v>3089</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1996,101 +1996,101 @@
       <c r="W14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="X14" s="13">
+        <v>45043</v>
       </c>
       <c r="Y14" s="13">
-        <v>45043</v>
+        <v>42923</v>
       </c>
       <c r="Z14" s="13">
-        <v>42923</v>
+        <v>43741</v>
       </c>
       <c r="AA14" s="13">
-        <v>43741</v>
+        <v>50130</v>
       </c>
       <c r="AB14" s="13">
-        <v>50130</v>
+        <v>51183</v>
       </c>
       <c r="AC14" s="13">
-        <v>51183</v>
+        <v>53834</v>
       </c>
       <c r="AD14" s="13">
-        <v>53834</v>
+        <v>57053</v>
       </c>
       <c r="AE14" s="13">
-        <v>57053</v>
+        <v>56590</v>
       </c>
       <c r="AF14" s="13">
-        <v>56590</v>
+        <v>51384</v>
       </c>
       <c r="AG14" s="13">
-        <v>51384</v>
+        <v>48216</v>
       </c>
       <c r="AH14" s="13">
-        <v>48216</v>
+        <v>46072</v>
       </c>
       <c r="AI14" s="13">
-        <v>46072</v>
+        <v>32110</v>
       </c>
       <c r="AJ14" s="13">
-        <v>32110</v>
+        <v>30552</v>
       </c>
       <c r="AK14" s="13">
-        <v>30552</v>
+        <v>47469</v>
       </c>
       <c r="AL14" s="13">
-        <v>47469</v>
+        <v>49864</v>
       </c>
       <c r="AM14" s="13">
-        <v>49864</v>
+        <v>46746</v>
       </c>
       <c r="AN14" s="13">
-        <v>46746</v>
+        <v>41941</v>
       </c>
       <c r="AO14" s="13">
-        <v>41941</v>
+        <v>33319</v>
       </c>
       <c r="AP14" s="13">
-        <v>33319</v>
+        <v>35613</v>
       </c>
       <c r="AQ14" s="13">
-        <v>35613</v>
+        <v>38559</v>
       </c>
       <c r="AR14" s="13">
-        <v>38559</v>
+        <v>36144</v>
       </c>
       <c r="AS14" s="13">
-        <v>36144</v>
+        <v>53996</v>
       </c>
       <c r="AT14" s="13">
-        <v>53996</v>
+        <v>43293</v>
       </c>
       <c r="AU14" s="13">
-        <v>43361</v>
+        <v>41250</v>
       </c>
       <c r="AV14" s="13">
-        <v>41250</v>
+        <v>38065</v>
       </c>
       <c r="AW14" s="13">
-        <v>38065</v>
+        <v>35854</v>
       </c>
       <c r="AX14" s="13">
-        <v>35855</v>
+        <v>39142</v>
       </c>
       <c r="AY14" s="13">
-        <v>39141</v>
+        <v>43224</v>
       </c>
       <c r="AZ14" s="13">
-        <v>43224</v>
+        <v>44866</v>
       </c>
       <c r="BA14" s="13">
-        <v>44866</v>
+        <v>37741</v>
       </c>
       <c r="BB14" s="13">
-        <v>37741</v>
+        <v>39241</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2206,26 +2206,26 @@
       <c r="AN15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO15" s="11" t="s">
-        <v>58</v>
+      <c r="AO15" s="11">
+        <v>153</v>
       </c>
       <c r="AP15" s="11">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="11">
         <v>0</v>
       </c>
       <c r="AR15" s="11">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="AS15" s="11">
-        <v>764</v>
+        <v>68</v>
       </c>
       <c r="AT15" s="11">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="11">
-        <v>-68</v>
+        <v>0</v>
       </c>
       <c r="AV15" s="11">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2314,101 +2314,101 @@
       <c r="W16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X16" s="13" t="s">
-        <v>58</v>
+      <c r="X16" s="13">
+        <v>7862</v>
       </c>
       <c r="Y16" s="13">
-        <v>7862</v>
+        <v>5122</v>
       </c>
       <c r="Z16" s="13">
-        <v>5122</v>
+        <v>11134</v>
       </c>
       <c r="AA16" s="13">
-        <v>11134</v>
+        <v>15936</v>
       </c>
       <c r="AB16" s="13">
-        <v>15936</v>
+        <v>15806</v>
       </c>
       <c r="AC16" s="13">
-        <v>15806</v>
+        <v>15568</v>
       </c>
       <c r="AD16" s="13">
-        <v>15568</v>
+        <v>12847</v>
       </c>
       <c r="AE16" s="13">
-        <v>12847</v>
+        <v>22615</v>
       </c>
       <c r="AF16" s="13">
-        <v>22615</v>
+        <v>7324</v>
       </c>
       <c r="AG16" s="13">
-        <v>7324</v>
+        <v>7056</v>
       </c>
       <c r="AH16" s="13">
-        <v>7056</v>
+        <v>5127</v>
       </c>
       <c r="AI16" s="13">
-        <v>5127</v>
+        <v>14432</v>
       </c>
       <c r="AJ16" s="13">
-        <v>14432</v>
+        <v>34669</v>
       </c>
       <c r="AK16" s="13">
-        <v>34669</v>
+        <v>46444</v>
       </c>
       <c r="AL16" s="13">
-        <v>46444</v>
+        <v>43968</v>
       </c>
       <c r="AM16" s="13">
-        <v>43968</v>
+        <v>35084</v>
       </c>
       <c r="AN16" s="13">
-        <v>35084</v>
+        <v>48794</v>
       </c>
       <c r="AO16" s="13">
-        <v>48794</v>
+        <v>39165</v>
       </c>
       <c r="AP16" s="13">
-        <v>39165</v>
+        <v>17401</v>
       </c>
       <c r="AQ16" s="13">
-        <v>17401</v>
+        <v>50215</v>
       </c>
       <c r="AR16" s="13">
-        <v>50215</v>
+        <v>23111</v>
       </c>
       <c r="AS16" s="13">
-        <v>23111</v>
+        <v>21878</v>
       </c>
       <c r="AT16" s="13">
-        <v>21878</v>
+        <v>10568</v>
       </c>
       <c r="AU16" s="13">
-        <v>10568</v>
+        <v>60594</v>
       </c>
       <c r="AV16" s="13">
-        <v>60594</v>
+        <v>42348</v>
       </c>
       <c r="AW16" s="13">
-        <v>42348</v>
+        <v>36767</v>
       </c>
       <c r="AX16" s="13">
-        <v>36767</v>
+        <v>25145</v>
       </c>
       <c r="AY16" s="13">
-        <v>25145</v>
+        <v>17980</v>
       </c>
       <c r="AZ16" s="13">
-        <v>17980</v>
+        <v>22787</v>
       </c>
       <c r="BA16" s="13">
-        <v>22787</v>
+        <v>25796</v>
       </c>
       <c r="BB16" s="13">
-        <v>25796</v>
+        <v>31057</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2473,101 +2473,101 @@
       <c r="W17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X17" s="11" t="s">
-        <v>58</v>
+      <c r="X17" s="11">
+        <v>1034</v>
       </c>
       <c r="Y17" s="11">
-        <v>1034</v>
+        <v>861</v>
       </c>
       <c r="Z17" s="11">
-        <v>861</v>
+        <v>1581</v>
       </c>
       <c r="AA17" s="11">
-        <v>1581</v>
+        <v>2349</v>
       </c>
       <c r="AB17" s="11">
-        <v>2349</v>
+        <v>1608</v>
       </c>
       <c r="AC17" s="11">
-        <v>1608</v>
+        <v>422</v>
       </c>
       <c r="AD17" s="11">
-        <v>422</v>
+        <v>972</v>
       </c>
       <c r="AE17" s="11">
-        <v>972</v>
+        <v>1182</v>
       </c>
       <c r="AF17" s="11">
-        <v>1182</v>
+        <v>344</v>
       </c>
       <c r="AG17" s="11">
-        <v>344</v>
+        <v>1446</v>
       </c>
       <c r="AH17" s="11">
-        <v>1446</v>
+        <v>181</v>
       </c>
       <c r="AI17" s="11">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="11">
         <v>0</v>
       </c>
       <c r="AK17" s="11">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="AL17" s="11">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="AM17" s="11">
-        <v>326</v>
+        <v>823</v>
       </c>
       <c r="AN17" s="11">
-        <v>823</v>
+        <v>199</v>
       </c>
       <c r="AO17" s="11">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="11">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="AQ17" s="11">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="AR17" s="11">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AS17" s="11">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="11">
         <v>0</v>
       </c>
       <c r="AU17" s="11">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AV17" s="11">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AW17" s="11">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="AX17" s="11">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="11">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AZ17" s="11">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="BA17" s="11">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2632,101 +2632,101 @@
       <c r="W18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X18" s="13" t="s">
-        <v>58</v>
+      <c r="X18" s="13">
+        <v>201385</v>
       </c>
       <c r="Y18" s="13">
-        <v>201385</v>
+        <v>149698</v>
       </c>
       <c r="Z18" s="13">
-        <v>149698</v>
+        <v>200104</v>
       </c>
       <c r="AA18" s="13">
-        <v>200104</v>
+        <v>195552</v>
       </c>
       <c r="AB18" s="13">
-        <v>195552</v>
+        <v>167481</v>
       </c>
       <c r="AC18" s="13">
-        <v>167481</v>
+        <v>174419</v>
       </c>
       <c r="AD18" s="13">
-        <v>174419</v>
+        <v>178024</v>
       </c>
       <c r="AE18" s="13">
-        <v>178024</v>
+        <v>193561</v>
       </c>
       <c r="AF18" s="13">
-        <v>193561</v>
+        <v>153232</v>
       </c>
       <c r="AG18" s="13">
-        <v>153232</v>
+        <v>175199</v>
       </c>
       <c r="AH18" s="13">
-        <v>175199</v>
+        <v>131748</v>
       </c>
       <c r="AI18" s="13">
-        <v>131748</v>
+        <v>138347</v>
       </c>
       <c r="AJ18" s="13">
-        <v>138347</v>
+        <v>170876</v>
       </c>
       <c r="AK18" s="13">
-        <v>170876</v>
+        <v>223563</v>
       </c>
       <c r="AL18" s="13">
-        <v>223563</v>
+        <v>198504</v>
       </c>
       <c r="AM18" s="13">
-        <v>198504</v>
+        <v>205855</v>
       </c>
       <c r="AN18" s="13">
-        <v>205855</v>
+        <v>225835</v>
       </c>
       <c r="AO18" s="13">
-        <v>225835</v>
+        <v>237909</v>
       </c>
       <c r="AP18" s="13">
-        <v>237909</v>
+        <v>223654</v>
       </c>
       <c r="AQ18" s="13">
-        <v>223654</v>
+        <v>223056</v>
       </c>
       <c r="AR18" s="13">
-        <v>223056</v>
+        <v>223186</v>
       </c>
       <c r="AS18" s="13">
-        <v>223186</v>
+        <v>280773</v>
       </c>
       <c r="AT18" s="13">
-        <v>280773</v>
+        <v>223242</v>
       </c>
       <c r="AU18" s="13">
-        <v>223242</v>
+        <v>188479</v>
       </c>
       <c r="AV18" s="13">
-        <v>188479</v>
+        <v>198473</v>
       </c>
       <c r="AW18" s="13">
-        <v>198473</v>
+        <v>190023</v>
       </c>
       <c r="AX18" s="13">
-        <v>190023</v>
+        <v>239348</v>
       </c>
       <c r="AY18" s="13">
-        <v>239348</v>
+        <v>220058</v>
       </c>
       <c r="AZ18" s="13">
-        <v>220058</v>
+        <v>203470</v>
       </c>
       <c r="BA18" s="13">
-        <v>203470</v>
+        <v>191232</v>
       </c>
       <c r="BB18" s="13">
-        <v>191232</v>
+        <v>205082</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2791,101 +2791,101 @@
       <c r="W19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X19" s="11" t="s">
-        <v>58</v>
+      <c r="X19" s="11">
+        <v>196883</v>
       </c>
       <c r="Y19" s="11">
-        <v>196883</v>
+        <v>199920</v>
       </c>
       <c r="Z19" s="11">
-        <v>199920</v>
+        <v>207174</v>
       </c>
       <c r="AA19" s="11">
-        <v>207174</v>
+        <v>201134</v>
       </c>
       <c r="AB19" s="11">
-        <v>201134</v>
+        <v>198178</v>
       </c>
       <c r="AC19" s="11">
-        <v>198178</v>
+        <v>195914</v>
       </c>
       <c r="AD19" s="11">
-        <v>195914</v>
+        <v>203332</v>
       </c>
       <c r="AE19" s="11">
-        <v>203332</v>
+        <v>207901</v>
       </c>
       <c r="AF19" s="11">
-        <v>207901</v>
+        <v>211106</v>
       </c>
       <c r="AG19" s="11">
-        <v>211106</v>
+        <v>212955</v>
       </c>
       <c r="AH19" s="11">
-        <v>212955</v>
+        <v>190587</v>
       </c>
       <c r="AI19" s="11">
-        <v>190587</v>
+        <v>153803</v>
       </c>
       <c r="AJ19" s="11">
-        <v>153803</v>
+        <v>126800</v>
       </c>
       <c r="AK19" s="11">
-        <v>126800</v>
+        <v>174195</v>
       </c>
       <c r="AL19" s="11">
-        <v>174195</v>
+        <v>207277</v>
       </c>
       <c r="AM19" s="11">
-        <v>207277</v>
+        <v>175016</v>
       </c>
       <c r="AN19" s="11">
-        <v>175016</v>
+        <v>200941</v>
       </c>
       <c r="AO19" s="11">
-        <v>200941</v>
+        <v>196464</v>
       </c>
       <c r="AP19" s="11">
-        <v>196464</v>
+        <v>196235</v>
       </c>
       <c r="AQ19" s="11">
-        <v>196235</v>
+        <v>197542</v>
       </c>
       <c r="AR19" s="11">
-        <v>197542</v>
+        <v>184808</v>
       </c>
       <c r="AS19" s="11">
-        <v>184808</v>
+        <v>193636</v>
       </c>
       <c r="AT19" s="11">
-        <v>193636</v>
+        <v>195779</v>
       </c>
       <c r="AU19" s="11">
-        <v>195779</v>
+        <v>188785</v>
       </c>
       <c r="AV19" s="11">
-        <v>188785</v>
+        <v>149717</v>
       </c>
       <c r="AW19" s="11">
-        <v>149717</v>
+        <v>152187</v>
       </c>
       <c r="AX19" s="11">
-        <v>152186</v>
+        <v>206556</v>
       </c>
       <c r="AY19" s="11">
-        <v>206557</v>
+        <v>202901</v>
       </c>
       <c r="AZ19" s="11">
-        <v>202901</v>
+        <v>200909</v>
       </c>
       <c r="BA19" s="11">
-        <v>200909</v>
+        <v>182764</v>
       </c>
       <c r="BB19" s="11">
-        <v>182764</v>
+        <v>205728</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
@@ -2950,44 +2950,44 @@
       <c r="W20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X20" s="13" t="s">
-        <v>58</v>
+      <c r="X20" s="13">
+        <v>0</v>
       </c>
       <c r="Y20" s="13">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="Z20" s="13">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="13">
-        <v>0</v>
+        <v>1605</v>
       </c>
       <c r="AB20" s="13">
-        <v>1605</v>
+        <v>3651</v>
       </c>
       <c r="AC20" s="13">
-        <v>3651</v>
+        <v>1773</v>
       </c>
       <c r="AD20" s="13">
-        <v>1773</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="13">
-        <v>0</v>
+        <v>4945</v>
       </c>
       <c r="AF20" s="13">
-        <v>4945</v>
+        <v>4329</v>
       </c>
       <c r="AG20" s="13">
-        <v>4329</v>
+        <v>3288</v>
       </c>
       <c r="AH20" s="13">
-        <v>3288</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="13">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AJ20" s="13">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="13">
         <v>0</v>
@@ -3002,25 +3002,25 @@
         <v>0</v>
       </c>
       <c r="AO20" s="13">
-        <v>0</v>
+        <v>4346</v>
       </c>
       <c r="AP20" s="13">
-        <v>4346</v>
+        <v>58</v>
       </c>
       <c r="AQ20" s="13">
-        <v>58</v>
+        <v>2917</v>
       </c>
       <c r="AR20" s="13">
-        <v>2917</v>
+        <v>1655</v>
       </c>
       <c r="AS20" s="13">
-        <v>1655</v>
+        <v>4536</v>
       </c>
       <c r="AT20" s="13">
-        <v>4536</v>
+        <v>4740</v>
       </c>
       <c r="AU20" s="13">
-        <v>4740</v>
+        <v>0</v>
       </c>
       <c r="AV20" s="13">
         <v>0</v>
@@ -3032,19 +3032,19 @@
         <v>0</v>
       </c>
       <c r="AY20" s="13">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="AZ20" s="13">
-        <v>955</v>
+        <v>43</v>
       </c>
       <c r="BA20" s="13">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>68</v>
       </c>
@@ -3109,101 +3109,101 @@
       <c r="W21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X21" s="11" t="s">
-        <v>58</v>
+      <c r="X21" s="11">
+        <v>24738</v>
       </c>
       <c r="Y21" s="11">
-        <v>24738</v>
+        <v>18792</v>
       </c>
       <c r="Z21" s="11">
-        <v>18792</v>
+        <v>45470</v>
       </c>
       <c r="AA21" s="11">
-        <v>45470</v>
+        <v>60753</v>
       </c>
       <c r="AB21" s="11">
-        <v>60753</v>
+        <v>59216</v>
       </c>
       <c r="AC21" s="11">
-        <v>59216</v>
+        <v>50537</v>
       </c>
       <c r="AD21" s="11">
-        <v>50537</v>
+        <v>34337</v>
       </c>
       <c r="AE21" s="11">
-        <v>34337</v>
+        <v>49127</v>
       </c>
       <c r="AF21" s="11">
-        <v>49127</v>
+        <v>50094</v>
       </c>
       <c r="AG21" s="11">
-        <v>50094</v>
+        <v>61975</v>
       </c>
       <c r="AH21" s="11">
-        <v>61975</v>
+        <v>57665</v>
       </c>
       <c r="AI21" s="11">
-        <v>57665</v>
+        <v>49196</v>
       </c>
       <c r="AJ21" s="11">
-        <v>49196</v>
+        <v>68635</v>
       </c>
       <c r="AK21" s="11">
-        <v>68635</v>
+        <v>68238</v>
       </c>
       <c r="AL21" s="11">
-        <v>68238</v>
+        <v>73977</v>
       </c>
       <c r="AM21" s="11">
-        <v>73977</v>
+        <v>71702</v>
       </c>
       <c r="AN21" s="11">
-        <v>71702</v>
+        <v>60219</v>
       </c>
       <c r="AO21" s="11">
-        <v>60219</v>
+        <v>57746</v>
       </c>
       <c r="AP21" s="11">
-        <v>57746</v>
+        <v>65288</v>
       </c>
       <c r="AQ21" s="11">
-        <v>65288</v>
+        <v>62735</v>
       </c>
       <c r="AR21" s="11">
-        <v>62735</v>
+        <v>61515</v>
       </c>
       <c r="AS21" s="11">
-        <v>61515</v>
+        <v>57277</v>
       </c>
       <c r="AT21" s="11">
-        <v>57277</v>
+        <v>59722</v>
       </c>
       <c r="AU21" s="11">
-        <v>59722</v>
+        <v>64294</v>
       </c>
       <c r="AV21" s="11">
-        <v>64294</v>
+        <v>32830</v>
       </c>
       <c r="AW21" s="11">
-        <v>32830</v>
+        <v>49256</v>
       </c>
       <c r="AX21" s="11">
-        <v>49256</v>
+        <v>53645</v>
       </c>
       <c r="AY21" s="11">
-        <v>53645</v>
+        <v>51206</v>
       </c>
       <c r="AZ21" s="11">
-        <v>51206</v>
+        <v>48476</v>
       </c>
       <c r="BA21" s="11">
-        <v>48476</v>
+        <v>47026</v>
       </c>
       <c r="BB21" s="11">
-        <v>47026</v>
+        <v>57296</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>69</v>
       </c>
@@ -3268,101 +3268,101 @@
       <c r="W22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X22" s="13" t="s">
-        <v>58</v>
+      <c r="X22" s="13">
+        <v>73672</v>
       </c>
       <c r="Y22" s="13">
-        <v>73672</v>
+        <v>83341</v>
       </c>
       <c r="Z22" s="13">
-        <v>83341</v>
+        <v>68103</v>
       </c>
       <c r="AA22" s="13">
-        <v>68103</v>
+        <v>65412</v>
       </c>
       <c r="AB22" s="13">
-        <v>65412</v>
+        <v>76436</v>
       </c>
       <c r="AC22" s="13">
-        <v>76436</v>
+        <v>71463</v>
       </c>
       <c r="AD22" s="13">
-        <v>71463</v>
+        <v>72917</v>
       </c>
       <c r="AE22" s="13">
-        <v>72917</v>
+        <v>79516</v>
       </c>
       <c r="AF22" s="13">
-        <v>79516</v>
+        <v>77550</v>
       </c>
       <c r="AG22" s="13">
-        <v>77550</v>
+        <v>65050</v>
       </c>
       <c r="AH22" s="13">
-        <v>65050</v>
+        <v>66347</v>
       </c>
       <c r="AI22" s="13">
-        <v>66347</v>
+        <v>55436</v>
       </c>
       <c r="AJ22" s="13">
-        <v>55436</v>
+        <v>42113</v>
       </c>
       <c r="AK22" s="13">
-        <v>42113</v>
+        <v>74906</v>
       </c>
       <c r="AL22" s="13">
-        <v>74906</v>
+        <v>82494</v>
       </c>
       <c r="AM22" s="13">
-        <v>82494</v>
+        <v>72350</v>
       </c>
       <c r="AN22" s="13">
-        <v>72350</v>
+        <v>74586</v>
       </c>
       <c r="AO22" s="13">
-        <v>74586</v>
+        <v>71941</v>
       </c>
       <c r="AP22" s="13">
-        <v>71941</v>
+        <v>79801</v>
       </c>
       <c r="AQ22" s="13">
-        <v>79801</v>
+        <v>68952</v>
       </c>
       <c r="AR22" s="13">
-        <v>68952</v>
+        <v>69010</v>
       </c>
       <c r="AS22" s="13">
-        <v>69010</v>
+        <v>70356</v>
       </c>
       <c r="AT22" s="13">
-        <v>70356</v>
+        <v>71871</v>
       </c>
       <c r="AU22" s="13">
-        <v>71871</v>
+        <v>61397</v>
       </c>
       <c r="AV22" s="13">
-        <v>61397</v>
+        <v>79285</v>
       </c>
       <c r="AW22" s="13">
-        <v>79285</v>
+        <v>73338</v>
       </c>
       <c r="AX22" s="13">
-        <v>73338</v>
+        <v>83286</v>
       </c>
       <c r="AY22" s="13">
-        <v>83286</v>
+        <v>82932</v>
       </c>
       <c r="AZ22" s="13">
-        <v>82932</v>
+        <v>78657</v>
       </c>
       <c r="BA22" s="13">
-        <v>78657</v>
+        <v>69617</v>
       </c>
       <c r="BB22" s="13">
-        <v>69617</v>
+        <v>77994</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>70</v>
       </c>
@@ -3427,101 +3427,101 @@
       <c r="W23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X23" s="11" t="s">
-        <v>58</v>
+      <c r="X23" s="11">
+        <v>383491</v>
       </c>
       <c r="Y23" s="11">
-        <v>383491</v>
+        <v>416944</v>
       </c>
       <c r="Z23" s="11">
-        <v>416944</v>
+        <v>452374</v>
       </c>
       <c r="AA23" s="11">
-        <v>452374</v>
+        <v>441597</v>
       </c>
       <c r="AB23" s="11">
-        <v>441597</v>
+        <v>446322</v>
       </c>
       <c r="AC23" s="11">
-        <v>446322</v>
+        <v>419887</v>
       </c>
       <c r="AD23" s="11">
-        <v>419887</v>
+        <v>417179</v>
       </c>
       <c r="AE23" s="11">
-        <v>417179</v>
+        <v>474053</v>
       </c>
       <c r="AF23" s="11">
-        <v>474053</v>
+        <v>390342</v>
       </c>
       <c r="AG23" s="11">
-        <v>390342</v>
+        <v>419525</v>
       </c>
       <c r="AH23" s="11">
-        <v>419525</v>
+        <v>382843</v>
       </c>
       <c r="AI23" s="11">
-        <v>382843</v>
+        <v>310681</v>
       </c>
       <c r="AJ23" s="11">
-        <v>310681</v>
+        <v>288076</v>
       </c>
       <c r="AK23" s="11">
-        <v>288076</v>
+        <v>431591</v>
       </c>
       <c r="AL23" s="11">
-        <v>431591</v>
+        <v>461922</v>
       </c>
       <c r="AM23" s="11">
-        <v>461922</v>
+        <v>391224</v>
       </c>
       <c r="AN23" s="11">
-        <v>391224</v>
+        <v>408008</v>
       </c>
       <c r="AO23" s="11">
-        <v>408008</v>
+        <v>427295</v>
       </c>
       <c r="AP23" s="11">
-        <v>427295</v>
+        <v>391403</v>
       </c>
       <c r="AQ23" s="11">
-        <v>391403</v>
+        <v>432689</v>
       </c>
       <c r="AR23" s="11">
-        <v>432689</v>
+        <v>410656</v>
       </c>
       <c r="AS23" s="11">
-        <v>410656</v>
+        <v>447877</v>
       </c>
       <c r="AT23" s="11">
-        <v>447877</v>
+        <v>427697</v>
       </c>
       <c r="AU23" s="11">
-        <v>427697</v>
+        <v>434015</v>
       </c>
       <c r="AV23" s="11">
-        <v>434015</v>
+        <v>462373</v>
       </c>
       <c r="AW23" s="11">
-        <v>462373</v>
+        <v>406142</v>
       </c>
       <c r="AX23" s="11">
-        <v>406143</v>
+        <v>462603</v>
       </c>
       <c r="AY23" s="11">
-        <v>462602</v>
+        <v>455928</v>
       </c>
       <c r="AZ23" s="11">
-        <v>455928</v>
+        <v>438950</v>
       </c>
       <c r="BA23" s="11">
-        <v>438950</v>
+        <v>398633</v>
       </c>
       <c r="BB23" s="11">
-        <v>398633</v>
+        <v>425877</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>71</v>
       </c>
@@ -3585,100 +3585,100 @@
         <v>0</v>
       </c>
       <c r="X24" s="15">
-        <v>0</v>
+        <v>1038888</v>
       </c>
       <c r="Y24" s="15">
-        <v>1038888</v>
+        <v>1040890</v>
       </c>
       <c r="Z24" s="15">
-        <v>1040890</v>
+        <v>1130270</v>
       </c>
       <c r="AA24" s="15">
-        <v>1130270</v>
+        <v>1119405</v>
       </c>
       <c r="AB24" s="15">
-        <v>1119405</v>
+        <v>1111294</v>
       </c>
       <c r="AC24" s="15">
-        <v>1111294</v>
+        <v>1071829</v>
       </c>
       <c r="AD24" s="15">
-        <v>1071829</v>
+        <v>1071456</v>
       </c>
       <c r="AE24" s="15">
-        <v>1071456</v>
+        <v>1175535</v>
       </c>
       <c r="AF24" s="15">
-        <v>1175535</v>
+        <v>1046010</v>
       </c>
       <c r="AG24" s="15">
-        <v>1046010</v>
+        <v>1078667</v>
       </c>
       <c r="AH24" s="15">
-        <v>1078667</v>
+        <v>997918</v>
       </c>
       <c r="AI24" s="15">
-        <v>997918</v>
+        <v>809295</v>
       </c>
       <c r="AJ24" s="15">
-        <v>809295</v>
+        <v>809170</v>
       </c>
       <c r="AK24" s="15">
-        <v>809170</v>
+        <v>1151410</v>
       </c>
       <c r="AL24" s="15">
-        <v>1151410</v>
+        <v>1208939</v>
       </c>
       <c r="AM24" s="15">
-        <v>1208939</v>
+        <v>1071090</v>
       </c>
       <c r="AN24" s="15">
-        <v>1071090</v>
+        <v>1150960</v>
       </c>
       <c r="AO24" s="15">
-        <v>1150960</v>
+        <v>1152302</v>
       </c>
       <c r="AP24" s="15">
-        <v>1152302</v>
+        <v>1093660</v>
       </c>
       <c r="AQ24" s="15">
-        <v>1093660</v>
+        <v>1176965</v>
       </c>
       <c r="AR24" s="15">
-        <v>1176965</v>
+        <v>1108516</v>
       </c>
       <c r="AS24" s="15">
-        <v>1108516</v>
+        <v>1190369</v>
       </c>
       <c r="AT24" s="15">
-        <v>1190369</v>
+        <v>1123047</v>
       </c>
       <c r="AU24" s="15">
-        <v>1123047</v>
+        <v>1139925</v>
       </c>
       <c r="AV24" s="15">
-        <v>1139925</v>
+        <v>1103481</v>
       </c>
       <c r="AW24" s="15">
-        <v>1103481</v>
+        <v>1033420</v>
       </c>
       <c r="AX24" s="15">
-        <v>1033422</v>
+        <v>1204717</v>
       </c>
       <c r="AY24" s="15">
-        <v>1204715</v>
+        <v>1168917</v>
       </c>
       <c r="AZ24" s="15">
-        <v>1168917</v>
+        <v>1145681</v>
       </c>
       <c r="BA24" s="15">
-        <v>1145681</v>
+        <v>1053997</v>
       </c>
       <c r="BB24" s="15">
-        <v>1053997</v>
+        <v>1132496</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>72</v>
       </c>
@@ -3735,7 +3735,7 @@
       <c r="BA25" s="17"/>
       <c r="BB25" s="17"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>73</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>74</v>
       </c>
@@ -3949,7 +3949,7 @@
       <c r="BA27" s="17"/>
       <c r="BB27" s="17"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4012,8 @@
       <c r="W28" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="X28" s="19" t="s">
-        <v>58</v>
+      <c r="X28" s="19">
+        <v>0</v>
       </c>
       <c r="Y28" s="19">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>76</v>
       </c>
@@ -4170,100 +4170,100 @@
         <v>0</v>
       </c>
       <c r="X29" s="15">
-        <v>0</v>
+        <v>1038888</v>
       </c>
       <c r="Y29" s="15">
-        <v>1038888</v>
+        <v>1040890</v>
       </c>
       <c r="Z29" s="15">
-        <v>1040890</v>
+        <v>1130270</v>
       </c>
       <c r="AA29" s="15">
-        <v>1130270</v>
+        <v>1119405</v>
       </c>
       <c r="AB29" s="15">
-        <v>1119405</v>
+        <v>1111294</v>
       </c>
       <c r="AC29" s="15">
-        <v>1111294</v>
+        <v>1071829</v>
       </c>
       <c r="AD29" s="15">
-        <v>1071829</v>
+        <v>1071456</v>
       </c>
       <c r="AE29" s="15">
-        <v>1071456</v>
+        <v>1175535</v>
       </c>
       <c r="AF29" s="15">
-        <v>1175535</v>
+        <v>1046010</v>
       </c>
       <c r="AG29" s="15">
-        <v>1046010</v>
+        <v>1078667</v>
       </c>
       <c r="AH29" s="15">
-        <v>1078667</v>
+        <v>997918</v>
       </c>
       <c r="AI29" s="15">
-        <v>997918</v>
+        <v>809295</v>
       </c>
       <c r="AJ29" s="15">
-        <v>809295</v>
+        <v>809170</v>
       </c>
       <c r="AK29" s="15">
-        <v>809170</v>
+        <v>1151410</v>
       </c>
       <c r="AL29" s="15">
-        <v>1151410</v>
+        <v>1208939</v>
       </c>
       <c r="AM29" s="15">
-        <v>1208939</v>
+        <v>1071090</v>
       </c>
       <c r="AN29" s="15">
-        <v>1071090</v>
+        <v>1150960</v>
       </c>
       <c r="AO29" s="15">
-        <v>1150960</v>
+        <v>1152302</v>
       </c>
       <c r="AP29" s="15">
-        <v>1152302</v>
+        <v>1093660</v>
       </c>
       <c r="AQ29" s="15">
-        <v>1093660</v>
+        <v>1176965</v>
       </c>
       <c r="AR29" s="15">
-        <v>1176965</v>
+        <v>1108516</v>
       </c>
       <c r="AS29" s="15">
-        <v>1108516</v>
+        <v>1190369</v>
       </c>
       <c r="AT29" s="15">
-        <v>1190369</v>
+        <v>1123047</v>
       </c>
       <c r="AU29" s="15">
-        <v>1123047</v>
+        <v>1139925</v>
       </c>
       <c r="AV29" s="15">
-        <v>1139925</v>
+        <v>1103481</v>
       </c>
       <c r="AW29" s="15">
-        <v>1103481</v>
+        <v>1033420</v>
       </c>
       <c r="AX29" s="15">
-        <v>1033422</v>
+        <v>1204717</v>
       </c>
       <c r="AY29" s="15">
-        <v>1204715</v>
+        <v>1168917</v>
       </c>
       <c r="AZ29" s="15">
-        <v>1168917</v>
+        <v>1145681</v>
       </c>
       <c r="BA29" s="15">
-        <v>1145681</v>
+        <v>1053997</v>
       </c>
       <c r="BB29" s="15">
-        <v>1053997</v>
+        <v>1132496</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4318,7 +4318,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4373,7 +4373,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4428,7 +4428,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>77</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4640,7 +4640,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>78</v>
       </c>
@@ -4697,7 +4697,7 @@
       <c r="BA35" s="9"/>
       <c r="BB35" s="9"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>56</v>
       </c>
@@ -4762,101 +4762,101 @@
       <c r="W36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X36" s="11" t="s">
-        <v>58</v>
+      <c r="X36" s="11">
+        <v>84811</v>
       </c>
       <c r="Y36" s="11">
-        <v>84811</v>
+        <v>108592</v>
       </c>
       <c r="Z36" s="11">
-        <v>108592</v>
+        <v>91509</v>
       </c>
       <c r="AA36" s="11">
-        <v>91509</v>
+        <v>71280</v>
       </c>
       <c r="AB36" s="11">
-        <v>71280</v>
+        <v>86175</v>
       </c>
       <c r="AC36" s="11">
-        <v>86175</v>
+        <v>79144</v>
       </c>
       <c r="AD36" s="11">
-        <v>79144</v>
+        <v>82857</v>
       </c>
       <c r="AE36" s="11">
-        <v>82857</v>
+        <v>72914</v>
       </c>
       <c r="AF36" s="11">
-        <v>72914</v>
+        <v>85671</v>
       </c>
       <c r="AG36" s="11">
-        <v>85671</v>
+        <v>71769</v>
       </c>
       <c r="AH36" s="11">
-        <v>71769</v>
+        <v>105283</v>
       </c>
       <c r="AI36" s="11">
-        <v>105283</v>
+        <v>59070</v>
       </c>
       <c r="AJ36" s="11">
-        <v>59070</v>
+        <v>39991</v>
       </c>
       <c r="AK36" s="11">
-        <v>39991</v>
+        <v>71845</v>
       </c>
       <c r="AL36" s="11">
-        <v>71845</v>
+        <v>84624</v>
       </c>
       <c r="AM36" s="11">
-        <v>84624</v>
+        <v>63951</v>
       </c>
       <c r="AN36" s="11">
-        <v>63951</v>
+        <v>83016</v>
       </c>
       <c r="AO36" s="11">
-        <v>83016</v>
+        <v>69348</v>
       </c>
       <c r="AP36" s="11">
-        <v>69348</v>
+        <v>75336</v>
       </c>
       <c r="AQ36" s="11">
-        <v>75336</v>
+        <v>86563</v>
       </c>
       <c r="AR36" s="11">
-        <v>86544</v>
+        <v>81757</v>
       </c>
       <c r="AS36" s="11">
-        <v>81757</v>
+        <v>45577</v>
       </c>
       <c r="AT36" s="11">
-        <v>45577</v>
+        <v>78622</v>
       </c>
       <c r="AU36" s="11">
-        <v>78703</v>
+        <v>87140</v>
       </c>
       <c r="AV36" s="11">
-        <v>87140</v>
+        <v>98435</v>
       </c>
       <c r="AW36" s="11">
-        <v>98435</v>
+        <v>75018</v>
       </c>
       <c r="AX36" s="11">
-        <v>75019</v>
+        <v>96850</v>
       </c>
       <c r="AY36" s="11">
-        <v>96850</v>
+        <v>84583</v>
       </c>
       <c r="AZ36" s="11">
-        <v>84583</v>
+        <v>92713</v>
       </c>
       <c r="BA36" s="11">
-        <v>92713</v>
+        <v>94952</v>
       </c>
       <c r="BB36" s="11">
-        <v>94952</v>
+        <v>90845</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>59</v>
       </c>
@@ -4921,101 +4921,101 @@
       <c r="W37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X37" s="13" t="s">
-        <v>58</v>
+      <c r="X37" s="13">
+        <v>19633</v>
       </c>
       <c r="Y37" s="13">
-        <v>19633</v>
+        <v>9966</v>
       </c>
       <c r="Z37" s="13">
-        <v>9966</v>
+        <v>9988</v>
       </c>
       <c r="AA37" s="13">
-        <v>9988</v>
+        <v>9807</v>
       </c>
       <c r="AB37" s="13">
-        <v>9807</v>
+        <v>5224</v>
       </c>
       <c r="AC37" s="13">
-        <v>5224</v>
+        <v>9937</v>
       </c>
       <c r="AD37" s="13">
+        <v>9720</v>
+      </c>
+      <c r="AE37" s="13">
         <v>9937</v>
       </c>
-      <c r="AE37" s="13">
-        <v>9720</v>
-      </c>
       <c r="AF37" s="13">
-        <v>9937</v>
+        <v>10080</v>
       </c>
       <c r="AG37" s="13">
-        <v>10080</v>
+        <v>9922</v>
       </c>
       <c r="AH37" s="13">
-        <v>9922</v>
+        <v>5154</v>
       </c>
       <c r="AI37" s="13">
-        <v>5154</v>
+        <v>49</v>
       </c>
       <c r="AJ37" s="13">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="13">
-        <v>0</v>
+        <v>9738</v>
       </c>
       <c r="AL37" s="13">
-        <v>9738</v>
+        <v>38</v>
       </c>
       <c r="AM37" s="13">
-        <v>38</v>
+        <v>5008</v>
       </c>
       <c r="AN37" s="13">
-        <v>5008</v>
+        <v>4968</v>
       </c>
       <c r="AO37" s="13">
-        <v>4968</v>
+        <v>14046</v>
       </c>
       <c r="AP37" s="13">
-        <v>14046</v>
+        <v>5047</v>
       </c>
       <c r="AQ37" s="13">
-        <v>5047</v>
+        <v>17782</v>
       </c>
       <c r="AR37" s="13">
-        <v>11687</v>
+        <v>9328</v>
       </c>
       <c r="AS37" s="13">
-        <v>9328</v>
+        <v>9529</v>
       </c>
       <c r="AT37" s="13">
-        <v>9529</v>
+        <v>9492</v>
       </c>
       <c r="AU37" s="13">
-        <v>-1722</v>
+        <v>3250</v>
       </c>
       <c r="AV37" s="13">
-        <v>3250</v>
+        <v>4997</v>
       </c>
       <c r="AW37" s="13">
-        <v>4997</v>
+        <v>5099</v>
       </c>
       <c r="AX37" s="13">
-        <v>1523</v>
+        <v>3956</v>
       </c>
       <c r="AY37" s="13">
-        <v>4511</v>
+        <v>4876</v>
       </c>
       <c r="AZ37" s="13">
-        <v>4876</v>
+        <v>9476</v>
       </c>
       <c r="BA37" s="13">
-        <v>9476</v>
+        <v>0</v>
       </c>
       <c r="BB37" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>60</v>
       </c>
@@ -5080,101 +5080,101 @@
       <c r="W38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X38" s="11" t="s">
-        <v>58</v>
+      <c r="X38" s="11">
+        <v>2373</v>
       </c>
       <c r="Y38" s="11">
-        <v>2373</v>
+        <v>1385</v>
       </c>
       <c r="Z38" s="11">
-        <v>1385</v>
+        <v>2502</v>
       </c>
       <c r="AA38" s="11">
-        <v>2502</v>
+        <v>2555</v>
       </c>
       <c r="AB38" s="11">
-        <v>2555</v>
+        <v>1882</v>
       </c>
       <c r="AC38" s="11">
-        <v>1882</v>
+        <v>1593</v>
       </c>
       <c r="AD38" s="11">
-        <v>1593</v>
+        <v>1660</v>
       </c>
       <c r="AE38" s="11">
-        <v>1660</v>
+        <v>2951</v>
       </c>
       <c r="AF38" s="11">
-        <v>2951</v>
+        <v>2456</v>
       </c>
       <c r="AG38" s="11">
-        <v>2456</v>
+        <v>1324</v>
       </c>
       <c r="AH38" s="11">
-        <v>1324</v>
+        <v>2058</v>
       </c>
       <c r="AI38" s="11">
-        <v>2058</v>
+        <v>1886</v>
       </c>
       <c r="AJ38" s="11">
-        <v>1886</v>
+        <v>1936</v>
       </c>
       <c r="AK38" s="11">
-        <v>1936</v>
+        <v>1872</v>
       </c>
       <c r="AL38" s="11">
-        <v>1872</v>
+        <v>8928</v>
       </c>
       <c r="AM38" s="11">
-        <v>8928</v>
+        <v>2444</v>
       </c>
       <c r="AN38" s="11">
-        <v>2444</v>
+        <v>2185</v>
       </c>
       <c r="AO38" s="11">
-        <v>2185</v>
+        <v>2746</v>
       </c>
       <c r="AP38" s="11">
-        <v>2746</v>
+        <v>2715</v>
       </c>
       <c r="AQ38" s="11">
-        <v>2715</v>
+        <v>1518</v>
       </c>
       <c r="AR38" s="11">
-        <v>1517</v>
+        <v>3116</v>
       </c>
       <c r="AS38" s="11">
-        <v>3116</v>
+        <v>1615</v>
       </c>
       <c r="AT38" s="11">
-        <v>1615</v>
+        <v>4057</v>
       </c>
       <c r="AU38" s="11">
-        <v>4057</v>
+        <v>3630</v>
       </c>
       <c r="AV38" s="11">
-        <v>3630</v>
+        <v>2345</v>
       </c>
       <c r="AW38" s="11">
-        <v>2345</v>
+        <v>1985</v>
       </c>
       <c r="AX38" s="11">
-        <v>1985</v>
+        <v>3922</v>
       </c>
       <c r="AY38" s="11">
-        <v>3922</v>
+        <v>5114</v>
       </c>
       <c r="AZ38" s="11">
-        <v>5114</v>
+        <v>3634</v>
       </c>
       <c r="BA38" s="11">
-        <v>3634</v>
+        <v>3870</v>
       </c>
       <c r="BB38" s="11">
-        <v>3870</v>
+        <v>2483</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>61</v>
       </c>
@@ -5239,101 +5239,101 @@
       <c r="W39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X39" s="13" t="s">
-        <v>58</v>
+      <c r="X39" s="13">
+        <v>45325</v>
       </c>
       <c r="Y39" s="13">
-        <v>45325</v>
+        <v>45177</v>
       </c>
       <c r="Z39" s="13">
-        <v>45177</v>
+        <v>43737</v>
       </c>
       <c r="AA39" s="13">
-        <v>43737</v>
+        <v>49702</v>
       </c>
       <c r="AB39" s="13">
-        <v>49702</v>
+        <v>47247</v>
       </c>
       <c r="AC39" s="13">
-        <v>47247</v>
+        <v>58199</v>
       </c>
       <c r="AD39" s="13">
-        <v>58199</v>
+        <v>56791</v>
       </c>
       <c r="AE39" s="13">
-        <v>56791</v>
+        <v>53401</v>
       </c>
       <c r="AF39" s="13">
-        <v>53401</v>
+        <v>49983</v>
       </c>
       <c r="AG39" s="13">
-        <v>49983</v>
+        <v>47625</v>
       </c>
       <c r="AH39" s="13">
-        <v>47625</v>
+        <v>49775</v>
       </c>
       <c r="AI39" s="13">
-        <v>49775</v>
+        <v>35255</v>
       </c>
       <c r="AJ39" s="13">
-        <v>35255</v>
+        <v>30120</v>
       </c>
       <c r="AK39" s="13">
-        <v>30120</v>
+        <v>47791</v>
       </c>
       <c r="AL39" s="13">
-        <v>47791</v>
+        <v>47499</v>
       </c>
       <c r="AM39" s="13">
-        <v>47499</v>
+        <v>46860</v>
       </c>
       <c r="AN39" s="13">
-        <v>46860</v>
+        <v>38611</v>
       </c>
       <c r="AO39" s="13">
-        <v>38611</v>
+        <v>34366</v>
       </c>
       <c r="AP39" s="13">
-        <v>34366</v>
+        <v>39897</v>
       </c>
       <c r="AQ39" s="13">
-        <v>39897</v>
+        <v>34635</v>
       </c>
       <c r="AR39" s="13">
-        <v>25705</v>
+        <v>41000</v>
       </c>
       <c r="AS39" s="13">
-        <v>41000</v>
+        <v>51223</v>
       </c>
       <c r="AT39" s="13">
-        <v>51223</v>
+        <v>44460</v>
       </c>
       <c r="AU39" s="13">
-        <v>41948</v>
+        <v>43342</v>
       </c>
       <c r="AV39" s="13">
-        <v>43342</v>
+        <v>40588</v>
       </c>
       <c r="AW39" s="13">
-        <v>40588</v>
+        <v>35457</v>
       </c>
       <c r="AX39" s="13">
-        <v>43212</v>
+        <v>41500</v>
       </c>
       <c r="AY39" s="13">
-        <v>41670</v>
+        <v>43631</v>
       </c>
       <c r="AZ39" s="13">
-        <v>43631</v>
+        <v>45961</v>
       </c>
       <c r="BA39" s="13">
-        <v>45961</v>
+        <v>37461</v>
       </c>
       <c r="BB39" s="13">
-        <v>37461</v>
+        <v>38266</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>62</v>
       </c>
@@ -5449,26 +5449,26 @@
       <c r="AN40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO40" s="11" t="s">
-        <v>58</v>
+      <c r="AO40" s="11">
+        <v>153</v>
       </c>
       <c r="AP40" s="11">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="11">
         <v>0</v>
       </c>
       <c r="AR40" s="11">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="AS40" s="11">
-        <v>764</v>
+        <v>68</v>
       </c>
       <c r="AT40" s="11">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="AU40" s="11">
-        <v>-68</v>
+        <v>0</v>
       </c>
       <c r="AV40" s="11">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>63</v>
       </c>
@@ -5557,101 +5557,101 @@
       <c r="W41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X41" s="13" t="s">
-        <v>58</v>
+      <c r="X41" s="13">
+        <v>7862</v>
       </c>
       <c r="Y41" s="13">
-        <v>7862</v>
+        <v>5122</v>
       </c>
       <c r="Z41" s="13">
-        <v>5122</v>
+        <v>11134</v>
       </c>
       <c r="AA41" s="13">
-        <v>11134</v>
+        <v>15936</v>
       </c>
       <c r="AB41" s="13">
-        <v>15936</v>
+        <v>15806</v>
       </c>
       <c r="AC41" s="13">
-        <v>15806</v>
+        <v>15568</v>
       </c>
       <c r="AD41" s="13">
-        <v>15568</v>
+        <v>12847</v>
       </c>
       <c r="AE41" s="13">
-        <v>12847</v>
+        <v>22615</v>
       </c>
       <c r="AF41" s="13">
-        <v>22615</v>
+        <v>7324</v>
       </c>
       <c r="AG41" s="13">
-        <v>7324</v>
+        <v>7056</v>
       </c>
       <c r="AH41" s="13">
-        <v>7056</v>
+        <v>5127</v>
       </c>
       <c r="AI41" s="13">
-        <v>5127</v>
+        <v>14432</v>
       </c>
       <c r="AJ41" s="13">
-        <v>14432</v>
+        <v>34669</v>
       </c>
       <c r="AK41" s="13">
-        <v>34669</v>
+        <v>46444</v>
       </c>
       <c r="AL41" s="13">
-        <v>46444</v>
+        <v>43968</v>
       </c>
       <c r="AM41" s="13">
-        <v>43968</v>
+        <v>35084</v>
       </c>
       <c r="AN41" s="13">
-        <v>35084</v>
+        <v>48794</v>
       </c>
       <c r="AO41" s="13">
-        <v>48794</v>
+        <v>39165</v>
       </c>
       <c r="AP41" s="13">
-        <v>39165</v>
+        <v>17401</v>
       </c>
       <c r="AQ41" s="13">
-        <v>17401</v>
+        <v>50215</v>
       </c>
       <c r="AR41" s="13">
-        <v>50215</v>
+        <v>23111</v>
       </c>
       <c r="AS41" s="13">
-        <v>23111</v>
+        <v>21878</v>
       </c>
       <c r="AT41" s="13">
-        <v>21878</v>
+        <v>10568</v>
       </c>
       <c r="AU41" s="13">
-        <v>10568</v>
+        <v>60594</v>
       </c>
       <c r="AV41" s="13">
-        <v>60594</v>
+        <v>42348</v>
       </c>
       <c r="AW41" s="13">
-        <v>42348</v>
+        <v>36767</v>
       </c>
       <c r="AX41" s="13">
-        <v>36767</v>
+        <v>25145</v>
       </c>
       <c r="AY41" s="13">
-        <v>25145</v>
+        <v>17980</v>
       </c>
       <c r="AZ41" s="13">
-        <v>17980</v>
+        <v>22787</v>
       </c>
       <c r="BA41" s="13">
-        <v>22787</v>
+        <v>25796</v>
       </c>
       <c r="BB41" s="13">
-        <v>25796</v>
+        <v>31057</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>64</v>
       </c>
@@ -5716,101 +5716,101 @@
       <c r="W42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X42" s="11" t="s">
-        <v>58</v>
+      <c r="X42" s="11">
+        <v>1034</v>
       </c>
       <c r="Y42" s="11">
-        <v>1034</v>
+        <v>861</v>
       </c>
       <c r="Z42" s="11">
-        <v>861</v>
+        <v>1581</v>
       </c>
       <c r="AA42" s="11">
-        <v>1581</v>
+        <v>2349</v>
       </c>
       <c r="AB42" s="11">
-        <v>2349</v>
+        <v>1608</v>
       </c>
       <c r="AC42" s="11">
-        <v>1608</v>
+        <v>422</v>
       </c>
       <c r="AD42" s="11">
-        <v>422</v>
+        <v>972</v>
       </c>
       <c r="AE42" s="11">
-        <v>972</v>
+        <v>1182</v>
       </c>
       <c r="AF42" s="11">
-        <v>1182</v>
+        <v>344</v>
       </c>
       <c r="AG42" s="11">
-        <v>344</v>
+        <v>1446</v>
       </c>
       <c r="AH42" s="11">
-        <v>1446</v>
+        <v>181</v>
       </c>
       <c r="AI42" s="11">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="11">
         <v>0</v>
       </c>
       <c r="AK42" s="11">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="AL42" s="11">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="AM42" s="11">
-        <v>326</v>
+        <v>823</v>
       </c>
       <c r="AN42" s="11">
-        <v>823</v>
+        <v>199</v>
       </c>
       <c r="AO42" s="11">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="11">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="AQ42" s="11">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="AR42" s="11">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AS42" s="11">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="11">
         <v>0</v>
       </c>
       <c r="AU42" s="11">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AV42" s="11">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AW42" s="11">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="AX42" s="11">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="AY42" s="11">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AZ42" s="11">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="BA42" s="11">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="BB42" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>65</v>
       </c>
@@ -5875,101 +5875,101 @@
       <c r="W43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X43" s="13" t="s">
-        <v>58</v>
+      <c r="X43" s="13">
+        <v>211040</v>
       </c>
       <c r="Y43" s="13">
-        <v>211040</v>
+        <v>138402</v>
       </c>
       <c r="Z43" s="13">
-        <v>138402</v>
+        <v>184487</v>
       </c>
       <c r="AA43" s="13">
-        <v>184487</v>
+        <v>213567</v>
       </c>
       <c r="AB43" s="13">
-        <v>213567</v>
+        <v>163676</v>
       </c>
       <c r="AC43" s="13">
-        <v>163676</v>
+        <v>161451</v>
       </c>
       <c r="AD43" s="13">
-        <v>161451</v>
+        <v>196931</v>
       </c>
       <c r="AE43" s="13">
-        <v>196931</v>
+        <v>182662</v>
       </c>
       <c r="AF43" s="13">
-        <v>182662</v>
+        <v>169087</v>
       </c>
       <c r="AG43" s="13">
-        <v>169087</v>
+        <v>170300</v>
       </c>
       <c r="AH43" s="13">
-        <v>170300</v>
+        <v>122720</v>
       </c>
       <c r="AI43" s="13">
-        <v>122720</v>
+        <v>145215</v>
       </c>
       <c r="AJ43" s="13">
-        <v>145215</v>
+        <v>164449</v>
       </c>
       <c r="AK43" s="13">
-        <v>164449</v>
+        <v>226034</v>
       </c>
       <c r="AL43" s="13">
-        <v>226034</v>
+        <v>190888</v>
       </c>
       <c r="AM43" s="13">
-        <v>190888</v>
+        <v>216864</v>
       </c>
       <c r="AN43" s="13">
-        <v>216864</v>
+        <v>215016</v>
       </c>
       <c r="AO43" s="13">
-        <v>215016</v>
+        <v>239992</v>
       </c>
       <c r="AP43" s="13">
-        <v>239992</v>
+        <v>228548</v>
       </c>
       <c r="AQ43" s="13">
-        <v>228548</v>
+        <v>244926</v>
       </c>
       <c r="AR43" s="13">
-        <v>289947</v>
+        <v>209273</v>
       </c>
       <c r="AS43" s="13">
-        <v>209273</v>
+        <v>271284</v>
       </c>
       <c r="AT43" s="13">
-        <v>271284</v>
+        <v>232236</v>
       </c>
       <c r="AU43" s="13">
-        <v>-17646</v>
+        <v>85862</v>
       </c>
       <c r="AV43" s="13">
-        <v>85862</v>
+        <v>188550</v>
       </c>
       <c r="AW43" s="13">
-        <v>188550</v>
+        <v>193942</v>
       </c>
       <c r="AX43" s="13">
-        <v>420951</v>
+        <v>215938</v>
       </c>
       <c r="AY43" s="13">
-        <v>296910</v>
+        <v>216490</v>
       </c>
       <c r="AZ43" s="13">
-        <v>216490</v>
+        <v>208322</v>
       </c>
       <c r="BA43" s="13">
-        <v>208322</v>
+        <v>199670</v>
       </c>
       <c r="BB43" s="13">
-        <v>199670</v>
+        <v>201676</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>66</v>
       </c>
@@ -6034,101 +6034,101 @@
       <c r="W44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X44" s="11" t="s">
-        <v>58</v>
+      <c r="X44" s="11">
+        <v>199166</v>
       </c>
       <c r="Y44" s="11">
-        <v>199166</v>
+        <v>200208</v>
       </c>
       <c r="Z44" s="11">
-        <v>200208</v>
+        <v>206747</v>
       </c>
       <c r="AA44" s="11">
-        <v>206747</v>
+        <v>197504</v>
       </c>
       <c r="AB44" s="11">
-        <v>197504</v>
+        <v>194636</v>
       </c>
       <c r="AC44" s="11">
-        <v>194636</v>
+        <v>203605</v>
       </c>
       <c r="AD44" s="11">
-        <v>203605</v>
+        <v>202235</v>
       </c>
       <c r="AE44" s="11">
-        <v>202235</v>
+        <v>207290</v>
       </c>
       <c r="AF44" s="11">
-        <v>207290</v>
+        <v>204811</v>
       </c>
       <c r="AG44" s="11">
-        <v>204811</v>
+        <v>213598</v>
       </c>
       <c r="AH44" s="11">
-        <v>213598</v>
+        <v>193936</v>
       </c>
       <c r="AI44" s="11">
-        <v>193936</v>
+        <v>157089</v>
       </c>
       <c r="AJ44" s="11">
-        <v>157089</v>
+        <v>129700</v>
       </c>
       <c r="AK44" s="11">
-        <v>129700</v>
+        <v>169683</v>
       </c>
       <c r="AL44" s="11">
-        <v>169683</v>
+        <v>206199</v>
       </c>
       <c r="AM44" s="11">
-        <v>206199</v>
+        <v>181718</v>
       </c>
       <c r="AN44" s="11">
-        <v>181718</v>
+        <v>197777</v>
       </c>
       <c r="AO44" s="11">
-        <v>197777</v>
+        <v>197679</v>
       </c>
       <c r="AP44" s="11">
-        <v>197679</v>
+        <v>196712</v>
       </c>
       <c r="AQ44" s="11">
-        <v>196712</v>
+        <v>200215</v>
       </c>
       <c r="AR44" s="11">
-        <v>167924</v>
+        <v>185069</v>
       </c>
       <c r="AS44" s="11">
-        <v>185069</v>
+        <v>194424</v>
       </c>
       <c r="AT44" s="11">
-        <v>194424</v>
+        <v>197207</v>
       </c>
       <c r="AU44" s="11">
-        <v>211570</v>
+        <v>213998</v>
       </c>
       <c r="AV44" s="11">
-        <v>213998</v>
+        <v>151646</v>
       </c>
       <c r="AW44" s="11">
-        <v>151646</v>
+        <v>149616</v>
       </c>
       <c r="AX44" s="11">
-        <v>156207</v>
+        <v>161692</v>
       </c>
       <c r="AY44" s="11">
-        <v>173768</v>
+        <v>205442</v>
       </c>
       <c r="AZ44" s="11">
-        <v>205442</v>
+        <v>205212</v>
       </c>
       <c r="BA44" s="11">
-        <v>205212</v>
+        <v>176995</v>
       </c>
       <c r="BB44" s="11">
-        <v>176995</v>
+        <v>209151</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>67</v>
       </c>
@@ -6193,14 +6193,14 @@
       <c r="W45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X45" s="13" t="s">
-        <v>58</v>
+      <c r="X45" s="13">
+        <v>0</v>
       </c>
       <c r="Y45" s="13">
-        <v>0</v>
+        <v>4816</v>
       </c>
       <c r="Z45" s="13">
-        <v>4816</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="13">
         <v>0</v>
@@ -6209,19 +6209,19 @@
         <v>0</v>
       </c>
       <c r="AC45" s="13">
-        <v>0</v>
+        <v>5288</v>
       </c>
       <c r="AD45" s="13">
-        <v>5288</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="13">
-        <v>0</v>
+        <v>4823</v>
       </c>
       <c r="AF45" s="13">
-        <v>4823</v>
+        <v>4830</v>
       </c>
       <c r="AG45" s="13">
-        <v>4830</v>
+        <v>0</v>
       </c>
       <c r="AH45" s="13">
         <v>0</v>
@@ -6242,52 +6242,52 @@
         <v>0</v>
       </c>
       <c r="AN45" s="13">
-        <v>0</v>
+        <v>4513</v>
       </c>
       <c r="AO45" s="13">
-        <v>4513</v>
+        <v>0</v>
       </c>
       <c r="AP45" s="13">
-        <v>0</v>
+        <v>4533</v>
       </c>
       <c r="AQ45" s="13">
-        <v>4533</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="13">
-        <v>2703</v>
+        <v>1429</v>
       </c>
       <c r="AS45" s="13">
-        <v>1429</v>
+        <v>4672</v>
       </c>
       <c r="AT45" s="13">
-        <v>4672</v>
+        <v>4770</v>
       </c>
       <c r="AU45" s="13">
-        <v>-2922</v>
+        <v>1454</v>
       </c>
       <c r="AV45" s="13">
-        <v>1454</v>
+        <v>0</v>
       </c>
       <c r="AW45" s="13">
         <v>0</v>
       </c>
       <c r="AX45" s="13">
-        <v>701</v>
+        <v>244</v>
       </c>
       <c r="AY45" s="13">
-        <v>-435</v>
+        <v>0</v>
       </c>
       <c r="AZ45" s="13">
-        <v>0</v>
+        <v>5447</v>
       </c>
       <c r="BA45" s="13">
-        <v>5447</v>
+        <v>0</v>
       </c>
       <c r="BB45" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>68</v>
       </c>
@@ -6352,101 +6352,101 @@
       <c r="W46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X46" s="11" t="s">
-        <v>58</v>
+      <c r="X46" s="11">
+        <v>34662</v>
       </c>
       <c r="Y46" s="11">
-        <v>34662</v>
+        <v>9312</v>
       </c>
       <c r="Z46" s="11">
-        <v>9312</v>
+        <v>44181</v>
       </c>
       <c r="AA46" s="11">
-        <v>44181</v>
+        <v>68872</v>
       </c>
       <c r="AB46" s="11">
-        <v>68872</v>
+        <v>53276</v>
       </c>
       <c r="AC46" s="11">
-        <v>53276</v>
+        <v>53475</v>
       </c>
       <c r="AD46" s="11">
-        <v>53475</v>
+        <v>33817</v>
       </c>
       <c r="AE46" s="11">
-        <v>33817</v>
+        <v>49203</v>
       </c>
       <c r="AF46" s="11">
-        <v>49203</v>
+        <v>48879</v>
       </c>
       <c r="AG46" s="11">
-        <v>48879</v>
+        <v>63497</v>
       </c>
       <c r="AH46" s="11">
-        <v>63497</v>
+        <v>59047</v>
       </c>
       <c r="AI46" s="11">
-        <v>59047</v>
+        <v>47759</v>
       </c>
       <c r="AJ46" s="11">
-        <v>47759</v>
+        <v>68437</v>
       </c>
       <c r="AK46" s="11">
-        <v>68437</v>
+        <v>68519</v>
       </c>
       <c r="AL46" s="11">
-        <v>68519</v>
+        <v>73268</v>
       </c>
       <c r="AM46" s="11">
-        <v>73268</v>
+        <v>68445</v>
       </c>
       <c r="AN46" s="11">
-        <v>68445</v>
+        <v>63881</v>
       </c>
       <c r="AO46" s="11">
-        <v>63881</v>
+        <v>58056</v>
       </c>
       <c r="AP46" s="11">
-        <v>58056</v>
+        <v>64326</v>
       </c>
       <c r="AQ46" s="11">
-        <v>64326</v>
+        <v>64106</v>
       </c>
       <c r="AR46" s="11">
-        <v>47006</v>
+        <v>59462</v>
       </c>
       <c r="AS46" s="11">
-        <v>59462</v>
+        <v>57123</v>
       </c>
       <c r="AT46" s="11">
-        <v>57123</v>
+        <v>57772</v>
       </c>
       <c r="AU46" s="11">
-        <v>62213</v>
+        <v>60298</v>
       </c>
       <c r="AV46" s="11">
-        <v>60298</v>
+        <v>33531</v>
       </c>
       <c r="AW46" s="11">
-        <v>33531</v>
+        <v>48476</v>
       </c>
       <c r="AX46" s="11">
-        <v>72915</v>
+        <v>52344</v>
       </c>
       <c r="AY46" s="11">
-        <v>56329</v>
+        <v>48776</v>
       </c>
       <c r="AZ46" s="11">
-        <v>48776</v>
+        <v>49113</v>
       </c>
       <c r="BA46" s="11">
-        <v>49113</v>
+        <v>48648</v>
       </c>
       <c r="BB46" s="11">
-        <v>48648</v>
+        <v>53347</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>69</v>
       </c>
@@ -6511,101 +6511,101 @@
       <c r="W47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X47" s="13" t="s">
-        <v>58</v>
+      <c r="X47" s="13">
+        <v>73470</v>
       </c>
       <c r="Y47" s="13">
-        <v>73470</v>
+        <v>83915</v>
       </c>
       <c r="Z47" s="13">
-        <v>83915</v>
+        <v>67884</v>
       </c>
       <c r="AA47" s="13">
-        <v>67884</v>
+        <v>65298</v>
       </c>
       <c r="AB47" s="13">
-        <v>65298</v>
+        <v>76662</v>
       </c>
       <c r="AC47" s="13">
-        <v>76662</v>
+        <v>71385</v>
       </c>
       <c r="AD47" s="13">
-        <v>71385</v>
+        <v>72879</v>
       </c>
       <c r="AE47" s="13">
-        <v>72879</v>
+        <v>79631</v>
       </c>
       <c r="AF47" s="13">
-        <v>79631</v>
+        <v>77297</v>
       </c>
       <c r="AG47" s="13">
-        <v>77297</v>
+        <v>65531</v>
       </c>
       <c r="AH47" s="13">
-        <v>65531</v>
+        <v>66082</v>
       </c>
       <c r="AI47" s="13">
-        <v>66082</v>
+        <v>55702</v>
       </c>
       <c r="AJ47" s="13">
-        <v>55702</v>
+        <v>41694</v>
       </c>
       <c r="AK47" s="13">
-        <v>41694</v>
+        <v>74969</v>
       </c>
       <c r="AL47" s="13">
-        <v>74969</v>
+        <v>83023</v>
       </c>
       <c r="AM47" s="13">
-        <v>83023</v>
+        <v>72123</v>
       </c>
       <c r="AN47" s="13">
-        <v>72123</v>
+        <v>74811</v>
       </c>
       <c r="AO47" s="13">
-        <v>74811</v>
+        <v>71739</v>
       </c>
       <c r="AP47" s="13">
-        <v>71739</v>
+        <v>79523</v>
       </c>
       <c r="AQ47" s="13">
-        <v>79523</v>
+        <v>69063</v>
       </c>
       <c r="AR47" s="13">
-        <v>69079</v>
+        <v>69105</v>
       </c>
       <c r="AS47" s="13">
-        <v>69105</v>
+        <v>70340</v>
       </c>
       <c r="AT47" s="13">
-        <v>70340</v>
+        <v>71916</v>
       </c>
       <c r="AU47" s="13">
-        <v>72574</v>
+        <v>61184</v>
       </c>
       <c r="AV47" s="13">
-        <v>61184</v>
+        <v>79164</v>
       </c>
       <c r="AW47" s="13">
-        <v>79164</v>
+        <v>73345</v>
       </c>
       <c r="AX47" s="13">
-        <v>73208</v>
+        <v>82735</v>
       </c>
       <c r="AY47" s="13">
-        <v>82739</v>
+        <v>83419</v>
       </c>
       <c r="AZ47" s="13">
-        <v>83419</v>
+        <v>78002</v>
       </c>
       <c r="BA47" s="13">
-        <v>78002</v>
+        <v>70239</v>
       </c>
       <c r="BB47" s="13">
-        <v>70239</v>
+        <v>78457</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>70</v>
       </c>
@@ -6670,101 +6670,101 @@
       <c r="W48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X48" s="11" t="s">
-        <v>58</v>
+      <c r="X48" s="11">
+        <v>386900</v>
       </c>
       <c r="Y48" s="11">
-        <v>386900</v>
+        <v>414177</v>
       </c>
       <c r="Z48" s="11">
-        <v>414177</v>
+        <v>457687</v>
       </c>
       <c r="AA48" s="11">
-        <v>457687</v>
+        <v>428900</v>
       </c>
       <c r="AB48" s="11">
-        <v>428900</v>
+        <v>456574</v>
       </c>
       <c r="AC48" s="11">
-        <v>456574</v>
+        <v>420706</v>
       </c>
       <c r="AD48" s="11">
-        <v>420706</v>
+        <v>419830</v>
       </c>
       <c r="AE48" s="11">
-        <v>419830</v>
+        <v>469868</v>
       </c>
       <c r="AF48" s="11">
-        <v>469868</v>
+        <v>389504</v>
       </c>
       <c r="AG48" s="11">
-        <v>389504</v>
+        <v>416892</v>
       </c>
       <c r="AH48" s="11">
-        <v>416892</v>
+        <v>385525</v>
       </c>
       <c r="AI48" s="11">
-        <v>385525</v>
+        <v>319038</v>
       </c>
       <c r="AJ48" s="11">
-        <v>319038</v>
+        <v>271548</v>
       </c>
       <c r="AK48" s="11">
-        <v>271548</v>
+        <v>433873</v>
       </c>
       <c r="AL48" s="11">
-        <v>433873</v>
+        <v>471762</v>
       </c>
       <c r="AM48" s="11">
-        <v>471762</v>
+        <v>394365</v>
       </c>
       <c r="AN48" s="11">
-        <v>394365</v>
+        <v>405902</v>
       </c>
       <c r="AO48" s="11">
-        <v>405902</v>
+        <v>429147</v>
       </c>
       <c r="AP48" s="11">
-        <v>429147</v>
+        <v>387969</v>
       </c>
       <c r="AQ48" s="11">
-        <v>387969</v>
+        <v>433915</v>
       </c>
       <c r="AR48" s="11">
-        <v>396962</v>
+        <v>389540</v>
       </c>
       <c r="AS48" s="11">
-        <v>389540</v>
+        <v>452184</v>
       </c>
       <c r="AT48" s="11">
-        <v>452184</v>
+        <v>429883</v>
       </c>
       <c r="AU48" s="11">
-        <v>366031</v>
+        <v>427607</v>
       </c>
       <c r="AV48" s="11">
-        <v>427607</v>
+        <v>466203</v>
       </c>
       <c r="AW48" s="11">
-        <v>466203</v>
+        <v>407284</v>
       </c>
       <c r="AX48" s="11">
-        <v>427663</v>
+        <v>440482</v>
       </c>
       <c r="AY48" s="11">
-        <v>469891</v>
+        <v>452133</v>
       </c>
       <c r="AZ48" s="11">
-        <v>452133</v>
+        <v>446721</v>
       </c>
       <c r="BA48" s="11">
-        <v>446721</v>
+        <v>397455</v>
       </c>
       <c r="BB48" s="11">
-        <v>397455</v>
+        <v>423149</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>79</v>
       </c>
@@ -6828,100 +6828,100 @@
         <v>0</v>
       </c>
       <c r="X49" s="15">
-        <v>0</v>
+        <v>1066276</v>
       </c>
       <c r="Y49" s="15">
-        <v>1066276</v>
+        <v>1021933</v>
       </c>
       <c r="Z49" s="15">
-        <v>1021933</v>
+        <v>1121437</v>
       </c>
       <c r="AA49" s="15">
-        <v>1121437</v>
+        <v>1125770</v>
       </c>
       <c r="AB49" s="15">
-        <v>1125770</v>
+        <v>1102766</v>
       </c>
       <c r="AC49" s="15">
-        <v>1102766</v>
+        <v>1080773</v>
       </c>
       <c r="AD49" s="15">
-        <v>1080773</v>
+        <v>1090539</v>
       </c>
       <c r="AE49" s="15">
-        <v>1090539</v>
+        <v>1156477</v>
       </c>
       <c r="AF49" s="15">
-        <v>1156477</v>
+        <v>1050266</v>
       </c>
       <c r="AG49" s="15">
-        <v>1050266</v>
+        <v>1068960</v>
       </c>
       <c r="AH49" s="15">
-        <v>1068960</v>
+        <v>994888</v>
       </c>
       <c r="AI49" s="15">
-        <v>994888</v>
+        <v>835495</v>
       </c>
       <c r="AJ49" s="15">
-        <v>835495</v>
+        <v>782544</v>
       </c>
       <c r="AK49" s="15">
-        <v>782544</v>
+        <v>1150894</v>
       </c>
       <c r="AL49" s="15">
-        <v>1150894</v>
+        <v>1210523</v>
       </c>
       <c r="AM49" s="15">
-        <v>1210523</v>
+        <v>1087685</v>
       </c>
       <c r="AN49" s="15">
-        <v>1087685</v>
+        <v>1139673</v>
       </c>
       <c r="AO49" s="15">
-        <v>1139673</v>
+        <v>1156437</v>
       </c>
       <c r="AP49" s="15">
-        <v>1156437</v>
+        <v>1102201</v>
       </c>
       <c r="AQ49" s="15">
-        <v>1102201</v>
+        <v>1202995</v>
       </c>
       <c r="AR49" s="15">
-        <v>1149346</v>
+        <v>1073003</v>
       </c>
       <c r="AS49" s="15">
-        <v>1073003</v>
+        <v>1179917</v>
       </c>
       <c r="AT49" s="15">
-        <v>1179917</v>
+        <v>1140983</v>
       </c>
       <c r="AU49" s="15">
-        <v>825306</v>
+        <v>1048489</v>
       </c>
       <c r="AV49" s="15">
-        <v>1048489</v>
+        <v>1107807</v>
       </c>
       <c r="AW49" s="15">
-        <v>1107807</v>
+        <v>1027281</v>
       </c>
       <c r="AX49" s="15">
-        <v>1310443</v>
+        <v>1124808</v>
       </c>
       <c r="AY49" s="15">
-        <v>1251300</v>
+        <v>1162487</v>
       </c>
       <c r="AZ49" s="15">
-        <v>1162487</v>
+        <v>1167478</v>
       </c>
       <c r="BA49" s="15">
-        <v>1167478</v>
+        <v>1055086</v>
       </c>
       <c r="BB49" s="15">
-        <v>1055086</v>
+        <v>1128431</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
         <v>80</v>
       </c>
@@ -6978,7 +6978,7 @@
       <c r="BA50" s="17"/>
       <c r="BB50" s="17"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
         <v>81</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
         <v>74</v>
       </c>
@@ -7192,7 +7192,7 @@
       <c r="BA52" s="17"/>
       <c r="BB52" s="17"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="s">
         <v>75</v>
       </c>
@@ -7255,8 +7255,8 @@
       <c r="W53" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="X53" s="19" t="s">
-        <v>58</v>
+      <c r="X53" s="19">
+        <v>0</v>
       </c>
       <c r="Y53" s="19">
         <v>0</v>
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>82</v>
       </c>
@@ -7406,7 +7406,7 @@
       <c r="BA54" s="17"/>
       <c r="BB54" s="17"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
         <v>83</v>
       </c>
@@ -7469,8 +7469,8 @@
       <c r="W55" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="X55" s="19" t="s">
-        <v>58</v>
+      <c r="X55" s="19">
+        <v>0</v>
       </c>
       <c r="Y55" s="19">
         <v>0</v>
@@ -7563,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
         <v>76</v>
       </c>
@@ -7627,100 +7627,100 @@
         <v>0</v>
       </c>
       <c r="X56" s="15">
-        <v>0</v>
+        <v>1066276</v>
       </c>
       <c r="Y56" s="15">
-        <v>1066276</v>
+        <v>1021933</v>
       </c>
       <c r="Z56" s="15">
-        <v>1021933</v>
+        <v>1121437</v>
       </c>
       <c r="AA56" s="15">
-        <v>1121437</v>
+        <v>1125770</v>
       </c>
       <c r="AB56" s="15">
-        <v>1125770</v>
+        <v>1102766</v>
       </c>
       <c r="AC56" s="15">
-        <v>1102766</v>
+        <v>1080773</v>
       </c>
       <c r="AD56" s="15">
-        <v>1080773</v>
+        <v>1090539</v>
       </c>
       <c r="AE56" s="15">
-        <v>1090539</v>
+        <v>1156477</v>
       </c>
       <c r="AF56" s="15">
-        <v>1156477</v>
+        <v>1050266</v>
       </c>
       <c r="AG56" s="15">
-        <v>1050266</v>
+        <v>1068960</v>
       </c>
       <c r="AH56" s="15">
-        <v>1068960</v>
+        <v>994888</v>
       </c>
       <c r="AI56" s="15">
-        <v>994888</v>
+        <v>835495</v>
       </c>
       <c r="AJ56" s="15">
-        <v>835495</v>
+        <v>782544</v>
       </c>
       <c r="AK56" s="15">
-        <v>782544</v>
+        <v>1150894</v>
       </c>
       <c r="AL56" s="15">
-        <v>1150894</v>
+        <v>1210523</v>
       </c>
       <c r="AM56" s="15">
-        <v>1210523</v>
+        <v>1087685</v>
       </c>
       <c r="AN56" s="15">
-        <v>1087685</v>
+        <v>1139673</v>
       </c>
       <c r="AO56" s="15">
-        <v>1139673</v>
+        <v>1156437</v>
       </c>
       <c r="AP56" s="15">
-        <v>1156437</v>
+        <v>1102201</v>
       </c>
       <c r="AQ56" s="15">
-        <v>1102201</v>
+        <v>1202995</v>
       </c>
       <c r="AR56" s="15">
-        <v>1149346</v>
+        <v>1073003</v>
       </c>
       <c r="AS56" s="15">
-        <v>1073003</v>
+        <v>1179917</v>
       </c>
       <c r="AT56" s="15">
-        <v>1179917</v>
+        <v>1140983</v>
       </c>
       <c r="AU56" s="15">
-        <v>825306</v>
+        <v>1048489</v>
       </c>
       <c r="AV56" s="15">
-        <v>1048489</v>
+        <v>1107807</v>
       </c>
       <c r="AW56" s="15">
-        <v>1107807</v>
+        <v>1027281</v>
       </c>
       <c r="AX56" s="15">
-        <v>1310443</v>
+        <v>1124808</v>
       </c>
       <c r="AY56" s="15">
-        <v>1251300</v>
+        <v>1162487</v>
       </c>
       <c r="AZ56" s="15">
-        <v>1162487</v>
+        <v>1167478</v>
       </c>
       <c r="BA56" s="15">
-        <v>1167478</v>
+        <v>1055086</v>
       </c>
       <c r="BB56" s="15">
-        <v>1055086</v>
+        <v>1128431</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -7775,7 +7775,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -7830,7 +7830,7 @@
       <c r="BA58" s="1"/>
       <c r="BB58" s="1"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -7885,7 +7885,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
         <v>84</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -8097,7 +8097,7 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>85</v>
       </c>
@@ -8154,7 +8154,7 @@
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>56</v>
       </c>
@@ -8219,8 +8219,8 @@
       <c r="W63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X63" s="11" t="s">
-        <v>58</v>
+      <c r="X63" s="11">
+        <v>0</v>
       </c>
       <c r="Y63" s="11">
         <v>0</v>
@@ -8280,40 +8280,40 @@
         <v>0</v>
       </c>
       <c r="AR63" s="11">
-        <v>58011737</v>
+        <v>6935392</v>
       </c>
       <c r="AS63" s="11">
-        <v>6935392</v>
+        <v>0</v>
       </c>
       <c r="AT63" s="11">
         <v>0</v>
       </c>
       <c r="AU63" s="11">
-        <v>12397154</v>
+        <v>7540192</v>
       </c>
       <c r="AV63" s="11">
-        <v>7540192</v>
+        <v>0</v>
       </c>
       <c r="AW63" s="11">
         <v>0</v>
       </c>
       <c r="AX63" s="11">
-        <v>14592002</v>
+        <v>7783013</v>
       </c>
       <c r="AY63" s="11">
-        <v>7783013</v>
+        <v>0</v>
       </c>
       <c r="AZ63" s="11">
         <v>0</v>
       </c>
       <c r="BA63" s="11">
-        <v>-42312361</v>
+        <v>0</v>
       </c>
       <c r="BB63" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>59</v>
       </c>
@@ -8378,8 +8378,8 @@
       <c r="W64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X64" s="13" t="s">
-        <v>58</v>
+      <c r="X64" s="13">
+        <v>0</v>
       </c>
       <c r="Y64" s="13">
         <v>0</v>
@@ -8439,40 +8439,40 @@
         <v>0</v>
       </c>
       <c r="AR64" s="13">
-        <v>8234928</v>
+        <v>1694246</v>
       </c>
       <c r="AS64" s="13">
-        <v>1694246</v>
+        <v>0</v>
       </c>
       <c r="AT64" s="13">
         <v>0</v>
       </c>
       <c r="AU64" s="13">
-        <v>1617843</v>
+        <v>780771</v>
       </c>
       <c r="AV64" s="13">
-        <v>780771</v>
+        <v>0</v>
       </c>
       <c r="AW64" s="13">
         <v>0</v>
       </c>
       <c r="AX64" s="13">
-        <v>1372625</v>
+        <v>828820</v>
       </c>
       <c r="AY64" s="13">
-        <v>941099</v>
+        <v>0</v>
       </c>
       <c r="AZ64" s="13">
         <v>0</v>
       </c>
       <c r="BA64" s="13">
-        <v>-4712338</v>
+        <v>0</v>
       </c>
       <c r="BB64" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>60</v>
       </c>
@@ -8537,8 +8537,8 @@
       <c r="W65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X65" s="11" t="s">
-        <v>58</v>
+      <c r="X65" s="11">
+        <v>0</v>
       </c>
       <c r="Y65" s="11">
         <v>0</v>
@@ -8598,40 +8598,40 @@
         <v>0</v>
       </c>
       <c r="AR65" s="11">
-        <v>1309708</v>
+        <v>241313</v>
       </c>
       <c r="AS65" s="11">
-        <v>241313</v>
+        <v>0</v>
       </c>
       <c r="AT65" s="11">
         <v>0</v>
       </c>
       <c r="AU65" s="11">
-        <v>522859</v>
+        <v>396920</v>
       </c>
       <c r="AV65" s="11">
-        <v>396920</v>
+        <v>0</v>
       </c>
       <c r="AW65" s="11">
         <v>0</v>
       </c>
       <c r="AX65" s="11">
-        <v>402032</v>
+        <v>131260</v>
       </c>
       <c r="AY65" s="11">
-        <v>131260</v>
+        <v>0</v>
       </c>
       <c r="AZ65" s="11">
         <v>0</v>
       </c>
       <c r="BA65" s="11">
-        <v>-1453071</v>
+        <v>0</v>
       </c>
       <c r="BB65" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>61</v>
       </c>
@@ -8696,8 +8696,8 @@
       <c r="W66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X66" s="13" t="s">
-        <v>58</v>
+      <c r="X66" s="13">
+        <v>0</v>
       </c>
       <c r="Y66" s="13">
         <v>0</v>
@@ -8757,40 +8757,40 @@
         <v>0</v>
       </c>
       <c r="AR66" s="13">
-        <v>36029073</v>
+        <v>4759684</v>
       </c>
       <c r="AS66" s="13">
-        <v>4759684</v>
+        <v>0</v>
       </c>
       <c r="AT66" s="13">
         <v>0</v>
       </c>
       <c r="AU66" s="13">
-        <v>10348747</v>
+        <v>4311170</v>
       </c>
       <c r="AV66" s="13">
-        <v>4311170</v>
+        <v>0</v>
       </c>
       <c r="AW66" s="13">
         <v>0</v>
       </c>
       <c r="AX66" s="13">
-        <v>7218713</v>
+        <v>3650515</v>
       </c>
       <c r="AY66" s="13">
-        <v>4030069</v>
+        <v>0</v>
       </c>
       <c r="AZ66" s="13">
         <v>0</v>
       </c>
       <c r="BA66" s="13">
-        <v>-25908699</v>
+        <v>0</v>
       </c>
       <c r="BB66" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>62</v>
       </c>
@@ -8906,8 +8906,8 @@
       <c r="AN67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO67" s="11" t="s">
-        <v>58</v>
+      <c r="AO67" s="11">
+        <v>0</v>
       </c>
       <c r="AP67" s="11">
         <v>0</v>
@@ -8916,10 +8916,10 @@
         <v>0</v>
       </c>
       <c r="AR67" s="11">
-        <v>16699</v>
+        <v>87981</v>
       </c>
       <c r="AS67" s="11">
-        <v>87981</v>
+        <v>0</v>
       </c>
       <c r="AT67" s="11">
         <v>0</v>
@@ -8949,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>63</v>
       </c>
@@ -9014,8 +9014,8 @@
       <c r="W68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X68" s="13" t="s">
-        <v>58</v>
+      <c r="X68" s="13">
+        <v>0</v>
       </c>
       <c r="Y68" s="13">
         <v>0</v>
@@ -9075,40 +9075,40 @@
         <v>0</v>
       </c>
       <c r="AR68" s="13">
-        <v>30646745</v>
+        <v>2767856</v>
       </c>
       <c r="AS68" s="13">
-        <v>2767856</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="13">
         <v>0</v>
       </c>
       <c r="AU68" s="13">
-        <v>4390374</v>
+        <v>7354974</v>
       </c>
       <c r="AV68" s="13">
-        <v>7354974</v>
+        <v>0</v>
       </c>
       <c r="AW68" s="13">
         <v>0</v>
       </c>
       <c r="AX68" s="13">
-        <v>9657581</v>
+        <v>2787304</v>
       </c>
       <c r="AY68" s="13">
-        <v>2787304</v>
+        <v>0</v>
       </c>
       <c r="AZ68" s="13">
         <v>0</v>
       </c>
       <c r="BA68" s="13">
-        <v>-24190233</v>
+        <v>0</v>
       </c>
       <c r="BB68" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>64</v>
       </c>
@@ -9173,8 +9173,8 @@
       <c r="W69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X69" s="11" t="s">
-        <v>58</v>
+      <c r="X69" s="11">
+        <v>0</v>
       </c>
       <c r="Y69" s="11">
         <v>0</v>
@@ -9234,25 +9234,25 @@
         <v>0</v>
       </c>
       <c r="AR69" s="11">
-        <v>319406</v>
+        <v>6108</v>
       </c>
       <c r="AS69" s="11">
-        <v>6108</v>
+        <v>0</v>
       </c>
       <c r="AT69" s="11">
         <v>0</v>
       </c>
       <c r="AU69" s="11">
-        <v>0</v>
+        <v>22554</v>
       </c>
       <c r="AV69" s="11">
-        <v>22554</v>
+        <v>0</v>
       </c>
       <c r="AW69" s="11">
         <v>0</v>
       </c>
       <c r="AX69" s="11">
-        <v>55160</v>
+        <v>0</v>
       </c>
       <c r="AY69" s="11">
         <v>0</v>
@@ -9261,13 +9261,13 @@
         <v>0</v>
       </c>
       <c r="BA69" s="11">
-        <v>-77714</v>
+        <v>0</v>
       </c>
       <c r="BB69" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>65</v>
       </c>
@@ -9332,8 +9332,8 @@
       <c r="W70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X70" s="13" t="s">
-        <v>58</v>
+      <c r="X70" s="13">
+        <v>0</v>
       </c>
       <c r="Y70" s="13">
         <v>0</v>
@@ -9393,40 +9393,40 @@
         <v>0</v>
       </c>
       <c r="AR70" s="13">
-        <v>207084792</v>
+        <v>28352761</v>
       </c>
       <c r="AS70" s="13">
-        <v>28352761</v>
+        <v>0</v>
       </c>
       <c r="AT70" s="13">
         <v>0</v>
       </c>
       <c r="AU70" s="13">
-        <v>37723022</v>
+        <v>11905438</v>
       </c>
       <c r="AV70" s="13">
-        <v>11905438</v>
+        <v>0</v>
       </c>
       <c r="AW70" s="13">
         <v>0</v>
       </c>
       <c r="AX70" s="13">
-        <v>78092671</v>
+        <v>21345605</v>
       </c>
       <c r="AY70" s="13">
-        <v>30540651</v>
+        <v>0</v>
       </c>
       <c r="AZ70" s="13">
         <v>0</v>
       </c>
       <c r="BA70" s="13">
-        <v>-158261782</v>
+        <v>0</v>
       </c>
       <c r="BB70" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>66</v>
       </c>
@@ -9491,8 +9491,8 @@
       <c r="W71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X71" s="11" t="s">
-        <v>58</v>
+      <c r="X71" s="11">
+        <v>0</v>
       </c>
       <c r="Y71" s="11">
         <v>0</v>
@@ -9552,40 +9552,40 @@
         <v>0</v>
       </c>
       <c r="AR71" s="11">
-        <v>236307284</v>
+        <v>32734815</v>
       </c>
       <c r="AS71" s="11">
-        <v>32734815</v>
+        <v>0</v>
       </c>
       <c r="AT71" s="11">
         <v>0</v>
       </c>
       <c r="AU71" s="11">
-        <v>76754102</v>
+        <v>45653635</v>
       </c>
       <c r="AV71" s="11">
-        <v>45653635</v>
+        <v>0</v>
       </c>
       <c r="AW71" s="11">
         <v>0</v>
       </c>
       <c r="AX71" s="11">
-        <v>54648859</v>
+        <v>24599044</v>
       </c>
       <c r="AY71" s="11">
-        <v>26599135</v>
+        <v>0</v>
       </c>
       <c r="AZ71" s="11">
         <v>0</v>
       </c>
       <c r="BA71" s="11">
-        <v>-203655731</v>
+        <v>0</v>
       </c>
       <c r="BB71" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>67</v>
       </c>
@@ -9650,8 +9650,8 @@
       <c r="W72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X72" s="13" t="s">
-        <v>58</v>
+      <c r="X72" s="13">
+        <v>0</v>
       </c>
       <c r="Y72" s="13">
         <v>0</v>
@@ -9711,40 +9711,40 @@
         <v>0</v>
       </c>
       <c r="AR72" s="13">
-        <v>1528545</v>
+        <v>260612</v>
       </c>
       <c r="AS72" s="13">
-        <v>260612</v>
+        <v>0</v>
       </c>
       <c r="AT72" s="13">
         <v>0</v>
       </c>
       <c r="AU72" s="13">
-        <v>369603</v>
+        <v>350440</v>
       </c>
       <c r="AV72" s="13">
-        <v>350440</v>
+        <v>0</v>
       </c>
       <c r="AW72" s="13">
         <v>0</v>
       </c>
       <c r="AX72" s="13">
-        <v>133009</v>
+        <v>51503</v>
       </c>
       <c r="AY72" s="13">
-        <v>-88162</v>
+        <v>0</v>
       </c>
       <c r="AZ72" s="13">
         <v>0</v>
       </c>
       <c r="BA72" s="13">
-        <v>-764890</v>
+        <v>0</v>
       </c>
       <c r="BB72" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>68</v>
       </c>
@@ -9809,8 +9809,8 @@
       <c r="W73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X73" s="11" t="s">
-        <v>58</v>
+      <c r="X73" s="11">
+        <v>0</v>
       </c>
       <c r="Y73" s="11">
         <v>0</v>
@@ -9870,40 +9870,40 @@
         <v>0</v>
       </c>
       <c r="AR73" s="11">
-        <v>76650966</v>
+        <v>8219023</v>
       </c>
       <c r="AS73" s="11">
-        <v>8219023</v>
+        <v>0</v>
       </c>
       <c r="AT73" s="11">
         <v>0</v>
       </c>
       <c r="AU73" s="11">
-        <v>24841563</v>
+        <v>14302856</v>
       </c>
       <c r="AV73" s="11">
-        <v>14302856</v>
+        <v>0</v>
       </c>
       <c r="AW73" s="11">
         <v>0</v>
       </c>
       <c r="AX73" s="11">
-        <v>25773135</v>
+        <v>11183636</v>
       </c>
       <c r="AY73" s="11">
-        <v>12058628</v>
+        <v>0</v>
       </c>
       <c r="AZ73" s="11">
         <v>0</v>
       </c>
       <c r="BA73" s="11">
-        <v>-76976182</v>
+        <v>0</v>
       </c>
       <c r="BB73" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>69</v>
       </c>
@@ -9968,8 +9968,8 @@
       <c r="W74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X74" s="13" t="s">
-        <v>58</v>
+      <c r="X74" s="13">
+        <v>0</v>
       </c>
       <c r="Y74" s="13">
         <v>0</v>
@@ -10029,40 +10029,40 @@
         <v>0</v>
       </c>
       <c r="AR74" s="13">
-        <v>74864145</v>
+        <v>8482376</v>
       </c>
       <c r="AS74" s="13">
-        <v>8482376</v>
+        <v>0</v>
       </c>
       <c r="AT74" s="13">
         <v>0</v>
       </c>
       <c r="AU74" s="13">
-        <v>21706627</v>
+        <v>9898373</v>
       </c>
       <c r="AV74" s="13">
-        <v>9898373</v>
+        <v>0</v>
       </c>
       <c r="AW74" s="13">
         <v>0</v>
       </c>
       <c r="AX74" s="13">
-        <v>22554584</v>
+        <v>10764748</v>
       </c>
       <c r="AY74" s="13">
-        <v>10764748</v>
+        <v>0</v>
       </c>
       <c r="AZ74" s="13">
         <v>0</v>
       </c>
       <c r="BA74" s="13">
-        <v>-64924332</v>
+        <v>0</v>
       </c>
       <c r="BB74" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>70</v>
       </c>
@@ -10127,8 +10127,8 @@
       <c r="W75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X75" s="11" t="s">
-        <v>58</v>
+      <c r="X75" s="11">
+        <v>0</v>
       </c>
       <c r="Y75" s="11">
         <v>0</v>
@@ -10188,40 +10188,40 @@
         <v>0</v>
       </c>
       <c r="AR75" s="11">
-        <v>512802055</v>
+        <v>74058659</v>
       </c>
       <c r="AS75" s="11">
-        <v>74058659</v>
+        <v>0</v>
       </c>
       <c r="AT75" s="11">
         <v>0</v>
       </c>
       <c r="AU75" s="11">
-        <v>180228565</v>
+        <v>107250270</v>
       </c>
       <c r="AV75" s="11">
-        <v>107250270</v>
+        <v>0</v>
       </c>
       <c r="AW75" s="11">
         <v>0</v>
       </c>
       <c r="AX75" s="11">
-        <v>192191970</v>
+        <v>96541697</v>
       </c>
       <c r="AY75" s="11">
-        <v>102416203</v>
+        <v>0</v>
       </c>
       <c r="AZ75" s="11">
         <v>0</v>
       </c>
       <c r="BA75" s="11">
-        <v>-582087008</v>
+        <v>0</v>
       </c>
       <c r="BB75" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
         <v>79</v>
       </c>
@@ -10345,40 +10345,40 @@
         <v>0</v>
       </c>
       <c r="AR76" s="15">
-        <v>1243806083</v>
+        <v>168600826</v>
       </c>
       <c r="AS76" s="15">
-        <v>168600826</v>
+        <v>0</v>
       </c>
       <c r="AT76" s="15">
         <v>0</v>
       </c>
       <c r="AU76" s="15">
-        <v>370900459</v>
+        <v>209767593</v>
       </c>
       <c r="AV76" s="15">
-        <v>209767593</v>
+        <v>0</v>
       </c>
       <c r="AW76" s="15">
         <v>0</v>
       </c>
       <c r="AX76" s="15">
-        <v>406692341</v>
+        <v>179667145</v>
       </c>
       <c r="AY76" s="15">
-        <v>197963948</v>
+        <v>0</v>
       </c>
       <c r="AZ76" s="15">
         <v>0</v>
       </c>
       <c r="BA76" s="15">
-        <v>-1185324341</v>
+        <v>0</v>
       </c>
       <c r="BB76" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="16" t="s">
         <v>87</v>
       </c>
@@ -10435,7 +10435,7 @@
       <c r="BA77" s="17"/>
       <c r="BB77" s="17"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
         <v>81</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="16" t="s">
         <v>88</v>
       </c>
@@ -10649,7 +10649,7 @@
       <c r="BA79" s="17"/>
       <c r="BB79" s="17"/>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="18" t="s">
         <v>75</v>
       </c>
@@ -10714,8 +10714,8 @@
       <c r="W80" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="X80" s="19" t="s">
-        <v>58</v>
+      <c r="X80" s="19">
+        <v>0</v>
       </c>
       <c r="Y80" s="19">
         <v>0</v>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="16" t="s">
         <v>89</v>
       </c>
@@ -10865,7 +10865,7 @@
       <c r="BA81" s="17"/>
       <c r="BB81" s="17"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="18" t="s">
         <v>83</v>
       </c>
@@ -10930,8 +10930,8 @@
       <c r="W82" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="X82" s="19" t="s">
-        <v>58</v>
+      <c r="X82" s="19">
+        <v>0</v>
       </c>
       <c r="Y82" s="19">
         <v>0</v>
@@ -11024,7 +11024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
         <v>90</v>
       </c>
@@ -11081,7 +11081,7 @@
       <c r="BA83" s="9"/>
       <c r="BB83" s="9"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>91</v>
       </c>
@@ -11146,8 +11146,8 @@
       <c r="W84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X84" s="11" t="s">
-        <v>58</v>
+      <c r="X84" s="11">
+        <v>0</v>
       </c>
       <c r="Y84" s="11">
         <v>0</v>
@@ -11240,7 +11240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="14" t="s">
         <v>76</v>
       </c>
@@ -11364,40 +11364,40 @@
         <v>0</v>
       </c>
       <c r="AR85" s="15">
-        <v>1243806083</v>
+        <v>168600826</v>
       </c>
       <c r="AS85" s="15">
-        <v>168600826</v>
+        <v>0</v>
       </c>
       <c r="AT85" s="15">
         <v>0</v>
       </c>
       <c r="AU85" s="15">
-        <v>370900459</v>
+        <v>209767593</v>
       </c>
       <c r="AV85" s="15">
-        <v>209767593</v>
+        <v>0</v>
       </c>
       <c r="AW85" s="15">
         <v>0</v>
       </c>
       <c r="AX85" s="15">
-        <v>406692341</v>
+        <v>179667145</v>
       </c>
       <c r="AY85" s="15">
-        <v>197963948</v>
+        <v>0</v>
       </c>
       <c r="AZ85" s="15">
         <v>0</v>
       </c>
       <c r="BA85" s="15">
-        <v>-1185324341</v>
+        <v>0</v>
       </c>
       <c r="BB85" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -11452,7 +11452,7 @@
       <c r="BA86" s="1"/>
       <c r="BB86" s="1"/>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -11507,7 +11507,7 @@
       <c r="BA87" s="1"/>
       <c r="BB87" s="1"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -11562,7 +11562,7 @@
       <c r="BA88" s="1"/>
       <c r="BB88" s="1"/>
     </row>
-    <row r="89" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
         <v>92</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -11774,7 +11774,7 @@
       <c r="BA90" s="1"/>
       <c r="BB90" s="1"/>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
         <v>93</v>
       </c>
@@ -11831,7 +11831,7 @@
       <c r="BA91" s="9"/>
       <c r="BB91" s="9"/>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
         <v>56</v>
       </c>
@@ -11896,8 +11896,8 @@
       <c r="W92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X92" s="11" t="s">
-        <v>58</v>
+      <c r="X92" s="11">
+        <v>0</v>
       </c>
       <c r="Y92" s="11">
         <v>0</v>
@@ -11957,40 +11957,40 @@
         <v>0</v>
       </c>
       <c r="AR92" s="11">
-        <v>71550793</v>
+        <v>84829336</v>
       </c>
       <c r="AS92" s="11">
-        <v>84829336</v>
+        <v>0</v>
       </c>
       <c r="AT92" s="11">
         <v>0</v>
       </c>
       <c r="AU92" s="11">
-        <v>99751802</v>
+        <v>86529630</v>
       </c>
       <c r="AV92" s="11">
-        <v>86529630</v>
+        <v>0</v>
       </c>
       <c r="AW92" s="11">
         <v>0</v>
       </c>
       <c r="AX92" s="11">
-        <v>37913577</v>
+        <v>80361518</v>
       </c>
       <c r="AY92" s="11">
-        <v>80361518</v>
+        <v>0</v>
       </c>
       <c r="AZ92" s="11">
         <v>0</v>
       </c>
       <c r="BA92" s="11">
-        <v>456380022</v>
+        <v>0</v>
       </c>
       <c r="BB92" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
         <v>59</v>
       </c>
@@ -12055,8 +12055,8 @@
       <c r="W93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X93" s="13" t="s">
-        <v>58</v>
+      <c r="X93" s="13">
+        <v>0</v>
       </c>
       <c r="Y93" s="13">
         <v>0</v>
@@ -12091,11 +12091,11 @@
       <c r="AI93" s="13">
         <v>0</v>
       </c>
-      <c r="AJ93" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK93" s="13" t="s">
-        <v>58</v>
+      <c r="AJ93" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK93" s="13">
+        <v>0</v>
       </c>
       <c r="AL93" s="13">
         <v>0</v>
@@ -12116,40 +12116,40 @@
         <v>0</v>
       </c>
       <c r="AR93" s="13">
-        <v>125423458</v>
+        <v>181630146</v>
       </c>
       <c r="AS93" s="13">
-        <v>181630146</v>
+        <v>0</v>
       </c>
       <c r="AT93" s="13">
         <v>0</v>
       </c>
       <c r="AU93" s="13">
-        <v>207229794</v>
+        <v>240237231</v>
       </c>
       <c r="AV93" s="13">
-        <v>240237231</v>
+        <v>0</v>
       </c>
       <c r="AW93" s="13">
         <v>0</v>
       </c>
       <c r="AX93" s="13">
-        <v>101161767</v>
+        <v>209509606</v>
       </c>
       <c r="AY93" s="13">
-        <v>209225074</v>
+        <v>0</v>
       </c>
       <c r="AZ93" s="13">
         <v>0</v>
       </c>
-      <c r="BA93" s="13">
-        <v>497291895</v>
+      <c r="BA93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB93" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
         <v>60</v>
       </c>
@@ -12214,8 +12214,8 @@
       <c r="W94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X94" s="11" t="s">
-        <v>58</v>
+      <c r="X94" s="11">
+        <v>0</v>
       </c>
       <c r="Y94" s="11">
         <v>0</v>
@@ -12275,40 +12275,40 @@
         <v>0</v>
       </c>
       <c r="AR94" s="11">
-        <v>44230455</v>
+        <v>77443196</v>
       </c>
       <c r="AS94" s="11">
-        <v>77443196</v>
+        <v>0</v>
       </c>
       <c r="AT94" s="11">
         <v>0</v>
       </c>
       <c r="AU94" s="11">
-        <v>92182475</v>
+        <v>109344353</v>
       </c>
       <c r="AV94" s="11">
-        <v>109344353</v>
+        <v>0</v>
       </c>
       <c r="AW94" s="11">
         <v>0</v>
       </c>
       <c r="AX94" s="11">
-        <v>29491784</v>
+        <v>33467619</v>
       </c>
       <c r="AY94" s="11">
-        <v>33467619</v>
+        <v>0</v>
       </c>
       <c r="AZ94" s="11">
         <v>0</v>
       </c>
       <c r="BA94" s="11">
-        <v>399854430</v>
+        <v>0</v>
       </c>
       <c r="BB94" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
         <v>61</v>
       </c>
@@ -12373,8 +12373,8 @@
       <c r="W95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X95" s="13" t="s">
-        <v>58</v>
+      <c r="X95" s="13">
+        <v>0</v>
       </c>
       <c r="Y95" s="13">
         <v>0</v>
@@ -12434,40 +12434,40 @@
         <v>0</v>
       </c>
       <c r="AR95" s="13">
-        <v>81237312</v>
+        <v>116089854</v>
       </c>
       <c r="AS95" s="13">
-        <v>116089854</v>
+        <v>0</v>
       </c>
       <c r="AT95" s="13">
         <v>0</v>
       </c>
       <c r="AU95" s="13">
-        <v>111072619</v>
+        <v>99468645</v>
       </c>
       <c r="AV95" s="13">
-        <v>99468645</v>
+        <v>0</v>
       </c>
       <c r="AW95" s="13">
         <v>0</v>
       </c>
       <c r="AX95" s="13">
-        <v>30338011</v>
+        <v>87964217</v>
       </c>
       <c r="AY95" s="13">
-        <v>89349717</v>
+        <v>0</v>
       </c>
       <c r="AZ95" s="13">
         <v>0</v>
       </c>
       <c r="BA95" s="13">
-        <v>563710515</v>
+        <v>0</v>
       </c>
       <c r="BB95" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
         <v>62</v>
       </c>
@@ -12583,26 +12583,26 @@
       <c r="AN96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO96" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP96" s="11">
-        <v>0</v>
+      <c r="AO96" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP96" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ96" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AR96" s="11">
-        <v>109143791</v>
+        <v>115158377</v>
       </c>
       <c r="AS96" s="11">
-        <v>115158377</v>
-      </c>
-      <c r="AT96" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU96" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AT96" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU96" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV96" s="11" t="s">
         <v>58</v>
@@ -12626,7 +12626,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="12" t="s">
         <v>63</v>
       </c>
@@ -12691,8 +12691,8 @@
       <c r="W97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X97" s="13" t="s">
-        <v>58</v>
+      <c r="X97" s="13">
+        <v>0</v>
       </c>
       <c r="Y97" s="13">
         <v>0</v>
@@ -12752,40 +12752,40 @@
         <v>0</v>
       </c>
       <c r="AR97" s="13">
-        <v>89517445</v>
+        <v>119763576</v>
       </c>
       <c r="AS97" s="13">
-        <v>119763576</v>
+        <v>0</v>
       </c>
       <c r="AT97" s="13">
         <v>0</v>
       </c>
       <c r="AU97" s="13">
-        <v>135313259</v>
+        <v>121381226</v>
       </c>
       <c r="AV97" s="13">
-        <v>121381226</v>
+        <v>0</v>
       </c>
       <c r="AW97" s="13">
         <v>0</v>
       </c>
       <c r="AX97" s="13">
-        <v>56098173</v>
+        <v>110849234</v>
       </c>
       <c r="AY97" s="13">
-        <v>110849234</v>
+        <v>0</v>
       </c>
       <c r="AZ97" s="13">
         <v>0</v>
       </c>
       <c r="BA97" s="13">
-        <v>1061580419</v>
+        <v>0</v>
       </c>
       <c r="BB97" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
         <v>64</v>
       </c>
@@ -12850,8 +12850,8 @@
       <c r="W98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X98" s="11" t="s">
-        <v>58</v>
+      <c r="X98" s="11">
+        <v>0</v>
       </c>
       <c r="Y98" s="11">
         <v>0</v>
@@ -12883,14 +12883,14 @@
       <c r="AH98" s="11">
         <v>0</v>
       </c>
-      <c r="AI98" s="11">
-        <v>0</v>
+      <c r="AI98" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK98" s="11" t="s">
-        <v>58</v>
+      <c r="AK98" s="11">
+        <v>0</v>
       </c>
       <c r="AL98" s="11">
         <v>0</v>
@@ -12901,35 +12901,35 @@
       <c r="AN98" s="11">
         <v>0</v>
       </c>
-      <c r="AO98" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP98" s="11" t="s">
-        <v>58</v>
+      <c r="AO98" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP98" s="11">
+        <v>0</v>
       </c>
       <c r="AQ98" s="11">
         <v>0</v>
       </c>
       <c r="AR98" s="11">
-        <v>95288186</v>
-      </c>
-      <c r="AS98" s="11">
         <v>124653061</v>
       </c>
+      <c r="AS98" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU98" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV98" s="11">
+      <c r="AU98" s="11">
         <v>173492308</v>
       </c>
-      <c r="AW98" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX98" s="11">
-        <v>130710900</v>
+      <c r="AV98" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW98" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX98" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY98" s="11">
         <v>0</v>
@@ -12937,14 +12937,14 @@
       <c r="AZ98" s="11">
         <v>0</v>
       </c>
-      <c r="BA98" s="11">
-        <v>863488889</v>
+      <c r="BA98" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB98" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
         <v>65</v>
       </c>
@@ -13009,8 +13009,8 @@
       <c r="W99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X99" s="13" t="s">
-        <v>58</v>
+      <c r="X99" s="13">
+        <v>0</v>
       </c>
       <c r="Y99" s="13">
         <v>0</v>
@@ -13070,40 +13070,40 @@
         <v>0</v>
       </c>
       <c r="AR99" s="13">
-        <v>93704671</v>
+        <v>135482174</v>
       </c>
       <c r="AS99" s="13">
-        <v>135482174</v>
+        <v>0</v>
       </c>
       <c r="AT99" s="13">
         <v>0</v>
       </c>
       <c r="AU99" s="13">
-        <v>148727801</v>
+        <v>138657823</v>
       </c>
       <c r="AV99" s="13">
-        <v>138657823</v>
+        <v>0</v>
       </c>
       <c r="AW99" s="13">
         <v>0</v>
       </c>
       <c r="AX99" s="13">
-        <v>65846581</v>
+        <v>98850619</v>
       </c>
       <c r="AY99" s="13">
-        <v>97914589</v>
+        <v>0</v>
       </c>
       <c r="AZ99" s="13">
         <v>0</v>
       </c>
       <c r="BA99" s="13">
-        <v>759697881</v>
+        <v>0</v>
       </c>
       <c r="BB99" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
         <v>66</v>
       </c>
@@ -13168,8 +13168,8 @@
       <c r="W100" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X100" s="11" t="s">
-        <v>58</v>
+      <c r="X100" s="11">
+        <v>0</v>
       </c>
       <c r="Y100" s="11">
         <v>0</v>
@@ -13229,40 +13229,40 @@
         <v>0</v>
       </c>
       <c r="AR100" s="11">
-        <v>117448073</v>
+        <v>176878975</v>
       </c>
       <c r="AS100" s="11">
-        <v>176878975</v>
+        <v>0</v>
       </c>
       <c r="AT100" s="11">
         <v>0</v>
       </c>
       <c r="AU100" s="11">
-        <v>189052306</v>
+        <v>213336737</v>
       </c>
       <c r="AV100" s="11">
-        <v>213336737</v>
+        <v>0</v>
       </c>
       <c r="AW100" s="11">
         <v>0</v>
       </c>
       <c r="AX100" s="11">
-        <v>57954839</v>
+        <v>152135195</v>
       </c>
       <c r="AY100" s="11">
-        <v>151921889</v>
+        <v>0</v>
       </c>
       <c r="AZ100" s="11">
         <v>0</v>
       </c>
       <c r="BA100" s="11">
-        <v>992416287</v>
+        <v>0</v>
       </c>
       <c r="BB100" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
         <v>67</v>
       </c>
@@ -13330,11 +13330,11 @@
       <c r="X101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z101" s="13">
-        <v>0</v>
+      <c r="Y101" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AA101" s="13" t="s">
         <v>58</v>
@@ -13342,20 +13342,20 @@
       <c r="AB101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD101" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE101" s="13" t="s">
-        <v>58</v>
+      <c r="AC101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE101" s="13">
+        <v>0</v>
       </c>
       <c r="AF101" s="13">
         <v>0</v>
       </c>
-      <c r="AG101" s="13">
-        <v>0</v>
+      <c r="AG101" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH101" s="13" t="s">
         <v>58</v>
@@ -13375,53 +13375,53 @@
       <c r="AM101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO101" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ101" s="13">
-        <v>0</v>
+      <c r="AN101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ101" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR101" s="13">
-        <v>130100009</v>
+        <v>182373688</v>
       </c>
       <c r="AS101" s="13">
-        <v>182373688</v>
+        <v>0</v>
       </c>
       <c r="AT101" s="13">
         <v>0</v>
       </c>
       <c r="AU101" s="13">
-        <v>211201714</v>
-      </c>
-      <c r="AV101" s="13">
         <v>241017882</v>
       </c>
+      <c r="AV101" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AW101" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AX101" s="13">
-        <v>-6281305</v>
-      </c>
-      <c r="AY101" s="13">
-        <v>213489669</v>
-      </c>
-      <c r="AZ101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA101" s="13">
-        <v>140424087</v>
+        <v>211077869</v>
+      </c>
+      <c r="AY101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ101" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA101" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB101" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
         <v>68</v>
       </c>
@@ -13486,8 +13486,8 @@
       <c r="W102" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X102" s="11" t="s">
-        <v>58</v>
+      <c r="X102" s="11">
+        <v>0</v>
       </c>
       <c r="Y102" s="11">
         <v>0</v>
@@ -13547,40 +13547,40 @@
         <v>0</v>
       </c>
       <c r="AR102" s="11">
-        <v>112351744</v>
+        <v>138223117</v>
       </c>
       <c r="AS102" s="11">
-        <v>138223117</v>
+        <v>0</v>
       </c>
       <c r="AT102" s="11">
         <v>0</v>
       </c>
       <c r="AU102" s="11">
-        <v>208164871</v>
+        <v>237202826</v>
       </c>
       <c r="AV102" s="11">
-        <v>237202826</v>
+        <v>0</v>
       </c>
       <c r="AW102" s="11">
         <v>0</v>
       </c>
       <c r="AX102" s="11">
-        <v>77309799</v>
+        <v>213656503</v>
       </c>
       <c r="AY102" s="11">
-        <v>213594845</v>
+        <v>0</v>
       </c>
       <c r="AZ102" s="11">
         <v>0</v>
       </c>
       <c r="BA102" s="11">
-        <v>1567328039</v>
+        <v>0</v>
       </c>
       <c r="BB102" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
         <v>69</v>
       </c>
@@ -13645,8 +13645,8 @@
       <c r="W103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X103" s="13" t="s">
-        <v>58</v>
+      <c r="X103" s="13">
+        <v>0</v>
       </c>
       <c r="Y103" s="13">
         <v>0</v>
@@ -13706,40 +13706,40 @@
         <v>0</v>
       </c>
       <c r="AR103" s="13">
-        <v>99252986</v>
+        <v>122746198</v>
       </c>
       <c r="AS103" s="13">
-        <v>122746198</v>
+        <v>0</v>
       </c>
       <c r="AT103" s="13">
         <v>0</v>
       </c>
       <c r="AU103" s="13">
-        <v>151885938</v>
+        <v>161780416</v>
       </c>
       <c r="AV103" s="13">
-        <v>161780416</v>
+        <v>0</v>
       </c>
       <c r="AW103" s="13">
         <v>0</v>
       </c>
       <c r="AX103" s="13">
-        <v>63306101</v>
+        <v>130111174</v>
       </c>
       <c r="AY103" s="13">
-        <v>130109828</v>
+        <v>0</v>
       </c>
       <c r="AZ103" s="13">
         <v>0</v>
       </c>
       <c r="BA103" s="13">
-        <v>832341889</v>
+        <v>0</v>
       </c>
       <c r="BB103" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>70</v>
       </c>
@@ -13804,8 +13804,8 @@
       <c r="W104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X104" s="11" t="s">
-        <v>58</v>
+      <c r="X104" s="11">
+        <v>0</v>
       </c>
       <c r="Y104" s="11">
         <v>0</v>
@@ -13865,34 +13865,34 @@
         <v>0</v>
       </c>
       <c r="AR104" s="11">
-        <v>118897305</v>
+        <v>190118239</v>
       </c>
       <c r="AS104" s="11">
-        <v>190118239</v>
+        <v>0</v>
       </c>
       <c r="AT104" s="11">
         <v>0</v>
       </c>
       <c r="AU104" s="11">
-        <v>220270424</v>
+        <v>250815047</v>
       </c>
       <c r="AV104" s="11">
-        <v>250815047</v>
+        <v>0</v>
       </c>
       <c r="AW104" s="11">
         <v>0</v>
       </c>
       <c r="AX104" s="11">
-        <v>88530482</v>
+        <v>219172854</v>
       </c>
       <c r="AY104" s="11">
-        <v>218907212</v>
+        <v>0</v>
       </c>
       <c r="AZ104" s="11">
         <v>0</v>
       </c>
       <c r="BA104" s="11">
-        <v>1303021367</v>
+        <v>0</v>
       </c>
       <c r="BB104" s="11">
         <v>0</v>
